--- a/result/NCDC_weather_data/stations_imputed/58221099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58221099999.xlsx
@@ -581,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -697,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -755,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0.007873999999999999</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -813,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0.003048</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -871,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -929,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -987,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1045,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1103,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1161,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1219,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1277,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1335,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1393,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1451,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1509,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1567,7 +1601,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1625,7 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1683,7 +1721,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1741,7 +1781,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1799,7 +1841,9 @@
       <c r="Q23" t="n">
         <v>0.007619999999999999</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1857,7 +1901,9 @@
       <c r="Q24" t="n">
         <v>0.00635</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1915,7 +1961,9 @@
       <c r="Q25" t="n">
         <v>0.00127</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1973,7 +2021,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2031,7 +2081,9 @@
       <c r="Q27" t="n">
         <v>0.005333999999999999</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2089,7 +2141,9 @@
       <c r="Q28" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2147,7 +2201,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2205,7 +2261,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2263,7 +2321,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2321,7 +2381,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,7 +2441,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2437,7 +2501,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2495,7 +2561,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2553,7 +2621,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2611,7 +2681,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2669,7 +2741,9 @@
       <c r="Q38" t="n">
         <v>0.002032</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2727,7 +2801,9 @@
       <c r="Q39" t="n">
         <v>0.007873999999999999</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2785,7 +2861,9 @@
       <c r="Q40" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2843,7 +2921,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2901,7 +2981,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2959,7 +3041,9 @@
       <c r="Q43" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3017,7 +3101,9 @@
       <c r="Q44" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3075,7 +3161,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3133,7 +3221,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3191,7 +3281,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3249,7 +3341,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3307,7 +3401,9 @@
       <c r="Q49" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3365,7 +3461,9 @@
       <c r="Q50" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3423,7 +3521,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3481,7 +3581,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3539,7 +3641,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3597,7 +3701,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3655,7 +3761,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3713,7 +3821,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3771,7 +3881,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3829,7 +3941,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3887,7 +4001,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3945,7 +4061,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4003,7 +4121,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4061,7 +4181,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4119,7 +4241,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4177,7 +4301,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4235,7 +4361,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4293,7 +4421,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4351,7 +4481,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4409,7 +4541,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4467,7 +4601,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4525,7 +4661,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4583,7 +4721,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4641,7 +4781,9 @@
       <c r="Q72" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4699,7 +4841,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4757,7 +4901,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4815,7 +4961,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4873,7 +5021,9 @@
       <c r="Q76" t="n">
         <v>0.02286</v>
       </c>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>0.0203694403892944</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">

--- a/result/NCDC_weather_data/stations_imputed/58221099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58221099999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R487"/>
+  <dimension ref="A1:S487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>SNDP</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -552,7 +557,7 @@
         <v>101.66</v>
       </c>
       <c r="H2" t="n">
-        <v>74.84</v>
+        <v>23.8</v>
       </c>
       <c r="I2" t="n">
         <v>102.76</v>
@@ -584,6 +589,9 @@
       <c r="R2" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S2" t="n">
+        <v>2.648874102014986</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -612,7 +620,7 @@
         <v>102.02</v>
       </c>
       <c r="H3" t="n">
-        <v>80.96000000000001</v>
+        <v>27.2</v>
       </c>
       <c r="I3" t="n">
         <v>102.81</v>
@@ -644,6 +652,9 @@
       <c r="R3" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S3" t="n">
+        <v>3.200546291029671</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -672,7 +683,7 @@
         <v>107.96</v>
       </c>
       <c r="H4" t="n">
-        <v>86.72</v>
+        <v>30.4</v>
       </c>
       <c r="I4" t="n">
         <v>102.53</v>
@@ -704,6 +715,9 @@
       <c r="R4" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S4" t="n">
+        <v>3.122259844280608</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -732,7 +746,7 @@
         <v>108.86</v>
       </c>
       <c r="H5" t="n">
-        <v>99.31999999999999</v>
+        <v>37.4</v>
       </c>
       <c r="I5" t="n">
         <v>102.5</v>
@@ -764,6 +778,9 @@
       <c r="R5" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S5" t="n">
+        <v>4.476090883090135</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -792,7 +809,7 @@
         <v>101.84</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34</v>
+        <v>36.3</v>
       </c>
       <c r="I6" t="n">
         <v>102.85</v>
@@ -824,6 +841,9 @@
       <c r="R6" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S6" t="n">
+        <v>5.401912801050008</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -852,7 +872,7 @@
         <v>101.12</v>
       </c>
       <c r="H7" t="n">
-        <v>87.08000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="I7" t="n">
         <v>103.32</v>
@@ -884,6 +904,9 @@
       <c r="R7" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S7" t="n">
+        <v>4.026919889700533</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -912,7 +935,7 @@
         <v>95.90000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>85.46000000000001</v>
+        <v>29.7</v>
       </c>
       <c r="I8" t="n">
         <v>103.08</v>
@@ -944,6 +967,9 @@
       <c r="R8" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S8" t="n">
+        <v>4.633503836767967</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -972,7 +998,7 @@
         <v>102.56</v>
       </c>
       <c r="H9" t="n">
-        <v>88.16</v>
+        <v>31.2</v>
       </c>
       <c r="I9" t="n">
         <v>102.67</v>
@@ -1004,6 +1030,9 @@
       <c r="R9" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S9" t="n">
+        <v>3.956403893199923</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1032,7 +1061,7 @@
         <v>102.38</v>
       </c>
       <c r="H10" t="n">
-        <v>89.59999999999999</v>
+        <v>32</v>
       </c>
       <c r="I10" t="n">
         <v>102.39</v>
@@ -1064,6 +1093,9 @@
       <c r="R10" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S10" t="n">
+        <v>4.167384000286269</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1092,7 +1124,7 @@
         <v>104</v>
       </c>
       <c r="H11" t="n">
-        <v>95.53999999999999</v>
+        <v>35.3</v>
       </c>
       <c r="I11" t="n">
         <v>102.59</v>
@@ -1124,6 +1156,9 @@
       <c r="R11" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S11" t="n">
+        <v>4.731076947115044</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1152,7 +1187,7 @@
         <v>93.02</v>
       </c>
       <c r="H12" t="n">
-        <v>83.48</v>
+        <v>28.6</v>
       </c>
       <c r="I12" t="n">
         <v>102.76</v>
@@ -1184,6 +1219,9 @@
       <c r="R12" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S12" t="n">
+        <v>4.84593190262835</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1212,7 +1250,7 @@
         <v>102.2</v>
       </c>
       <c r="H13" t="n">
-        <v>84.38</v>
+        <v>29.1</v>
       </c>
       <c r="I13" t="n">
         <v>102.58</v>
@@ -1244,6 +1282,9 @@
       <c r="R13" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S13" t="n">
+        <v>3.552391737029861</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1272,7 +1313,7 @@
         <v>86.18000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>61.88</v>
+        <v>16.6</v>
       </c>
       <c r="I14" t="n">
         <v>103.06</v>
@@ -1304,6 +1345,9 @@
       <c r="R14" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S14" t="n">
+        <v>3.046129153001697</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1332,7 +1376,7 @@
         <v>93.56</v>
       </c>
       <c r="H15" t="n">
-        <v>70.16</v>
+        <v>21.2</v>
       </c>
       <c r="I15" t="n">
         <v>102.42</v>
@@ -1364,6 +1408,9 @@
       <c r="R15" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S15" t="n">
+        <v>3.051374496683261</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1392,7 +1439,7 @@
         <v>104.54</v>
       </c>
       <c r="H16" t="n">
-        <v>89.96000000000001</v>
+        <v>32.2</v>
       </c>
       <c r="I16" t="n">
         <v>102.5</v>
@@ -1424,6 +1471,9 @@
       <c r="R16" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S16" t="n">
+        <v>3.901709622143479</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1452,7 +1502,7 @@
         <v>101.84</v>
       </c>
       <c r="H17" t="n">
-        <v>87.25999999999999</v>
+        <v>30.7</v>
       </c>
       <c r="I17" t="n">
         <v>102.82</v>
@@ -1484,6 +1534,9 @@
       <c r="R17" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S17" t="n">
+        <v>3.945975437595691</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1512,7 +1565,7 @@
         <v>103.82</v>
       </c>
       <c r="H18" t="n">
-        <v>92.66</v>
+        <v>33.7</v>
       </c>
       <c r="I18" t="n">
         <v>102.94</v>
@@ -1544,6 +1597,9 @@
       <c r="R18" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S18" t="n">
+        <v>4.355728736171128</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1572,7 +1628,7 @@
         <v>104.36</v>
       </c>
       <c r="H19" t="n">
-        <v>94.09999999999999</v>
+        <v>34.5</v>
       </c>
       <c r="I19" t="n">
         <v>102.47</v>
@@ -1604,6 +1660,9 @@
       <c r="R19" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S19" t="n">
+        <v>4.467943812646801</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1632,7 +1691,7 @@
         <v>105.8</v>
       </c>
       <c r="H20" t="n">
-        <v>95.18000000000001</v>
+        <v>35.1</v>
       </c>
       <c r="I20" t="n">
         <v>102.64</v>
@@ -1664,6 +1723,9 @@
       <c r="R20" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S20" t="n">
+        <v>4.389736057461892</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1692,7 +1754,7 @@
         <v>98.42</v>
       </c>
       <c r="H21" t="n">
-        <v>83.48</v>
+        <v>28.6</v>
       </c>
       <c r="I21" t="n">
         <v>102.93</v>
@@ -1724,6 +1786,9 @@
       <c r="R21" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S21" t="n">
+        <v>3.959876365725039</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1752,7 +1817,7 @@
         <v>106.52</v>
       </c>
       <c r="H22" t="n">
-        <v>88.52</v>
+        <v>31.4</v>
       </c>
       <c r="I22" t="n">
         <v>102.48</v>
@@ -1784,6 +1849,9 @@
       <c r="R22" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S22" t="n">
+        <v>3.476638387374862</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1812,7 +1880,7 @@
         <v>108.86</v>
       </c>
       <c r="H23" t="n">
-        <v>102.92</v>
+        <v>39.4</v>
       </c>
       <c r="I23" t="n">
         <v>102.06</v>
@@ -1844,6 +1912,9 @@
       <c r="R23" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S23" t="n">
+        <v>4.988015909150328</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1872,7 +1943,7 @@
         <v>101.48</v>
       </c>
       <c r="H24" t="n">
-        <v>98.06</v>
+        <v>36.7</v>
       </c>
       <c r="I24" t="n">
         <v>102.36</v>
@@ -1904,6 +1975,9 @@
       <c r="R24" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S24" t="n">
+        <v>5.594069435660879</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1932,7 +2006,7 @@
         <v>95.90000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>90.13999999999999</v>
+        <v>32.3</v>
       </c>
       <c r="I25" t="n">
         <v>102.52</v>
@@ -1964,6 +2038,9 @@
       <c r="R25" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S25" t="n">
+        <v>5.375124348484307</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1992,7 +2069,7 @@
         <v>102.74</v>
       </c>
       <c r="H26" t="n">
-        <v>93.38</v>
+        <v>34.1</v>
       </c>
       <c r="I26" t="n">
         <v>102.5</v>
@@ -2024,6 +2101,9 @@
       <c r="R26" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S26" t="n">
+        <v>4.62973203947903</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2052,7 +2132,7 @@
         <v>99.68000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>92.84</v>
+        <v>33.8</v>
       </c>
       <c r="I27" t="n">
         <v>102.63</v>
@@ -2084,6 +2164,9 @@
       <c r="R27" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S27" t="n">
+        <v>5.086222118114144</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2112,7 +2195,7 @@
         <v>99.31999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="I28" t="n">
         <v>102.99</v>
@@ -2144,6 +2227,9 @@
       <c r="R28" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S28" t="n">
+        <v>4.154198497981099</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2172,7 +2258,7 @@
         <v>97.16000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>76.64</v>
+        <v>24.8</v>
       </c>
       <c r="I29" t="n">
         <v>102.88</v>
@@ -2204,6 +2290,9 @@
       <c r="R29" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S29" t="n">
+        <v>3.316124364530812</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2232,7 +2321,7 @@
         <v>97.7</v>
       </c>
       <c r="H30" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I30" t="n">
         <v>102.59</v>
@@ -2264,6 +2353,9 @@
       <c r="R30" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S30" t="n">
+        <v>3.098280141391308</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2292,7 +2384,7 @@
         <v>94.09999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>83.84</v>
+        <v>28.8</v>
       </c>
       <c r="I31" t="n">
         <v>102.76</v>
@@ -2324,6 +2416,9 @@
       <c r="R31" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S31" t="n">
+        <v>4.706062815303429</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2352,7 +2447,7 @@
         <v>97.34</v>
       </c>
       <c r="H32" t="n">
-        <v>84.02</v>
+        <v>28.9</v>
       </c>
       <c r="I32" t="n">
         <v>102.81</v>
@@ -2384,6 +2479,9 @@
       <c r="R32" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S32" t="n">
+        <v>4.193355278237708</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2412,7 +2510,7 @@
         <v>98.96000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>62.78</v>
+        <v>17.1</v>
       </c>
       <c r="I33" t="n">
         <v>103.14</v>
@@ -2444,6 +2542,9 @@
       <c r="R33" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S33" t="n">
+        <v>1.932030023126135</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2472,7 +2573,7 @@
         <v>96.26000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>73.22</v>
+        <v>22.9</v>
       </c>
       <c r="I34" t="n">
         <v>103.01</v>
@@ -2504,6 +2605,9 @@
       <c r="R34" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S34" t="n">
+        <v>3.058356678165573</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2532,7 +2636,7 @@
         <v>93.56</v>
       </c>
       <c r="H35" t="n">
-        <v>79.16</v>
+        <v>26.2</v>
       </c>
       <c r="I35" t="n">
         <v>102.86</v>
@@ -2564,6 +2668,9 @@
       <c r="R35" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S35" t="n">
+        <v>4.124487428427561</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2592,7 +2699,7 @@
         <v>95</v>
       </c>
       <c r="H36" t="n">
-        <v>83.48</v>
+        <v>28.6</v>
       </c>
       <c r="I36" t="n">
         <v>103.07</v>
@@ -2624,6 +2731,9 @@
       <c r="R36" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S36" t="n">
+        <v>4.496735558800125</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2652,7 +2762,7 @@
         <v>94.46000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>59.36</v>
+        <v>15.2</v>
       </c>
       <c r="I37" t="n">
         <v>103.4</v>
@@ -2684,6 +2794,9 @@
       <c r="R37" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S37" t="n">
+        <v>2.023041741654071</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2712,7 +2825,7 @@
         <v>96.26000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>67.64</v>
+        <v>19.8</v>
       </c>
       <c r="I38" t="n">
         <v>103.03</v>
@@ -2744,6 +2857,9 @@
       <c r="R38" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S38" t="n">
+        <v>2.528739154693275</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2772,7 +2888,7 @@
         <v>90.86000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>88.16</v>
+        <v>31.2</v>
       </c>
       <c r="I39" t="n">
         <v>102.88</v>
@@ -2804,6 +2920,9 @@
       <c r="R39" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S39" t="n">
+        <v>6.112904434132393</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2832,7 +2951,7 @@
         <v>97.7</v>
       </c>
       <c r="H40" t="n">
-        <v>89.78</v>
+        <v>32.1</v>
       </c>
       <c r="I40" t="n">
         <v>102.95</v>
@@ -2864,6 +2983,9 @@
       <c r="R40" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S40" t="n">
+        <v>4.970805610140542</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2892,7 +3014,7 @@
         <v>102.02</v>
       </c>
       <c r="H41" t="n">
-        <v>95.90000000000001</v>
+        <v>35.5</v>
       </c>
       <c r="I41" t="n">
         <v>102.57</v>
@@ -2924,6 +3046,9 @@
       <c r="R41" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S41" t="n">
+        <v>5.135458183222248</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2952,7 +3077,7 @@
         <v>103.82</v>
       </c>
       <c r="H42" t="n">
-        <v>94.46000000000001</v>
+        <v>34.7</v>
       </c>
       <c r="I42" t="n">
         <v>102.49</v>
@@ -2984,6 +3109,9 @@
       <c r="R42" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S42" t="n">
+        <v>4.605658377341602</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3012,7 +3140,7 @@
         <v>104.9</v>
       </c>
       <c r="H43" t="n">
-        <v>96.26000000000001</v>
+        <v>35.7</v>
       </c>
       <c r="I43" t="n">
         <v>102.48</v>
@@ -3044,6 +3172,9 @@
       <c r="R43" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S43" t="n">
+        <v>4.684587586848378</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3072,7 +3203,7 @@
         <v>108.32</v>
       </c>
       <c r="H44" t="n">
-        <v>98.96000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="I44" t="n">
         <v>102.42</v>
@@ -3104,6 +3235,9 @@
       <c r="R44" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S44" t="n">
+        <v>4.511269860579315</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3132,7 +3266,7 @@
         <v>110.66</v>
       </c>
       <c r="H45" t="n">
-        <v>96.98</v>
+        <v>36.1</v>
       </c>
       <c r="I45" t="n">
         <v>102.33</v>
@@ -3164,6 +3298,9 @@
       <c r="R45" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S45" t="n">
+        <v>3.917566284365385</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3192,7 +3329,7 @@
         <v>109.76</v>
       </c>
       <c r="H46" t="n">
-        <v>98.23999999999999</v>
+        <v>36.8</v>
       </c>
       <c r="I46" t="n">
         <v>102.53</v>
@@ -3224,6 +3361,9 @@
       <c r="R46" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S46" t="n">
+        <v>4.199025773841307</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3252,7 +3392,7 @@
         <v>102.56</v>
       </c>
       <c r="H47" t="n">
-        <v>92.48</v>
+        <v>33.6</v>
       </c>
       <c r="I47" t="n">
         <v>102.54</v>
@@ -3284,6 +3424,9 @@
       <c r="R47" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S47" t="n">
+        <v>4.531239079503094</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3312,7 +3455,7 @@
         <v>101.84</v>
       </c>
       <c r="H48" t="n">
-        <v>89.59999999999999</v>
+        <v>32</v>
       </c>
       <c r="I48" t="n">
         <v>102.65</v>
@@ -3344,6 +3487,9 @@
       <c r="R48" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S48" t="n">
+        <v>4.249240125655679</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3372,7 +3518,7 @@
         <v>92.30000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>78.98</v>
+        <v>26.1</v>
       </c>
       <c r="I49" t="n">
         <v>102.86</v>
@@ -3404,6 +3550,9 @@
       <c r="R49" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S49" t="n">
+        <v>4.301321866716687</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3432,7 +3581,7 @@
         <v>94.81999999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>90.31999999999999</v>
+        <v>32.4</v>
       </c>
       <c r="I50" t="n">
         <v>102.9</v>
@@ -3464,6 +3613,9 @@
       <c r="R50" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S50" t="n">
+        <v>5.628848517118167</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3492,7 +3644,7 @@
         <v>92.48</v>
       </c>
       <c r="H51" t="n">
-        <v>73.03999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="I51" t="n">
         <v>103.37</v>
@@ -3524,6 +3676,9 @@
       <c r="R51" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S51" t="n">
+        <v>3.505344220347399</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3552,7 +3707,7 @@
         <v>91.03999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>61.7</v>
+        <v>16.5</v>
       </c>
       <c r="I52" t="n">
         <v>103.3</v>
@@ -3584,6 +3739,9 @@
       <c r="R52" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S52" t="n">
+        <v>2.50405742562157</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3612,7 +3770,7 @@
         <v>101.84</v>
       </c>
       <c r="H53" t="n">
-        <v>71.24000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="I53" t="n">
         <v>103.18</v>
@@ -3644,6 +3802,9 @@
       <c r="R53" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S53" t="n">
+        <v>2.33098329699941</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3672,7 +3833,7 @@
         <v>105.44</v>
       </c>
       <c r="H54" t="n">
-        <v>82.58000000000001</v>
+        <v>28.1</v>
       </c>
       <c r="I54" t="n">
         <v>103.42</v>
@@ -3704,6 +3865,9 @@
       <c r="R54" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S54" t="n">
+        <v>2.986019232986114</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3732,7 +3896,7 @@
         <v>102.2</v>
       </c>
       <c r="H55" t="n">
-        <v>76.46000000000001</v>
+        <v>24.7</v>
       </c>
       <c r="I55" t="n">
         <v>103.45</v>
@@ -3764,6 +3928,9 @@
       <c r="R55" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S55" t="n">
+        <v>2.741975012736996</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3792,7 +3959,7 @@
         <v>106.16</v>
       </c>
       <c r="H56" t="n">
-        <v>78.62</v>
+        <v>25.9</v>
       </c>
       <c r="I56" t="n">
         <v>103.1</v>
@@ -3824,6 +3991,9 @@
       <c r="R56" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S56" t="n">
+        <v>2.557886811403602</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3852,7 +4022,7 @@
         <v>113.72</v>
       </c>
       <c r="H57" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I57" t="n">
         <v>102.48</v>
@@ -3884,6 +4054,9 @@
       <c r="R57" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S57" t="n">
+        <v>2.191890319837319</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3912,7 +4085,7 @@
         <v>117.5</v>
       </c>
       <c r="H58" t="n">
-        <v>80.78</v>
+        <v>27.1</v>
       </c>
       <c r="I58" t="n">
         <v>102.35</v>
@@ -3944,6 +4117,9 @@
       <c r="R58" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S58" t="n">
+        <v>1.865382955164901</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3972,7 +4148,7 @@
         <v>124.52</v>
       </c>
       <c r="H59" t="n">
-        <v>79.16</v>
+        <v>26.2</v>
       </c>
       <c r="I59" t="n">
         <v>101.99</v>
@@ -4004,6 +4180,9 @@
       <c r="R59" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S59" t="n">
+        <v>1.409248551596959</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4032,7 +4211,7 @@
         <v>137.84</v>
       </c>
       <c r="H60" t="n">
-        <v>109.04</v>
+        <v>42.8</v>
       </c>
       <c r="I60" t="n">
         <v>101.59</v>
@@ -4064,6 +4243,9 @@
       <c r="R60" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S60" t="n">
+        <v>2.362413384923755</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4092,7 +4274,7 @@
         <v>120.38</v>
       </c>
       <c r="H61" t="n">
-        <v>84.2</v>
+        <v>29</v>
       </c>
       <c r="I61" t="n">
         <v>102.28</v>
@@ -4124,6 +4306,9 @@
       <c r="R61" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S61" t="n">
+        <v>1.896478384954679</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4152,7 +4337,7 @@
         <v>123.44</v>
       </c>
       <c r="H62" t="n">
-        <v>86.72</v>
+        <v>30.4</v>
       </c>
       <c r="I62" t="n">
         <v>101.95</v>
@@ -4184,6 +4369,9 @@
       <c r="R62" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S62" t="n">
+        <v>1.862833010594736</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4212,7 +4400,7 @@
         <v>136.94</v>
       </c>
       <c r="H63" t="n">
-        <v>95.90000000000001</v>
+        <v>35.5</v>
       </c>
       <c r="I63" t="n">
         <v>101.54</v>
@@ -4244,6 +4432,9 @@
       <c r="R63" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S63" t="n">
+        <v>1.637479435168167</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4272,7 +4463,7 @@
         <v>136.58</v>
       </c>
       <c r="H64" t="n">
-        <v>100.58</v>
+        <v>38.1</v>
       </c>
       <c r="I64" t="n">
         <v>101.49</v>
@@ -4304,6 +4495,9 @@
       <c r="R64" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S64" t="n">
+        <v>1.908385948314931</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4332,7 +4526,7 @@
         <v>124.7</v>
       </c>
       <c r="H65" t="n">
-        <v>79.88</v>
+        <v>26.6</v>
       </c>
       <c r="I65" t="n">
         <v>102.15</v>
@@ -4364,6 +4558,9 @@
       <c r="R65" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S65" t="n">
+        <v>1.434716296138932</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4392,7 +4589,7 @@
         <v>120.02</v>
       </c>
       <c r="H66" t="n">
-        <v>80.24000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="I66" t="n">
         <v>102.25</v>
@@ -4424,6 +4621,9 @@
       <c r="R66" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S66" t="n">
+        <v>1.687411941363951</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4452,7 +4652,7 @@
         <v>128.12</v>
       </c>
       <c r="H67" t="n">
-        <v>98.06</v>
+        <v>36.7</v>
       </c>
       <c r="I67" t="n">
         <v>101.98</v>
@@ -4484,6 +4684,9 @@
       <c r="R67" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S67" t="n">
+        <v>2.287881474219659</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4512,7 +4715,7 @@
         <v>132.98</v>
       </c>
       <c r="H68" t="n">
-        <v>103.46</v>
+        <v>39.7</v>
       </c>
       <c r="I68" t="n">
         <v>101.67</v>
@@ -4544,6 +4747,9 @@
       <c r="R68" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S68" t="n">
+        <v>2.318289764561541</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4572,7 +4778,7 @@
         <v>140.72</v>
       </c>
       <c r="H69" t="n">
-        <v>101.66</v>
+        <v>38.7</v>
       </c>
       <c r="I69" t="n">
         <v>101.63</v>
@@ -4604,6 +4810,9 @@
       <c r="R69" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S69" t="n">
+        <v>1.745020101812087</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4632,7 +4841,7 @@
         <v>145.04</v>
       </c>
       <c r="H70" t="n">
-        <v>115.34</v>
+        <v>46.3</v>
       </c>
       <c r="I70" t="n">
         <v>101.29</v>
@@ -4664,6 +4873,9 @@
       <c r="R70" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S70" t="n">
+        <v>2.298147017121042</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4692,7 +4904,7 @@
         <v>148.28</v>
       </c>
       <c r="H71" t="n">
-        <v>125.06</v>
+        <v>51.7</v>
       </c>
       <c r="I71" t="n">
         <v>101.33</v>
@@ -4724,6 +4936,9 @@
       <c r="R71" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S71" t="n">
+        <v>2.751409247401293</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4752,7 +4967,7 @@
         <v>157.28</v>
       </c>
       <c r="H72" t="n">
-        <v>134.06</v>
+        <v>56.7</v>
       </c>
       <c r="I72" t="n">
         <v>100.87</v>
@@ -4784,6 +4999,9 @@
       <c r="R72" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S72" t="n">
+        <v>2.740809123403397</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4812,7 +5030,7 @@
         <v>144.32</v>
       </c>
       <c r="H73" t="n">
-        <v>139.28</v>
+        <v>59.6</v>
       </c>
       <c r="I73" t="n">
         <v>101.05</v>
@@ -4844,6 +5062,9 @@
       <c r="R73" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S73" t="n">
+        <v>4.500303252764277</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4872,7 +5093,7 @@
         <v>138.38</v>
       </c>
       <c r="H74" t="n">
-        <v>115.7</v>
+        <v>46.5</v>
       </c>
       <c r="I74" t="n">
         <v>101.52</v>
@@ -4904,6 +5125,9 @@
       <c r="R74" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S74" t="n">
+        <v>2.816433167218474</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4932,7 +5156,7 @@
         <v>148.64</v>
       </c>
       <c r="H75" t="n">
-        <v>125.6</v>
+        <v>52</v>
       </c>
       <c r="I75" t="n">
         <v>101.04</v>
@@ -4964,6 +5188,9 @@
       <c r="R75" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S75" t="n">
+        <v>2.764413137649677</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4992,7 +5219,7 @@
         <v>146.84</v>
       </c>
       <c r="H76" t="n">
-        <v>130.82</v>
+        <v>54.9</v>
       </c>
       <c r="I76" t="n">
         <v>101.09</v>
@@ -5024,6 +5251,9 @@
       <c r="R76" t="n">
         <v>0.0203694403892944</v>
       </c>
+      <c r="S76" t="n">
+        <v>3.349905116818994</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5052,7 +5282,7 @@
         <v>108.86</v>
       </c>
       <c r="H77" t="n">
-        <v>100.04</v>
+        <v>37.8</v>
       </c>
       <c r="I77" t="n">
         <v>101.74</v>
@@ -5084,6 +5314,9 @@
       <c r="R77" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S77" t="n">
+        <v>4.574653257754624</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5112,7 +5345,7 @@
         <v>118.94</v>
       </c>
       <c r="H78" t="n">
-        <v>107.96</v>
+        <v>42.2</v>
       </c>
       <c r="I78" t="n">
         <v>101.3</v>
@@ -5144,6 +5377,9 @@
       <c r="R78" t="n">
         <v>0.02370666666666667</v>
       </c>
+      <c r="S78" t="n">
+        <v>4.122625066660356</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5172,7 +5408,7 @@
         <v>110.84</v>
       </c>
       <c r="H79" t="n">
-        <v>98.06</v>
+        <v>36.7</v>
       </c>
       <c r="I79" t="n">
         <v>101.84</v>
@@ -5204,6 +5440,9 @@
       <c r="R79" t="n">
         <v>0.02709333333333333</v>
       </c>
+      <c r="S79" t="n">
+        <v>4.023898165457947</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5232,7 +5471,7 @@
         <v>105.26</v>
       </c>
       <c r="H80" t="n">
-        <v>101.84</v>
+        <v>38.8</v>
       </c>
       <c r="I80" t="n">
         <v>102.14</v>
@@ -5264,6 +5503,9 @@
       <c r="R80" t="n">
         <v>0.03048</v>
       </c>
+      <c r="S80" t="n">
+        <v>5.478096216088954</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5292,7 +5534,7 @@
         <v>107.24</v>
       </c>
       <c r="H81" t="n">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="I81" t="n">
         <v>102.33</v>
@@ -5324,6 +5566,9 @@
       <c r="R81" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S81" t="n">
+        <v>5.450060213746339</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5352,7 +5597,7 @@
         <v>114.62</v>
       </c>
       <c r="H82" t="n">
-        <v>102.74</v>
+        <v>39.3</v>
       </c>
       <c r="I82" t="n">
         <v>102.43</v>
@@ -5384,6 +5629,9 @@
       <c r="R82" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S82" t="n">
+        <v>4.076584815975698</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5412,7 +5660,7 @@
         <v>121.46</v>
       </c>
       <c r="H83" t="n">
-        <v>108.14</v>
+        <v>42.3</v>
       </c>
       <c r="I83" t="n">
         <v>101.82</v>
@@ -5444,6 +5692,9 @@
       <c r="R83" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S83" t="n">
+        <v>3.818240010339199</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5472,7 +5723,7 @@
         <v>136.58</v>
       </c>
       <c r="H84" t="n">
-        <v>123.44</v>
+        <v>50.8</v>
       </c>
       <c r="I84" t="n">
         <v>100.95</v>
@@ -5504,6 +5755,9 @@
       <c r="R84" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S84" t="n">
+        <v>3.689933021892753</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5532,7 +5786,7 @@
         <v>129.2</v>
       </c>
       <c r="H85" t="n">
-        <v>124.16</v>
+        <v>51.2</v>
       </c>
       <c r="I85" t="n">
         <v>100.8</v>
@@ -5564,6 +5818,9 @@
       <c r="R85" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S85" t="n">
+        <v>4.709641463438202</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5592,7 +5849,7 @@
         <v>130.46</v>
       </c>
       <c r="H86" t="n">
-        <v>109.76</v>
+        <v>43.2</v>
       </c>
       <c r="I86" t="n">
         <v>101.82</v>
@@ -5624,6 +5881,9 @@
       <c r="R86" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S86" t="n">
+        <v>3.014148720095681</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5652,7 +5912,7 @@
         <v>129.2</v>
       </c>
       <c r="H87" t="n">
-        <v>102.74</v>
+        <v>39.3</v>
       </c>
       <c r="I87" t="n">
         <v>102.24</v>
@@ -5684,6 +5944,9 @@
       <c r="R87" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S87" t="n">
+        <v>2.547854869289947</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5712,7 +5975,7 @@
         <v>130.28</v>
       </c>
       <c r="H88" t="n">
-        <v>112.64</v>
+        <v>44.8</v>
       </c>
       <c r="I88" t="n">
         <v>102.16</v>
@@ -5744,6 +6007,9 @@
       <c r="R88" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S88" t="n">
+        <v>3.29414387796393</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5772,7 +6038,7 @@
         <v>140.72</v>
       </c>
       <c r="H89" t="n">
-        <v>123.8</v>
+        <v>51</v>
       </c>
       <c r="I89" t="n">
         <v>101.63</v>
@@ -5804,6 +6070,9 @@
       <c r="R89" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S89" t="n">
+        <v>3.298801200253058</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5832,7 +6101,7 @@
         <v>142.7</v>
       </c>
       <c r="H90" t="n">
-        <v>129.2</v>
+        <v>54</v>
       </c>
       <c r="I90" t="n">
         <v>102.18</v>
@@ -5864,6 +6133,9 @@
       <c r="R90" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S90" t="n">
+        <v>3.609156524157554</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5892,7 +6164,7 @@
         <v>122.36</v>
       </c>
       <c r="H91" t="n">
-        <v>104.36</v>
+        <v>40.2</v>
       </c>
       <c r="I91" t="n">
         <v>103.17</v>
@@ -5924,6 +6196,9 @@
       <c r="R91" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S91" t="n">
+        <v>3.317960468271755</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5952,7 +6227,7 @@
         <v>120.02</v>
       </c>
       <c r="H92" t="n">
-        <v>88.16</v>
+        <v>31.2</v>
       </c>
       <c r="I92" t="n">
         <v>103.26</v>
@@ -5984,6 +6259,9 @@
       <c r="R92" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S92" t="n">
+        <v>2.177467868015884</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6012,7 +6290,7 @@
         <v>123.98</v>
       </c>
       <c r="H93" t="n">
-        <v>98.42</v>
+        <v>36.9</v>
       </c>
       <c r="I93" t="n">
         <v>102.86</v>
@@ -6044,6 +6322,9 @@
       <c r="R93" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S93" t="n">
+        <v>2.635351590795959</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6072,7 +6353,7 @@
         <v>131</v>
       </c>
       <c r="H94" t="n">
-        <v>101.84</v>
+        <v>38.8</v>
       </c>
       <c r="I94" t="n">
         <v>102.71</v>
@@ -6104,6 +6385,9 @@
       <c r="R94" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S94" t="n">
+        <v>2.346246385217664</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6132,7 +6416,7 @@
         <v>140.72</v>
       </c>
       <c r="H95" t="n">
-        <v>106.52</v>
+        <v>41.4</v>
       </c>
       <c r="I95" t="n">
         <v>102.37</v>
@@ -6164,6 +6448,9 @@
       <c r="R95" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S95" t="n">
+        <v>2.016291791379965</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6192,7 +6479,7 @@
         <v>148.64</v>
       </c>
       <c r="H96" t="n">
-        <v>119.48</v>
+        <v>48.6</v>
       </c>
       <c r="I96" t="n">
         <v>101.88</v>
@@ -6224,6 +6511,9 @@
       <c r="R96" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S96" t="n">
+        <v>2.333444867212355</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6252,7 +6542,7 @@
         <v>152.24</v>
       </c>
       <c r="H97" t="n">
-        <v>129.74</v>
+        <v>54.3</v>
       </c>
       <c r="I97" t="n">
         <v>101.86</v>
@@ -6284,6 +6574,9 @@
       <c r="R97" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S97" t="n">
+        <v>2.799584548913383</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6312,7 +6605,7 @@
         <v>144.68</v>
       </c>
       <c r="H98" t="n">
-        <v>134.78</v>
+        <v>57.1</v>
       </c>
       <c r="I98" t="n">
         <v>101.78</v>
@@ -6344,6 +6637,9 @@
       <c r="R98" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S98" t="n">
+        <v>3.958227555130299</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6372,7 +6668,7 @@
         <v>166.46</v>
       </c>
       <c r="H99" t="n">
-        <v>114.08</v>
+        <v>45.6</v>
       </c>
       <c r="I99" t="n">
         <v>101.16</v>
@@ -6404,6 +6700,9 @@
       <c r="R99" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S99" t="n">
+        <v>1.243033821003684</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6432,7 +6731,7 @@
         <v>163.94</v>
       </c>
       <c r="H100" t="n">
-        <v>124.16</v>
+        <v>51.2</v>
       </c>
       <c r="I100" t="n">
         <v>100.85</v>
@@ -6464,6 +6763,9 @@
       <c r="R100" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S100" t="n">
+        <v>1.759937444983326</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6492,7 +6794,7 @@
         <v>170.24</v>
       </c>
       <c r="H101" t="n">
-        <v>128.66</v>
+        <v>53.7</v>
       </c>
       <c r="I101" t="n">
         <v>100.75</v>
@@ -6524,6 +6826,9 @@
       <c r="R101" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S101" t="n">
+        <v>1.694338377636647</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6552,7 +6857,7 @@
         <v>174.2</v>
       </c>
       <c r="H102" t="n">
-        <v>139.46</v>
+        <v>59.7</v>
       </c>
       <c r="I102" t="n">
         <v>100.68</v>
@@ -6584,6 +6889,9 @@
       <c r="R102" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S102" t="n">
+        <v>2.04457620792741</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6612,7 +6920,7 @@
         <v>150.08</v>
       </c>
       <c r="H103" t="n">
-        <v>129.2</v>
+        <v>54</v>
       </c>
       <c r="I103" t="n">
         <v>101.1</v>
@@ -6644,6 +6952,9 @@
       <c r="R103" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S103" t="n">
+        <v>2.92873379237151</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6672,7 +6983,7 @@
         <v>127.94</v>
       </c>
       <c r="H104" t="n">
-        <v>104.72</v>
+        <v>40.4</v>
       </c>
       <c r="I104" t="n">
         <v>101.48</v>
@@ -6704,6 +7015,9 @@
       <c r="R104" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S104" t="n">
+        <v>2.810501966131356</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6732,7 +7046,7 @@
         <v>136.94</v>
       </c>
       <c r="H105" t="n">
-        <v>113.72</v>
+        <v>45.4</v>
       </c>
       <c r="I105" t="n">
         <v>102.03</v>
@@ -6764,6 +7078,9 @@
       <c r="R105" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S105" t="n">
+        <v>2.777708918580514</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6792,7 +7109,7 @@
         <v>136.4</v>
       </c>
       <c r="H106" t="n">
-        <v>102.38</v>
+        <v>39.1</v>
       </c>
       <c r="I106" t="n">
         <v>102.36</v>
@@ -6824,6 +7141,9 @@
       <c r="R106" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S106" t="n">
+        <v>2.025240233088482</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6852,7 +7172,7 @@
         <v>130.64</v>
       </c>
       <c r="H107" t="n">
-        <v>95.90000000000001</v>
+        <v>35.5</v>
       </c>
       <c r="I107" t="n">
         <v>102.18</v>
@@ -6884,6 +7204,9 @@
       <c r="R107" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S107" t="n">
+        <v>1.980990688281447</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6912,7 +7235,7 @@
         <v>141.26</v>
       </c>
       <c r="H108" t="n">
-        <v>104.72</v>
+        <v>40.4</v>
       </c>
       <c r="I108" t="n">
         <v>101.87</v>
@@ -6944,6 +7267,9 @@
       <c r="R108" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S108" t="n">
+        <v>1.882023652120724</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6972,7 +7298,7 @@
         <v>143.96</v>
       </c>
       <c r="H109" t="n">
-        <v>117.14</v>
+        <v>47.3</v>
       </c>
       <c r="I109" t="n">
         <v>101.84</v>
@@ -7004,6 +7330,9 @@
       <c r="R109" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S109" t="n">
+        <v>2.494344167387511</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7032,7 +7361,7 @@
         <v>158.9</v>
       </c>
       <c r="H110" t="n">
-        <v>132.8</v>
+        <v>56</v>
       </c>
       <c r="I110" t="n">
         <v>100.7</v>
@@ -7064,6 +7393,9 @@
       <c r="R110" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S110" t="n">
+        <v>2.538401241358588</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7092,7 +7424,7 @@
         <v>168.8</v>
       </c>
       <c r="H111" t="n">
-        <v>139.46</v>
+        <v>59.7</v>
       </c>
       <c r="I111" t="n">
         <v>100.91</v>
@@ -7124,6 +7456,9 @@
       <c r="R111" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S111" t="n">
+        <v>2.339887402058037</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7152,7 +7487,7 @@
         <v>161.42</v>
       </c>
       <c r="H112" t="n">
-        <v>139.64</v>
+        <v>59.8</v>
       </c>
       <c r="I112" t="n">
         <v>100.95</v>
@@ -7184,6 +7519,9 @@
       <c r="R112" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S112" t="n">
+        <v>2.843344722181071</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7212,7 +7550,7 @@
         <v>170.42</v>
       </c>
       <c r="H113" t="n">
-        <v>147.92</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I113" t="n">
         <v>100.55</v>
@@ -7244,6 +7582,9 @@
       <c r="R113" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S113" t="n">
+        <v>2.789542171249657</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7272,7 +7613,7 @@
         <v>153.14</v>
       </c>
       <c r="H114" t="n">
-        <v>148.64</v>
+        <v>64.8</v>
       </c>
       <c r="I114" t="n">
         <v>100.29</v>
@@ -7304,6 +7645,9 @@
       <c r="R114" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S114" t="n">
+        <v>4.467685826631569</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7332,7 +7676,7 @@
         <v>132.98</v>
       </c>
       <c r="H115" t="n">
-        <v>116.24</v>
+        <v>46.8</v>
       </c>
       <c r="I115" t="n">
         <v>101.67</v>
@@ -7364,6 +7708,9 @@
       <c r="R115" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S115" t="n">
+        <v>3.361579025424775</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7392,7 +7739,7 @@
         <v>134.6</v>
       </c>
       <c r="H116" t="n">
-        <v>118.22</v>
+        <v>47.9</v>
       </c>
       <c r="I116" t="n">
         <v>102.1</v>
@@ -7424,6 +7771,9 @@
       <c r="R116" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S116" t="n">
+        <v>3.385131980050101</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7452,7 +7802,7 @@
         <v>139.64</v>
       </c>
       <c r="H117" t="n">
-        <v>118.4</v>
+        <v>48</v>
       </c>
       <c r="I117" t="n">
         <v>101.89</v>
@@ -7484,6 +7834,9 @@
       <c r="R117" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S117" t="n">
+        <v>2.929304690731577</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7512,7 +7865,7 @@
         <v>153.32</v>
       </c>
       <c r="H118" t="n">
-        <v>126.14</v>
+        <v>52.3</v>
       </c>
       <c r="I118" t="n">
         <v>101.67</v>
@@ -7544,6 +7897,9 @@
       <c r="R118" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S118" t="n">
+        <v>2.465000408444753</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7572,7 +7928,7 @@
         <v>159.26</v>
       </c>
       <c r="H119" t="n">
-        <v>120.38</v>
+        <v>49.1</v>
       </c>
       <c r="I119" t="n">
         <v>101.37</v>
@@ -7604,6 +7960,9 @@
       <c r="R119" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S119" t="n">
+        <v>1.791763880504931</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7632,7 +7991,7 @@
         <v>168.26</v>
       </c>
       <c r="H120" t="n">
-        <v>119.48</v>
+        <v>48.6</v>
       </c>
       <c r="I120" t="n">
         <v>101</v>
@@ -7664,6 +8023,9 @@
       <c r="R120" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S120" t="n">
+        <v>1.383379253283639</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7692,7 +8054,7 @@
         <v>151.34</v>
       </c>
       <c r="H121" t="n">
-        <v>136.22</v>
+        <v>57.9</v>
       </c>
       <c r="I121" t="n">
         <v>101.77</v>
@@ -7724,6 +8086,9 @@
       <c r="R121" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S121" t="n">
+        <v>3.410386172628742</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7752,7 +8117,7 @@
         <v>153.5</v>
       </c>
       <c r="H122" t="n">
-        <v>126.14</v>
+        <v>52.3</v>
       </c>
       <c r="I122" t="n">
         <v>101.63</v>
@@ -7784,6 +8149,9 @@
       <c r="R122" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S122" t="n">
+        <v>2.452911867996053</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7812,7 +8180,7 @@
         <v>144.5</v>
       </c>
       <c r="H123" t="n">
-        <v>120.56</v>
+        <v>49.2</v>
       </c>
       <c r="I123" t="n">
         <v>101.61</v>
@@ -7844,6 +8212,9 @@
       <c r="R123" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S123" t="n">
+        <v>2.703683666600617</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7872,7 +8243,7 @@
         <v>148.46</v>
       </c>
       <c r="H124" t="n">
-        <v>136.58</v>
+        <v>58.1</v>
       </c>
       <c r="I124" t="n">
         <v>101.42</v>
@@ -7904,6 +8275,9 @@
       <c r="R124" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S124" t="n">
+        <v>3.729824548289892</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7932,7 +8306,7 @@
         <v>153.86</v>
       </c>
       <c r="H125" t="n">
-        <v>134.78</v>
+        <v>57.1</v>
       </c>
       <c r="I125" t="n">
         <v>101.17</v>
@@ -7964,6 +8338,9 @@
       <c r="R125" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S125" t="n">
+        <v>3.064011623574112</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7992,7 +8369,7 @@
         <v>132.44</v>
       </c>
       <c r="H126" t="n">
-        <v>124.16</v>
+        <v>51.2</v>
       </c>
       <c r="I126" t="n">
         <v>101.51</v>
@@ -8024,6 +8401,9 @@
       <c r="R126" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S126" t="n">
+        <v>4.263611094371581</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -8052,7 +8432,7 @@
         <v>146.66</v>
       </c>
       <c r="H127" t="n">
-        <v>122.9</v>
+        <v>50.5</v>
       </c>
       <c r="I127" t="n">
         <v>101.79</v>
@@ -8084,6 +8464,9 @@
       <c r="R127" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S127" t="n">
+        <v>2.713453174716435</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8112,7 +8495,7 @@
         <v>146.48</v>
       </c>
       <c r="H128" t="n">
-        <v>113.36</v>
+        <v>45.2</v>
       </c>
       <c r="I128" t="n">
         <v>101.57</v>
@@ -8144,6 +8527,9 @@
       <c r="R128" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S128" t="n">
+        <v>2.084738227288387</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8172,7 +8558,7 @@
         <v>167</v>
       </c>
       <c r="H129" t="n">
-        <v>112.64</v>
+        <v>44.8</v>
       </c>
       <c r="I129" t="n">
         <v>101.3</v>
@@ -8204,6 +8590,9 @@
       <c r="R129" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S129" t="n">
+        <v>1.17639002690795</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8232,7 +8621,7 @@
         <v>164.12</v>
       </c>
       <c r="H130" t="n">
-        <v>123.62</v>
+        <v>50.9</v>
       </c>
       <c r="I130" t="n">
         <v>101.58</v>
@@ -8264,6 +8653,9 @@
       <c r="R130" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S130" t="n">
+        <v>1.725880249846661</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8292,7 +8684,7 @@
         <v>164.48</v>
       </c>
       <c r="H131" t="n">
-        <v>129.56</v>
+        <v>54.2</v>
       </c>
       <c r="I131" t="n">
         <v>101.2</v>
@@ -8324,6 +8716,9 @@
       <c r="R131" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S131" t="n">
+        <v>2.010592974552952</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8352,7 +8747,7 @@
         <v>167</v>
       </c>
       <c r="H132" t="n">
-        <v>127.94</v>
+        <v>53.3</v>
       </c>
       <c r="I132" t="n">
         <v>100.72</v>
@@ -8384,6 +8779,9 @@
       <c r="R132" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S132" t="n">
+        <v>1.803738856994594</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8412,7 +8810,7 @@
         <v>173.84</v>
       </c>
       <c r="H133" t="n">
-        <v>139.1</v>
+        <v>59.5</v>
       </c>
       <c r="I133" t="n">
         <v>100.94</v>
@@ -8444,6 +8842,9 @@
       <c r="R133" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S133" t="n">
+        <v>2.04359235202421</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8472,7 +8873,7 @@
         <v>166.82</v>
       </c>
       <c r="H134" t="n">
-        <v>139.1</v>
+        <v>59.5</v>
       </c>
       <c r="I134" t="n">
         <v>100.92</v>
@@ -8504,6 +8905,9 @@
       <c r="R134" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S134" t="n">
+        <v>2.437793964650498</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8532,7 +8936,7 @@
         <v>153.14</v>
       </c>
       <c r="H135" t="n">
-        <v>139.46</v>
+        <v>59.7</v>
       </c>
       <c r="I135" t="n">
         <v>100.73</v>
@@ -8564,6 +8968,9 @@
       <c r="R135" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S135" t="n">
+        <v>3.532910320932274</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8592,7 +8999,7 @@
         <v>176.72</v>
       </c>
       <c r="H136" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I136" t="n">
         <v>99.97999999999999</v>
@@ -8624,6 +9031,9 @@
       <c r="R136" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S136" t="n">
+        <v>2.731575138852451</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8652,7 +9062,7 @@
         <v>160.88</v>
       </c>
       <c r="H137" t="n">
-        <v>132.62</v>
+        <v>55.9</v>
       </c>
       <c r="I137" t="n">
         <v>100.74</v>
@@ -8684,6 +9094,9 @@
       <c r="R137" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S137" t="n">
+        <v>2.397392696929432</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8712,7 +9125,7 @@
         <v>165.74</v>
       </c>
       <c r="H138" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I138" t="n">
         <v>100.37</v>
@@ -8744,6 +9157,9 @@
       <c r="R138" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S138" t="n">
+        <v>3.531650827870546</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8772,7 +9188,7 @@
         <v>183.38</v>
       </c>
       <c r="H139" t="n">
-        <v>151.7</v>
+        <v>66.5</v>
       </c>
       <c r="I139" t="n">
         <v>100.235</v>
@@ -8804,6 +9220,9 @@
       <c r="R139" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S139" t="n">
+        <v>2.236595318438567</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8832,7 +9251,7 @@
         <v>176.72</v>
       </c>
       <c r="H140" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I140" t="n">
         <v>100.1</v>
@@ -8864,6 +9283,9 @@
       <c r="R140" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S140" t="n">
+        <v>3.784324697451106</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8892,7 +9314,7 @@
         <v>177.98</v>
       </c>
       <c r="H141" t="n">
-        <v>163.22</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I141" t="n">
         <v>100.04</v>
@@ -8924,6 +9346,9 @@
       <c r="R141" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S141" t="n">
+        <v>3.369751268510374</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8952,7 +9377,7 @@
         <v>184.82</v>
       </c>
       <c r="H142" t="n">
-        <v>142.52</v>
+        <v>61.4</v>
       </c>
       <c r="I142" t="n">
         <v>100.22</v>
@@ -8984,6 +9409,9 @@
       <c r="R142" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S142" t="n">
+        <v>1.714135592424908</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -9012,7 +9440,7 @@
         <v>170.06</v>
       </c>
       <c r="H143" t="n">
-        <v>132.08</v>
+        <v>55.6</v>
       </c>
       <c r="I143" t="n">
         <v>100.76</v>
@@ -9044,6 +9472,9 @@
       <c r="R143" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S143" t="n">
+        <v>1.865975351294775</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -9072,7 +9503,7 @@
         <v>176.36</v>
       </c>
       <c r="H144" t="n">
-        <v>141.62</v>
+        <v>60.9</v>
       </c>
       <c r="I144" t="n">
         <v>100.59</v>
@@ -9104,6 +9535,9 @@
       <c r="R144" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S144" t="n">
+        <v>2.050615417588991</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -9132,7 +9566,7 @@
         <v>187.7</v>
       </c>
       <c r="H145" t="n">
-        <v>150.62</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I145" t="n">
         <v>100.67</v>
@@ -9164,6 +9598,9 @@
       <c r="R145" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S145" t="n">
+        <v>1.968081624809505</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -9192,7 +9629,7 @@
         <v>167.36</v>
       </c>
       <c r="H146" t="n">
-        <v>150.98</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I146" t="n">
         <v>100.83</v>
@@ -9224,6 +9661,9 @@
       <c r="R146" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S146" t="n">
+        <v>3.254464827185103</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -9252,7 +9692,7 @@
         <v>178.52</v>
       </c>
       <c r="H147" t="n">
-        <v>149.9</v>
+        <v>65.5</v>
       </c>
       <c r="I147" t="n">
         <v>100.53</v>
@@ -9284,6 +9724,9 @@
       <c r="R147" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S147" t="n">
+        <v>2.401541325464861</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9312,7 +9755,7 @@
         <v>187.7</v>
       </c>
       <c r="H148" t="n">
-        <v>151.7</v>
+        <v>66.5</v>
       </c>
       <c r="I148" t="n">
         <v>100.35</v>
@@ -9344,6 +9787,9 @@
       <c r="R148" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S148" t="n">
+        <v>2.0217731369941</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9372,7 +9818,7 @@
         <v>189.68</v>
       </c>
       <c r="H149" t="n">
-        <v>156.02</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="I149" t="n">
         <v>100.28</v>
@@ -9404,6 +9850,9 @@
       <c r="R149" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S149" t="n">
+        <v>2.148982087743806</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9432,7 +9881,7 @@
         <v>193.82</v>
       </c>
       <c r="H150" t="n">
-        <v>158.36</v>
+        <v>70.2</v>
       </c>
       <c r="I150" t="n">
         <v>100.18</v>
@@ -9464,6 +9913,9 @@
       <c r="R150" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S150" t="n">
+        <v>2.071017206905674</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9492,7 +9944,7 @@
         <v>179.42</v>
       </c>
       <c r="H151" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I151" t="n">
         <v>100.12</v>
@@ -9524,6 +9976,9 @@
       <c r="R151" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S151" t="n">
+        <v>3.651519464124463</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9552,7 +10007,7 @@
         <v>194.72</v>
       </c>
       <c r="H152" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I152" t="n">
         <v>100.09</v>
@@ -9584,6 +10039,9 @@
       <c r="R152" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S152" t="n">
+        <v>2.760946296450716</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9612,7 +10070,7 @@
         <v>176</v>
       </c>
       <c r="H153" t="n">
-        <v>162.32</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I153" t="n">
         <v>100.46</v>
@@ -9644,6 +10102,9 @@
       <c r="R153" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S153" t="n">
+        <v>3.460793442101658</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9672,7 +10133,7 @@
         <v>188.6</v>
       </c>
       <c r="H154" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I154" t="n">
         <v>100.55</v>
@@ -9704,6 +10165,9 @@
       <c r="R154" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S154" t="n">
+        <v>3.042631764275645</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9732,7 +10196,7 @@
         <v>174.74</v>
       </c>
       <c r="H155" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I155" t="n">
         <v>100.15</v>
@@ -9764,6 +10228,9 @@
       <c r="R155" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S155" t="n">
+        <v>4.487561080648482</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9792,7 +10259,7 @@
         <v>176</v>
       </c>
       <c r="H156" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I156" t="n">
         <v>99.92</v>
@@ -9824,6 +10291,9 @@
       <c r="R156" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S156" t="n">
+        <v>4.261146465832408</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9852,7 +10322,7 @@
         <v>183.2</v>
       </c>
       <c r="H157" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I157" t="n">
         <v>100.4</v>
@@ -9884,6 +10354,9 @@
       <c r="R157" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S157" t="n">
+        <v>3.61404673514285</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9912,7 +10385,7 @@
         <v>189.32</v>
       </c>
       <c r="H158" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="I158" t="n">
         <v>100.27</v>
@@ -9944,6 +10417,9 @@
       <c r="R158" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S158" t="n">
+        <v>3.475830706695068</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9972,7 +10448,7 @@
         <v>190.04</v>
       </c>
       <c r="H159" t="n">
-        <v>176.72</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="I159" t="n">
         <v>100.14</v>
@@ -10004,6 +10480,9 @@
       <c r="R159" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S159" t="n">
+        <v>3.475537972348403</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -10032,7 +10511,7 @@
         <v>184.82</v>
       </c>
       <c r="H160" t="n">
-        <v>175.1</v>
+        <v>79.5</v>
       </c>
       <c r="I160" t="n">
         <v>100.11</v>
@@ -10064,6 +10543,9 @@
       <c r="R160" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S160" t="n">
+        <v>3.779856830492486</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -10092,7 +10574,7 @@
         <v>194</v>
       </c>
       <c r="H161" t="n">
-        <v>175.64</v>
+        <v>79.8</v>
       </c>
       <c r="I161" t="n">
         <v>100.15</v>
@@ -10124,6 +10606,9 @@
       <c r="R161" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S161" t="n">
+        <v>3.099577561692536</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -10152,7 +10637,7 @@
         <v>191.84</v>
       </c>
       <c r="H162" t="n">
-        <v>177.62</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="I162" t="n">
         <v>100.12</v>
@@ -10184,6 +10669,9 @@
       <c r="R162" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S162" t="n">
+        <v>3.404810186379835</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -10212,7 +10700,7 @@
         <v>188.42</v>
       </c>
       <c r="H163" t="n">
-        <v>176.9</v>
+        <v>80.5</v>
       </c>
       <c r="I163" t="n">
         <v>99.97999999999999</v>
@@ -10244,6 +10732,9 @@
       <c r="R163" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S163" t="n">
+        <v>3.622168248750758</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -10272,7 +10763,7 @@
         <v>188.96</v>
       </c>
       <c r="H164" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I164" t="n">
         <v>100.24</v>
@@ -10304,6 +10795,9 @@
       <c r="R164" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S164" t="n">
+        <v>2.905156101822992</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10332,7 +10826,7 @@
         <v>172.58</v>
       </c>
       <c r="H165" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I165" t="n">
         <v>100.5</v>
@@ -10364,6 +10858,9 @@
       <c r="R165" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S165" t="n">
+        <v>4.316261722194259</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10392,7 +10889,7 @@
         <v>179.6</v>
       </c>
       <c r="H166" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I166" t="n">
         <v>100.87</v>
@@ -10424,6 +10921,9 @@
       <c r="R166" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S166" t="n">
+        <v>3.470065563668882</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10452,7 +10952,7 @@
         <v>188.24</v>
       </c>
       <c r="H167" t="n">
-        <v>174.38</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I167" t="n">
         <v>100.52</v>
@@ -10484,6 +10984,9 @@
       <c r="R167" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S167" t="n">
+        <v>3.433551913495235</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10512,7 +11015,7 @@
         <v>182.12</v>
       </c>
       <c r="H168" t="n">
-        <v>162.5</v>
+        <v>72.5</v>
       </c>
       <c r="I168" t="n">
         <v>100.6</v>
@@ -10544,6 +11047,9 @@
       <c r="R168" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S168" t="n">
+        <v>2.999147727940605</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10572,7 +11078,7 @@
         <v>183.56</v>
       </c>
       <c r="H169" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I169" t="n">
         <v>100.51</v>
@@ -10604,6 +11110,9 @@
       <c r="R169" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S169" t="n">
+        <v>3.735773633249433</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10632,7 +11141,7 @@
         <v>171.68</v>
       </c>
       <c r="H170" t="n">
-        <v>163.22</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I170" t="n">
         <v>100.6</v>
@@ -10664,6 +11173,9 @@
       <c r="R170" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S170" t="n">
+        <v>3.934339231614429</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10692,7 +11204,7 @@
         <v>179.42</v>
       </c>
       <c r="H171" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I171" t="n">
         <v>100.44</v>
@@ -10724,6 +11236,9 @@
       <c r="R171" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S171" t="n">
+        <v>4.122996969156753</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10752,7 +11267,7 @@
         <v>184.1</v>
       </c>
       <c r="H172" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I172" t="n">
         <v>100.36</v>
@@ -10784,6 +11299,9 @@
       <c r="R172" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S172" t="n">
+        <v>3.658037674538883</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10812,7 +11330,7 @@
         <v>185.36</v>
       </c>
       <c r="H173" t="n">
-        <v>175.1</v>
+        <v>79.5</v>
       </c>
       <c r="I173" t="n">
         <v>100.55</v>
@@ -10844,6 +11362,9 @@
       <c r="R173" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S173" t="n">
+        <v>3.732347709174476</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10872,7 +11393,7 @@
         <v>188.06</v>
       </c>
       <c r="H174" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I174" t="n">
         <v>100.66</v>
@@ -10904,6 +11425,9 @@
       <c r="R174" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S174" t="n">
+        <v>3.363222636626451</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10932,7 +11456,7 @@
         <v>190.22</v>
       </c>
       <c r="H175" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I175" t="n">
         <v>100.51</v>
@@ -10964,6 +11488,9 @@
       <c r="R175" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S175" t="n">
+        <v>3.187052026905171</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10992,7 +11519,7 @@
         <v>190.76</v>
       </c>
       <c r="H176" t="n">
-        <v>175.46</v>
+        <v>79.7</v>
       </c>
       <c r="I176" t="n">
         <v>100.34</v>
@@ -11024,6 +11551,9 @@
       <c r="R176" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S176" t="n">
+        <v>3.321856657458898</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -11052,7 +11582,7 @@
         <v>190.04</v>
       </c>
       <c r="H177" t="n">
-        <v>175.46</v>
+        <v>79.7</v>
       </c>
       <c r="I177" t="n">
         <v>100.44</v>
@@ -11084,6 +11614,9 @@
       <c r="R177" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S177" t="n">
+        <v>3.376968874570033</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -11112,7 +11645,7 @@
         <v>189.32</v>
       </c>
       <c r="H178" t="n">
-        <v>176.18</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="I178" t="n">
         <v>100.57</v>
@@ -11144,6 +11677,9 @@
       <c r="R178" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S178" t="n">
+        <v>3.490146128068005</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -11172,7 +11708,7 @@
         <v>188.78</v>
       </c>
       <c r="H179" t="n">
-        <v>174.2</v>
+        <v>79</v>
       </c>
       <c r="I179" t="n">
         <v>100.47</v>
@@ -11204,6 +11740,9 @@
       <c r="R179" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S179" t="n">
+        <v>3.37707661856962</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -11232,7 +11771,7 @@
         <v>195.26</v>
       </c>
       <c r="H180" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I180" t="n">
         <v>100.18</v>
@@ -11264,6 +11803,9 @@
       <c r="R180" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S180" t="n">
+        <v>2.7277838431922</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -11292,7 +11834,7 @@
         <v>181.22</v>
       </c>
       <c r="H181" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I181" t="n">
         <v>100.5</v>
@@ -11324,6 +11866,9 @@
       <c r="R181" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S181" t="n">
+        <v>3.998427574601657</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -11352,7 +11897,7 @@
         <v>184.46</v>
       </c>
       <c r="H182" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I182" t="n">
         <v>100.56</v>
@@ -11384,6 +11929,9 @@
       <c r="R182" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S182" t="n">
+        <v>3.493706501638608</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11412,7 +11960,7 @@
         <v>170.42</v>
       </c>
       <c r="H183" t="n">
-        <v>160.16</v>
+        <v>71.2</v>
       </c>
       <c r="I183" t="n">
         <v>101.01</v>
@@ -11444,6 +11992,9 @@
       <c r="R183" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S183" t="n">
+        <v>3.772845704226734</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -11472,7 +12023,7 @@
         <v>176</v>
       </c>
       <c r="H184" t="n">
-        <v>160.7</v>
+        <v>71.5</v>
       </c>
       <c r="I184" t="n">
         <v>100.89</v>
@@ -11504,6 +12055,9 @@
       <c r="R184" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S184" t="n">
+        <v>3.328703233318054</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -11532,7 +12086,7 @@
         <v>164.66</v>
       </c>
       <c r="H185" t="n">
-        <v>154.04</v>
+        <v>67.8</v>
       </c>
       <c r="I185" t="n">
         <v>101.18</v>
@@ -11564,6 +12118,9 @@
       <c r="R185" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S185" t="n">
+        <v>3.762923040860263</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -11592,7 +12149,7 @@
         <v>170.6</v>
       </c>
       <c r="H186" t="n">
-        <v>157.64</v>
+        <v>69.8</v>
       </c>
       <c r="I186" t="n">
         <v>100.96</v>
@@ -11624,6 +12181,9 @@
       <c r="R186" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S186" t="n">
+        <v>3.533242565362607</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11652,7 +12212,7 @@
         <v>158.36</v>
       </c>
       <c r="H187" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I187" t="n">
         <v>101.41</v>
@@ -11684,6 +12244,9 @@
       <c r="R187" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S187" t="n">
+        <v>4.39985526178898</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11712,7 +12275,7 @@
         <v>172.4</v>
       </c>
       <c r="H188" t="n">
-        <v>157.82</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I188" t="n">
         <v>101.52</v>
@@ -11744,6 +12307,9 @@
       <c r="R188" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S188" t="n">
+        <v>3.392709941311665</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11772,7 +12338,7 @@
         <v>172.58</v>
       </c>
       <c r="H189" t="n">
-        <v>141.98</v>
+        <v>61.1</v>
       </c>
       <c r="I189" t="n">
         <v>100.74</v>
@@ -11804,6 +12370,9 @@
       <c r="R189" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S189" t="n">
+        <v>2.27168097588131</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11832,7 +12401,7 @@
         <v>170.24</v>
       </c>
       <c r="H190" t="n">
-        <v>151.34</v>
+        <v>66.3</v>
       </c>
       <c r="I190" t="n">
         <v>100.72</v>
@@ -11864,6 +12433,9 @@
       <c r="R190" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S190" t="n">
+        <v>3.052934404195145</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11892,7 +12464,7 @@
         <v>179.42</v>
       </c>
       <c r="H191" t="n">
-        <v>154.22</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="I191" t="n">
         <v>101.2</v>
@@ -11924,6 +12496,9 @@
       <c r="R191" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S191" t="n">
+        <v>2.616223010791533</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11952,7 +12527,7 @@
         <v>174.2</v>
       </c>
       <c r="H192" t="n">
-        <v>149.9</v>
+        <v>65.5</v>
       </c>
       <c r="I192" t="n">
         <v>101.75</v>
@@ -11984,6 +12559,9 @@
       <c r="R192" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S192" t="n">
+        <v>2.668601950604386</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -12012,7 +12590,7 @@
         <v>168.98</v>
       </c>
       <c r="H193" t="n">
-        <v>145.94</v>
+        <v>63.3</v>
       </c>
       <c r="I193" t="n">
         <v>101.84</v>
@@ -12044,6 +12622,9 @@
       <c r="R193" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S193" t="n">
+        <v>2.751273406643433</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -12072,7 +12653,7 @@
         <v>165.38</v>
       </c>
       <c r="H194" t="n">
-        <v>151.34</v>
+        <v>66.3</v>
       </c>
       <c r="I194" t="n">
         <v>101.62</v>
@@ -12104,6 +12685,9 @@
       <c r="R194" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S194" t="n">
+        <v>3.454617519983786</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -12132,7 +12716,7 @@
         <v>164.12</v>
       </c>
       <c r="H195" t="n">
-        <v>141.44</v>
+        <v>60.8</v>
       </c>
       <c r="I195" t="n">
         <v>101.27</v>
@@ -12164,6 +12748,9 @@
       <c r="R195" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S195" t="n">
+        <v>2.776568420702235</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -12192,7 +12779,7 @@
         <v>170.42</v>
       </c>
       <c r="H196" t="n">
-        <v>148.64</v>
+        <v>64.8</v>
       </c>
       <c r="I196" t="n">
         <v>101.27</v>
@@ -12224,6 +12811,9 @@
       <c r="R196" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S196" t="n">
+        <v>2.840579529087043</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -12252,7 +12842,7 @@
         <v>172.04</v>
       </c>
       <c r="H197" t="n">
-        <v>154.76</v>
+        <v>68.2</v>
       </c>
       <c r="I197" t="n">
         <v>101.37</v>
@@ -12284,6 +12874,9 @@
       <c r="R197" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S197" t="n">
+        <v>3.176292402889619</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -12312,7 +12905,7 @@
         <v>165.92</v>
       </c>
       <c r="H198" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I198" t="n">
         <v>101.09</v>
@@ -12344,6 +12937,9 @@
       <c r="R198" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S198" t="n">
+        <v>3.610580441163998</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -12372,7 +12968,7 @@
         <v>163.94</v>
       </c>
       <c r="H199" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I199" t="n">
         <v>100.49</v>
@@ -12404,6 +13000,9 @@
       <c r="R199" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S199" t="n">
+        <v>3.816687961340313</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -12432,7 +13031,7 @@
         <v>171.5</v>
       </c>
       <c r="H200" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I200" t="n">
         <v>100.8</v>
@@ -12464,6 +13063,9 @@
       <c r="R200" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S200" t="n">
+        <v>3.107032646976096</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -12492,7 +13094,7 @@
         <v>154.04</v>
       </c>
       <c r="H201" t="n">
-        <v>131.54</v>
+        <v>55.3</v>
       </c>
       <c r="I201" t="n">
         <v>101.78</v>
@@ -12524,6 +13126,9 @@
       <c r="R201" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S201" t="n">
+        <v>2.797136503075158</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -12552,7 +13157,7 @@
         <v>156.92</v>
       </c>
       <c r="H202" t="n">
-        <v>119.84</v>
+        <v>48.8</v>
       </c>
       <c r="I202" t="n">
         <v>101.91</v>
@@ -12584,6 +13189,9 @@
       <c r="R202" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S202" t="n">
+        <v>1.87862048357764</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -12612,7 +13220,7 @@
         <v>147.56</v>
       </c>
       <c r="H203" t="n">
-        <v>129.2</v>
+        <v>54</v>
       </c>
       <c r="I203" t="n">
         <v>101.75</v>
@@ -12644,6 +13252,9 @@
       <c r="R203" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S203" t="n">
+        <v>3.142493874230391</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12672,7 +13283,7 @@
         <v>157.28</v>
       </c>
       <c r="H204" t="n">
-        <v>137.3</v>
+        <v>58.5</v>
       </c>
       <c r="I204" t="n">
         <v>101.6</v>
@@ -12704,6 +13315,9 @@
       <c r="R204" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S204" t="n">
+        <v>2.985237296071379</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12732,7 +13346,7 @@
         <v>155.48</v>
       </c>
       <c r="H205" t="n">
-        <v>138.74</v>
+        <v>59.3</v>
       </c>
       <c r="I205" t="n">
         <v>101.58</v>
@@ -12764,6 +13378,9 @@
       <c r="R205" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S205" t="n">
+        <v>3.253575125858397</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12792,7 +13409,7 @@
         <v>162.14</v>
       </c>
       <c r="H206" t="n">
-        <v>140.72</v>
+        <v>60.4</v>
       </c>
       <c r="I206" t="n">
         <v>101.49</v>
@@ -12824,6 +13441,9 @@
       <c r="R206" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S206" t="n">
+        <v>2.869473231630478</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12852,7 +13472,7 @@
         <v>166.1</v>
       </c>
       <c r="H207" t="n">
-        <v>145.22</v>
+        <v>62.9</v>
       </c>
       <c r="I207" t="n">
         <v>101.32</v>
@@ -12884,6 +13504,9 @@
       <c r="R207" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S207" t="n">
+        <v>2.906935737604494</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12912,7 +13535,7 @@
         <v>171.86</v>
       </c>
       <c r="H208" t="n">
-        <v>154.76</v>
+        <v>68.2</v>
       </c>
       <c r="I208" t="n">
         <v>101.21</v>
@@ -12944,6 +13567,9 @@
       <c r="R208" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S208" t="n">
+        <v>3.190576925348251</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12972,7 +13598,7 @@
         <v>190.22</v>
       </c>
       <c r="H209" t="n">
-        <v>157.46</v>
+        <v>69.7</v>
       </c>
       <c r="I209" t="n">
         <v>100.8</v>
@@ -13004,6 +13630,9 @@
       <c r="R209" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S209" t="n">
+        <v>2.19857054883167</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -13032,7 +13661,7 @@
         <v>123.98</v>
       </c>
       <c r="H210" t="n">
-        <v>121.82</v>
+        <v>49.9</v>
       </c>
       <c r="I210" t="n">
         <v>102.57</v>
@@ -13064,6 +13693,9 @@
       <c r="R210" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S210" t="n">
+        <v>5.201306707719134</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -13092,7 +13724,7 @@
         <v>127.22</v>
       </c>
       <c r="H211" t="n">
-        <v>109.04</v>
+        <v>42.8</v>
       </c>
       <c r="I211" t="n">
         <v>102.67</v>
@@ -13124,6 +13756,9 @@
       <c r="R211" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S211" t="n">
+        <v>3.263846043417928</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -13152,7 +13787,7 @@
         <v>124.88</v>
       </c>
       <c r="H212" t="n">
-        <v>99.14</v>
+        <v>37.3</v>
       </c>
       <c r="I212" t="n">
         <v>102.67</v>
@@ -13184,6 +13819,9 @@
       <c r="R212" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S212" t="n">
+        <v>2.617630946120733</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -13212,7 +13850,7 @@
         <v>133.52</v>
       </c>
       <c r="H213" t="n">
-        <v>98.60000000000001</v>
+        <v>37</v>
       </c>
       <c r="I213" t="n">
         <v>102.59</v>
@@ -13244,6 +13882,9 @@
       <c r="R213" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S213" t="n">
+        <v>1.970364123075456</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -13272,7 +13913,7 @@
         <v>140</v>
       </c>
       <c r="H214" t="n">
-        <v>124.16</v>
+        <v>51.2</v>
       </c>
       <c r="I214" t="n">
         <v>102.2</v>
@@ -13304,6 +13945,9 @@
       <c r="R214" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S214" t="n">
+        <v>3.402459840454217</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -13332,7 +13976,7 @@
         <v>143.42</v>
       </c>
       <c r="H215" t="n">
-        <v>127.4</v>
+        <v>53</v>
       </c>
       <c r="I215" t="n">
         <v>102</v>
@@ -13364,6 +14008,9 @@
       <c r="R215" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S215" t="n">
+        <v>3.3668056887782</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -13392,7 +14039,7 @@
         <v>143.96</v>
       </c>
       <c r="H216" t="n">
-        <v>129.02</v>
+        <v>53.9</v>
       </c>
       <c r="I216" t="n">
         <v>101.98</v>
@@ -13424,6 +14071,9 @@
       <c r="R216" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S216" t="n">
+        <v>3.463851694420858</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -13452,7 +14102,7 @@
         <v>156.92</v>
       </c>
       <c r="H217" t="n">
-        <v>129.92</v>
+        <v>54.4</v>
       </c>
       <c r="I217" t="n">
         <v>102.17</v>
@@ -13484,6 +14134,9 @@
       <c r="R217" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S217" t="n">
+        <v>2.477493392470732</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -13512,7 +14165,7 @@
         <v>140.36</v>
       </c>
       <c r="H218" t="n">
-        <v>91.76000000000001</v>
+        <v>33.2</v>
       </c>
       <c r="I218" t="n">
         <v>102.75</v>
@@ -13544,6 +14197,9 @@
       <c r="R218" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S218" t="n">
+        <v>1.302396474483069</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -13572,7 +14228,7 @@
         <v>122.54</v>
       </c>
       <c r="H219" t="n">
-        <v>88.34</v>
+        <v>31.3</v>
       </c>
       <c r="I219" t="n">
         <v>102.74</v>
@@ -13604,6 +14260,9 @@
       <c r="R219" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S219" t="n">
+        <v>2.018545480681627</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -13632,7 +14291,7 @@
         <v>137.3</v>
       </c>
       <c r="H220" t="n">
-        <v>99.86000000000001</v>
+        <v>37.7</v>
       </c>
       <c r="I220" t="n">
         <v>102.65</v>
@@ -13664,6 +14323,9 @@
       <c r="R220" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S220" t="n">
+        <v>1.827811560328056</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -13692,7 +14354,7 @@
         <v>148.46</v>
       </c>
       <c r="H221" t="n">
-        <v>118.94</v>
+        <v>48.3</v>
       </c>
       <c r="I221" t="n">
         <v>102.24</v>
@@ -13724,6 +14386,9 @@
       <c r="R221" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S221" t="n">
+        <v>2.309983680767103</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -13752,7 +14417,7 @@
         <v>140.72</v>
       </c>
       <c r="H222" t="n">
-        <v>125.6</v>
+        <v>52</v>
       </c>
       <c r="I222" t="n">
         <v>102.15</v>
@@ -13784,6 +14449,9 @@
       <c r="R222" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S222" t="n">
+        <v>3.465998484992394</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -13812,7 +14480,7 @@
         <v>139.28</v>
       </c>
       <c r="H223" t="n">
-        <v>128.66</v>
+        <v>53.7</v>
       </c>
       <c r="I223" t="n">
         <v>102.31</v>
@@ -13844,6 +14512,9 @@
       <c r="R223" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S223" t="n">
+        <v>3.929120989432749</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -13872,7 +14543,7 @@
         <v>143.96</v>
       </c>
       <c r="H224" t="n">
-        <v>113.9</v>
+        <v>45.5</v>
       </c>
       <c r="I224" t="n">
         <v>102.27</v>
@@ -13904,6 +14575,9 @@
       <c r="R224" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S224" t="n">
+        <v>2.274753055961146</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13932,7 +14606,7 @@
         <v>134.6</v>
       </c>
       <c r="H225" t="n">
-        <v>131.72</v>
+        <v>55.4</v>
       </c>
       <c r="I225" t="n">
         <v>102.31</v>
@@ -13964,6 +14638,9 @@
       <c r="R225" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S225" t="n">
+        <v>4.903194894867847</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13992,7 +14669,7 @@
         <v>144.32</v>
       </c>
       <c r="H226" t="n">
-        <v>136.94</v>
+        <v>58.3</v>
       </c>
       <c r="I226" t="n">
         <v>102.56</v>
@@ -14024,6 +14701,9 @@
       <c r="R226" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S226" t="n">
+        <v>4.233368405059027</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -14052,7 +14732,7 @@
         <v>140.36</v>
       </c>
       <c r="H227" t="n">
-        <v>125.96</v>
+        <v>52.2</v>
       </c>
       <c r="I227" t="n">
         <v>102.71</v>
@@ -14084,6 +14764,9 @@
       <c r="R227" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S227" t="n">
+        <v>3.537255942931236</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -14112,7 +14795,7 @@
         <v>138.2</v>
       </c>
       <c r="H228" t="n">
-        <v>119.84</v>
+        <v>48.8</v>
       </c>
       <c r="I228" t="n">
         <v>102.53</v>
@@ -14144,6 +14827,9 @@
       <c r="R228" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S228" t="n">
+        <v>3.182060723631292</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -14172,7 +14858,7 @@
         <v>138.74</v>
       </c>
       <c r="H229" t="n">
-        <v>122.9</v>
+        <v>50.5</v>
       </c>
       <c r="I229" t="n">
         <v>102.36</v>
@@ -14204,6 +14890,9 @@
       <c r="R229" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S229" t="n">
+        <v>3.410025441187221</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -14232,7 +14921,7 @@
         <v>135.32</v>
       </c>
       <c r="H230" t="n">
-        <v>128.12</v>
+        <v>53.4</v>
       </c>
       <c r="I230" t="n">
         <v>102.39</v>
@@ -14264,6 +14953,9 @@
       <c r="R230" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S230" t="n">
+        <v>4.354850130102129</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -14292,7 +14984,7 @@
         <v>138.38</v>
       </c>
       <c r="H231" t="n">
-        <v>120.74</v>
+        <v>49.3</v>
       </c>
       <c r="I231" t="n">
         <v>102.37</v>
@@ -14324,6 +15016,9 @@
       <c r="R231" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S231" t="n">
+        <v>3.245769080761032</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -14352,7 +15047,7 @@
         <v>132.98</v>
       </c>
       <c r="H232" t="n">
-        <v>114.8</v>
+        <v>46</v>
       </c>
       <c r="I232" t="n">
         <v>102.01</v>
@@ -14384,6 +15079,9 @@
       <c r="R232" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S232" t="n">
+        <v>3.226679679915244</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -14412,7 +15110,7 @@
         <v>135.86</v>
       </c>
       <c r="H233" t="n">
-        <v>116.96</v>
+        <v>47.2</v>
       </c>
       <c r="I233" t="n">
         <v>102.41</v>
@@ -14444,6 +15142,9 @@
       <c r="R233" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S233" t="n">
+        <v>3.145717048377905</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -14472,7 +15173,7 @@
         <v>129.74</v>
       </c>
       <c r="H234" t="n">
-        <v>99.14</v>
+        <v>37.3</v>
       </c>
       <c r="I234" t="n">
         <v>102.68</v>
@@ -14504,6 +15205,9 @@
       <c r="R234" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S234" t="n">
+        <v>2.24832226302239</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -14532,7 +15236,7 @@
         <v>135.14</v>
       </c>
       <c r="H235" t="n">
-        <v>114.8</v>
+        <v>46</v>
       </c>
       <c r="I235" t="n">
         <v>102.19</v>
@@ -14564,6 +15268,9 @@
       <c r="R235" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S235" t="n">
+        <v>3.023024011123894</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -14592,7 +15299,7 @@
         <v>143.24</v>
       </c>
       <c r="H236" t="n">
-        <v>132.26</v>
+        <v>55.7</v>
       </c>
       <c r="I236" t="n">
         <v>101.96</v>
@@ -14624,6 +15331,9 @@
       <c r="R236" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S236" t="n">
+        <v>3.857781858581002</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -14652,7 +15362,7 @@
         <v>142.52</v>
       </c>
       <c r="H237" t="n">
-        <v>139.64</v>
+        <v>59.8</v>
       </c>
       <c r="I237" t="n">
         <v>101.98</v>
@@ -14684,6 +15394,9 @@
       <c r="R237" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S237" t="n">
+        <v>4.783815741726906</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -14712,7 +15425,7 @@
         <v>154.22</v>
       </c>
       <c r="H238" t="n">
-        <v>148.64</v>
+        <v>64.8</v>
       </c>
       <c r="I238" t="n">
         <v>101.59</v>
@@ -14744,6 +15457,9 @@
       <c r="R238" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S238" t="n">
+        <v>4.338001587642546</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -14772,7 +15488,7 @@
         <v>132.62</v>
       </c>
       <c r="H239" t="n">
-        <v>126.5</v>
+        <v>52.5</v>
       </c>
       <c r="I239" t="n">
         <v>102.04</v>
@@ -14804,6 +15520,9 @@
       <c r="R239" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S239" t="n">
+        <v>4.52112661520494</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -14832,7 +15551,7 @@
         <v>118.94</v>
       </c>
       <c r="H240" t="n">
-        <v>108.68</v>
+        <v>42.6</v>
       </c>
       <c r="I240" t="n">
         <v>102.71</v>
@@ -14864,6 +15583,9 @@
       <c r="R240" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S240" t="n">
+        <v>4.210349674086433</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -14892,7 +15614,7 @@
         <v>111.56</v>
       </c>
       <c r="H241" t="n">
-        <v>99.86000000000001</v>
+        <v>37.7</v>
       </c>
       <c r="I241" t="n">
         <v>102.26</v>
@@ -14924,6 +15646,9 @@
       <c r="R241" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S241" t="n">
+        <v>4.146378518296082</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14952,7 +15677,7 @@
         <v>121.28</v>
       </c>
       <c r="H242" t="n">
-        <v>107.42</v>
+        <v>41.9</v>
       </c>
       <c r="I242" t="n">
         <v>102.13</v>
@@ -14984,6 +15709,9 @@
       <c r="R242" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S242" t="n">
+        <v>3.760331718164431</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -15012,7 +15740,7 @@
         <v>135.14</v>
       </c>
       <c r="H243" t="n">
-        <v>131.18</v>
+        <v>55.1</v>
       </c>
       <c r="I243" t="n">
         <v>102.11</v>
@@ -15044,6 +15772,9 @@
       <c r="R243" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S243" t="n">
+        <v>4.754993965380343</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -15072,7 +15803,7 @@
         <v>133.34</v>
       </c>
       <c r="H244" t="n">
-        <v>130.28</v>
+        <v>54.6</v>
       </c>
       <c r="I244" t="n">
         <v>101.99</v>
@@ -15104,6 +15835,9 @@
       <c r="R244" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S244" t="n">
+        <v>4.900340972870605</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -15132,7 +15866,7 @@
         <v>134.96</v>
       </c>
       <c r="H245" t="n">
-        <v>124.16</v>
+        <v>51.2</v>
       </c>
       <c r="I245" t="n">
         <v>101.92</v>
@@ -15164,6 +15898,9 @@
       <c r="R245" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S245" t="n">
+        <v>3.95076411764764</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -15192,7 +15929,7 @@
         <v>135.5</v>
       </c>
       <c r="H246" t="n">
-        <v>132.62</v>
+        <v>55.9</v>
       </c>
       <c r="I246" t="n">
         <v>101.94</v>
@@ -15224,6 +15961,9 @@
       <c r="R246" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S246" t="n">
+        <v>4.888589090168755</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -15252,7 +15992,7 @@
         <v>133.16</v>
       </c>
       <c r="H247" t="n">
-        <v>130.64</v>
+        <v>54.8</v>
       </c>
       <c r="I247" t="n">
         <v>101.97</v>
@@ -15284,6 +16024,9 @@
       <c r="R247" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S247" t="n">
+        <v>4.975064537117483</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -15312,7 +16055,7 @@
         <v>127.76</v>
       </c>
       <c r="H248" t="n">
-        <v>124.7</v>
+        <v>51.5</v>
       </c>
       <c r="I248" t="n">
         <v>102.12</v>
@@ -15344,6 +16087,9 @@
       <c r="R248" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S248" t="n">
+        <v>4.998994987168945</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -15372,7 +16118,7 @@
         <v>124.16</v>
       </c>
       <c r="H249" t="n">
-        <v>123.8</v>
+        <v>51</v>
       </c>
       <c r="I249" t="n">
         <v>101.94</v>
@@ -15404,6 +16150,9 @@
       <c r="R249" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S249" t="n">
+        <v>5.46275175944601</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -15432,7 +16181,7 @@
         <v>129.92</v>
       </c>
       <c r="H250" t="n">
-        <v>124.34</v>
+        <v>51.3</v>
       </c>
       <c r="I250" t="n">
         <v>101.69</v>
@@ -15464,6 +16213,9 @@
       <c r="R250" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S250" t="n">
+        <v>4.628834206664581</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -15492,7 +16244,7 @@
         <v>133.34</v>
       </c>
       <c r="H251" t="n">
-        <v>129.38</v>
+        <v>54.1</v>
       </c>
       <c r="I251" t="n">
         <v>101.54</v>
@@ -15524,6 +16276,9 @@
       <c r="R251" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S251" t="n">
+        <v>4.78293728186913</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -15552,7 +16307,7 @@
         <v>143.24</v>
       </c>
       <c r="H252" t="n">
-        <v>135.68</v>
+        <v>57.6</v>
       </c>
       <c r="I252" t="n">
         <v>100.93</v>
@@ -15584,6 +16339,9 @@
       <c r="R252" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S252" t="n">
+        <v>4.224226345058081</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -15612,7 +16370,7 @@
         <v>103.28</v>
       </c>
       <c r="H253" t="n">
-        <v>77.72</v>
+        <v>25.4</v>
       </c>
       <c r="I253" t="n">
         <v>103.21</v>
@@ -15644,6 +16402,9 @@
       <c r="R253" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S253" t="n">
+        <v>2.750214081123232</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -15672,7 +16433,7 @@
         <v>86.72</v>
       </c>
       <c r="H254" t="n">
-        <v>48.2</v>
+        <v>9</v>
       </c>
       <c r="I254" t="n">
         <v>103.86</v>
@@ -15704,6 +16465,9 @@
       <c r="R254" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S254" t="n">
+        <v>1.812348881978681</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -15732,7 +16496,7 @@
         <v>85.46000000000001</v>
       </c>
       <c r="H255" t="n">
-        <v>68.72</v>
+        <v>20.4</v>
       </c>
       <c r="I255" t="n">
         <v>103.47</v>
@@ -15764,6 +16528,9 @@
       <c r="R255" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S255" t="n">
+        <v>3.977427362698836</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -15792,7 +16559,7 @@
         <v>100.22</v>
       </c>
       <c r="H256" t="n">
-        <v>80.59999999999999</v>
+        <v>27</v>
       </c>
       <c r="I256" t="n">
         <v>103.44</v>
@@ -15824,6 +16591,9 @@
       <c r="R256" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S256" t="n">
+        <v>3.376305067095458</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -15852,7 +16622,7 @@
         <v>99.31999999999999</v>
       </c>
       <c r="H257" t="n">
-        <v>76.28</v>
+        <v>24.6</v>
       </c>
       <c r="I257" t="n">
         <v>103.02</v>
@@ -15884,6 +16654,9 @@
       <c r="R257" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S257" t="n">
+        <v>3.026037119457731</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -15912,7 +16685,7 @@
         <v>101.12</v>
       </c>
       <c r="H258" t="n">
-        <v>84.92</v>
+        <v>29.4</v>
       </c>
       <c r="I258" t="n">
         <v>102.77</v>
@@ -15944,6 +16717,9 @@
       <c r="R258" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S258" t="n">
+        <v>3.758339141290638</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15972,7 +16748,7 @@
         <v>116.06</v>
       </c>
       <c r="H259" t="n">
-        <v>93.38</v>
+        <v>34.1</v>
       </c>
       <c r="I259" t="n">
         <v>102.58</v>
@@ -16004,6 +16780,9 @@
       <c r="R259" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S259" t="n">
+        <v>2.921642128941559</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -16032,7 +16811,7 @@
         <v>116.24</v>
       </c>
       <c r="H260" t="n">
-        <v>112.82</v>
+        <v>44.9</v>
       </c>
       <c r="I260" t="n">
         <v>102.27</v>
@@ -16064,6 +16843,9 @@
       <c r="R260" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S260" t="n">
+        <v>5.189208687256574</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -16092,7 +16874,7 @@
         <v>110.12</v>
       </c>
       <c r="H261" t="n">
-        <v>94.81999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="I261" t="n">
         <v>102.65</v>
@@ -16124,6 +16906,9 @@
       <c r="R261" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S261" t="n">
+        <v>3.734793964952606</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -16152,7 +16937,7 @@
         <v>92.48</v>
       </c>
       <c r="H262" t="n">
-        <v>79.16</v>
+        <v>26.2</v>
       </c>
       <c r="I262" t="n">
         <v>102.91</v>
@@ -16184,6 +16969,9 @@
       <c r="R262" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S262" t="n">
+        <v>4.297249893915891</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -16212,7 +17000,7 @@
         <v>92.12</v>
       </c>
       <c r="H263" t="n">
-        <v>76.64</v>
+        <v>24.8</v>
       </c>
       <c r="I263" t="n">
         <v>102.61</v>
@@ -16244,6 +17032,9 @@
       <c r="R263" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S263" t="n">
+        <v>4.008696219786771</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -16272,7 +17063,7 @@
         <v>102.56</v>
       </c>
       <c r="H264" t="n">
-        <v>55.94</v>
+        <v>13.3</v>
       </c>
       <c r="I264" t="n">
         <v>103.12</v>
@@ -16304,6 +17095,9 @@
       <c r="R264" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S264" t="n">
+        <v>1.327843471681547</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -16332,7 +17126,7 @@
         <v>108.86</v>
       </c>
       <c r="H265" t="n">
-        <v>80.59999999999999</v>
+        <v>27</v>
       </c>
       <c r="I265" t="n">
         <v>102.55</v>
@@ -16364,6 +17158,9 @@
       <c r="R265" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S265" t="n">
+        <v>2.483922221050634</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -16392,7 +17189,7 @@
         <v>84.92</v>
       </c>
       <c r="H266" t="n">
-        <v>79.52</v>
+        <v>26.4</v>
       </c>
       <c r="I266" t="n">
         <v>103.6</v>
@@ -16424,6 +17221,9 @@
       <c r="R266" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S266" t="n">
+        <v>5.839166429730088</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -16452,7 +17252,7 @@
         <v>79.52</v>
       </c>
       <c r="H267" t="n">
-        <v>48.74</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I267" t="n">
         <v>103.79</v>
@@ -16484,6 +17284,9 @@
       <c r="R267" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S267" t="n">
+        <v>2.472602600260533</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -16512,7 +17315,7 @@
         <v>95.36000000000001</v>
       </c>
       <c r="H268" t="n">
-        <v>51.62</v>
+        <v>10.9</v>
       </c>
       <c r="I268" t="n">
         <v>102.72</v>
@@ -16544,6 +17347,9 @@
       <c r="R268" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S268" t="n">
+        <v>1.476492526656158</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -16572,7 +17378,7 @@
         <v>116.06</v>
       </c>
       <c r="H269" t="n">
-        <v>62.78</v>
+        <v>17.1</v>
       </c>
       <c r="I269" t="n">
         <v>102.42</v>
@@ -16604,6 +17410,9 @@
       <c r="R269" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S269" t="n">
+        <v>1.062956407186451</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -16632,7 +17441,7 @@
         <v>98.96000000000001</v>
       </c>
       <c r="H270" t="n">
-        <v>80.06</v>
+        <v>26.7</v>
       </c>
       <c r="I270" t="n">
         <v>102.1</v>
@@ -16664,6 +17473,9 @@
       <c r="R270" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S270" t="n">
+        <v>3.473552825351515</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -16692,7 +17504,7 @@
         <v>105.26</v>
       </c>
       <c r="H271" t="n">
-        <v>70.88</v>
+        <v>21.6</v>
       </c>
       <c r="I271" t="n">
         <v>101.82</v>
@@ -16724,6 +17536,9 @@
       <c r="R271" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S271" t="n">
+        <v>2.037815040284003</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -16752,7 +17567,7 @@
         <v>89.42</v>
       </c>
       <c r="H272" t="n">
-        <v>42.62</v>
+        <v>5.9</v>
       </c>
       <c r="I272" t="n">
         <v>102.54</v>
@@ -16784,6 +17599,9 @@
       <c r="R272" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S272" t="n">
+        <v>1.319359159965662</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -16812,7 +17630,7 @@
         <v>90.31999999999999</v>
       </c>
       <c r="H273" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I273" t="n">
         <v>102.68</v>
@@ -16844,6 +17662,9 @@
       <c r="R273" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S273" t="n">
+        <v>1.68426370073786</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -16872,7 +17693,7 @@
         <v>88.34</v>
       </c>
       <c r="H274" t="n">
-        <v>61.34</v>
+        <v>16.3</v>
       </c>
       <c r="I274" t="n">
         <v>103.07</v>
@@ -16904,6 +17725,9 @@
       <c r="R274" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S274" t="n">
+        <v>2.745103650799056</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -16932,7 +17756,7 @@
         <v>98.23999999999999</v>
       </c>
       <c r="H275" t="n">
-        <v>78.25999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="I275" t="n">
         <v>103.06</v>
@@ -16964,6 +17788,9 @@
       <c r="R275" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S275" t="n">
+        <v>3.361864320651791</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -16992,7 +17819,7 @@
         <v>95.90000000000001</v>
       </c>
       <c r="H276" t="n">
-        <v>83.30000000000001</v>
+        <v>28.5</v>
       </c>
       <c r="I276" t="n">
         <v>103.27</v>
@@ -17024,6 +17851,9 @@
       <c r="R276" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S276" t="n">
+        <v>4.322492371932404</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -17052,7 +17882,7 @@
         <v>91.22</v>
       </c>
       <c r="H277" t="n">
-        <v>79.52</v>
+        <v>26.4</v>
       </c>
       <c r="I277" t="n">
         <v>103.49</v>
@@ -17084,6 +17914,9 @@
       <c r="R277" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S277" t="n">
+        <v>4.563108601831591</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -17112,7 +17945,7 @@
         <v>94.09999999999999</v>
       </c>
       <c r="H278" t="n">
-        <v>71.78</v>
+        <v>22.1</v>
       </c>
       <c r="I278" t="n">
         <v>103.53</v>
@@ -17144,6 +17977,9 @@
       <c r="R278" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S278" t="n">
+        <v>3.158995526766216</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -17172,7 +18008,7 @@
         <v>97.16000000000001</v>
       </c>
       <c r="H279" t="n">
-        <v>71.24000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="I279" t="n">
         <v>103.4</v>
@@ -17204,6 +18040,9 @@
       <c r="R279" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S279" t="n">
+        <v>2.766144725092075</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -17232,7 +18071,7 @@
         <v>95.18000000000001</v>
       </c>
       <c r="H280" t="n">
-        <v>76.28</v>
+        <v>24.6</v>
       </c>
       <c r="I280" t="n">
         <v>103.22</v>
@@ -17264,6 +18103,9 @@
       <c r="R280" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S280" t="n">
+        <v>3.527795733542697</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -17292,7 +18134,7 @@
         <v>107.6</v>
       </c>
       <c r="H281" t="n">
-        <v>85.46000000000001</v>
+        <v>29.7</v>
       </c>
       <c r="I281" t="n">
         <v>103.31</v>
@@ -17324,6 +18166,9 @@
       <c r="R281" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S281" t="n">
+        <v>3.036969210131504</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -17352,7 +18197,7 @@
         <v>94.46000000000001</v>
       </c>
       <c r="H282" t="n">
-        <v>81.5</v>
+        <v>27.5</v>
       </c>
       <c r="I282" t="n">
         <v>103.44</v>
@@ -17384,6 +18229,9 @@
       <c r="R282" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S282" t="n">
+        <v>4.303707909343109</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -17412,7 +18260,7 @@
         <v>104.36</v>
       </c>
       <c r="H283" t="n">
-        <v>85.64</v>
+        <v>29.8</v>
       </c>
       <c r="I283" t="n">
         <v>103.28</v>
@@ -17444,6 +18292,9 @@
       <c r="R283" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S283" t="n">
+        <v>3.423846175608912</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -17472,7 +18323,7 @@
         <v>103.64</v>
       </c>
       <c r="H284" t="n">
-        <v>78.98</v>
+        <v>26.1</v>
       </c>
       <c r="I284" t="n">
         <v>102.86</v>
@@ -17504,6 +18355,9 @@
       <c r="R284" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S284" t="n">
+        <v>2.830227477163443</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -17532,7 +18386,7 @@
         <v>105.08</v>
       </c>
       <c r="H285" t="n">
-        <v>87.25999999999999</v>
+        <v>30.7</v>
       </c>
       <c r="I285" t="n">
         <v>102.52</v>
@@ -17564,6 +18418,9 @@
       <c r="R285" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S285" t="n">
+        <v>3.514474994204592</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -17592,7 +18449,7 @@
         <v>114.62</v>
       </c>
       <c r="H286" t="n">
-        <v>87.25999999999999</v>
+        <v>30.7</v>
       </c>
       <c r="I286" t="n">
         <v>102.09</v>
@@ -17624,6 +18481,9 @@
       <c r="R286" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S286" t="n">
+        <v>2.529632975861314</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -17652,7 +18512,7 @@
         <v>106.52</v>
       </c>
       <c r="H287" t="n">
-        <v>89.59999999999999</v>
+        <v>32</v>
       </c>
       <c r="I287" t="n">
         <v>102.84</v>
@@ -17684,6 +18544,9 @@
       <c r="R287" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S287" t="n">
+        <v>3.597189964152207</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -17712,7 +18575,7 @@
         <v>122.9</v>
       </c>
       <c r="H288" t="n">
-        <v>103.46</v>
+        <v>39.7</v>
       </c>
       <c r="I288" t="n">
         <v>101.76</v>
@@ -17744,6 +18607,9 @@
       <c r="R288" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S288" t="n">
+        <v>3.174789796221331</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -17772,7 +18638,7 @@
         <v>129.92</v>
       </c>
       <c r="H289" t="n">
-        <v>128.48</v>
+        <v>53.6</v>
       </c>
       <c r="I289" t="n">
         <v>101.03</v>
@@ -17804,6 +18670,9 @@
       <c r="R289" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S289" t="n">
+        <v>5.182529611278888</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -17832,7 +18701,7 @@
         <v>125.06</v>
       </c>
       <c r="H290" t="n">
-        <v>124.16</v>
+        <v>51.2</v>
       </c>
       <c r="I290" t="n">
         <v>101.28</v>
@@ -17864,6 +18733,9 @@
       <c r="R290" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S290" t="n">
+        <v>5.361749751920124</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -17892,7 +18764,7 @@
         <v>86</v>
       </c>
       <c r="H291" t="n">
-        <v>81.68000000000001</v>
+        <v>27.6</v>
       </c>
       <c r="I291" t="n">
         <v>102.86</v>
@@ -17924,6 +18796,9 @@
       <c r="R291" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S291" t="n">
+        <v>6.002710000540566</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -17952,7 +18827,7 @@
         <v>78.98</v>
       </c>
       <c r="H292" t="n">
-        <v>62.24</v>
+        <v>16.8</v>
       </c>
       <c r="I292" t="n">
         <v>103.29</v>
@@ -17984,6 +18859,9 @@
       <c r="R292" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S292" t="n">
+        <v>4.128732500381926</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -18012,7 +18890,7 @@
         <v>82.22</v>
       </c>
       <c r="H293" t="n">
-        <v>63.14</v>
+        <v>17.3</v>
       </c>
       <c r="I293" t="n">
         <v>103.26</v>
@@ -18044,6 +18922,9 @@
       <c r="R293" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S293" t="n">
+        <v>3.731989633863524</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -18072,7 +18953,7 @@
         <v>92.84</v>
       </c>
       <c r="H294" t="n">
-        <v>72.86</v>
+        <v>22.7</v>
       </c>
       <c r="I294" t="n">
         <v>103.07</v>
@@ -18104,6 +18985,9 @@
       <c r="R294" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S294" t="n">
+        <v>3.436701212144962</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -18132,7 +19016,7 @@
         <v>88.7</v>
       </c>
       <c r="H295" t="n">
-        <v>72.68000000000001</v>
+        <v>22.6</v>
       </c>
       <c r="I295" t="n">
         <v>102.94</v>
@@ -18164,6 +19048,9 @@
       <c r="R295" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S295" t="n">
+        <v>4.006281174164011</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -18192,7 +19079,7 @@
         <v>93.38</v>
       </c>
       <c r="H296" t="n">
-        <v>75.56</v>
+        <v>24.2</v>
       </c>
       <c r="I296" t="n">
         <v>103.03</v>
@@ -18224,6 +19111,9 @@
       <c r="R296" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S296" t="n">
+        <v>3.686116241308067</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -18252,7 +19142,7 @@
         <v>112.46</v>
       </c>
       <c r="H297" t="n">
-        <v>96.26000000000001</v>
+        <v>35.7</v>
       </c>
       <c r="I297" t="n">
         <v>102.26</v>
@@ -18284,6 +19174,9 @@
       <c r="R297" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S297" t="n">
+        <v>3.603804735848238</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -18312,7 +19205,7 @@
         <v>102.2</v>
       </c>
       <c r="H298" t="n">
-        <v>97.16000000000001</v>
+        <v>36.2</v>
       </c>
       <c r="I298" t="n">
         <v>102.42</v>
@@ -18344,6 +19237,9 @@
       <c r="R298" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S298" t="n">
+        <v>5.303042427214081</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -18372,7 +19268,7 @@
         <v>93.2</v>
       </c>
       <c r="H299" t="n">
-        <v>79.7</v>
+        <v>26.5</v>
       </c>
       <c r="I299" t="n">
         <v>103.32</v>
@@ -18404,6 +19300,9 @@
       <c r="R299" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S299" t="n">
+        <v>4.255943142751915</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -18432,7 +19331,7 @@
         <v>67.09999999999999</v>
       </c>
       <c r="H300" t="n">
-        <v>37.58</v>
+        <v>3.1</v>
       </c>
       <c r="I300" t="n">
         <v>103.86</v>
@@ -18464,6 +19363,9 @@
       <c r="R300" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S300" t="n">
+        <v>2.745566653754695</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -18492,7 +19394,7 @@
         <v>75.38</v>
       </c>
       <c r="H301" t="n">
-        <v>50.90000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I301" t="n">
         <v>102.85</v>
@@ -18524,6 +19426,9 @@
       <c r="R301" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S301" t="n">
+        <v>3.185515204897957</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -18552,7 +19457,7 @@
         <v>89.24000000000001</v>
       </c>
       <c r="H302" t="n">
-        <v>62.78</v>
+        <v>17.1</v>
       </c>
       <c r="I302" t="n">
         <v>102.97</v>
@@ -18584,6 +19489,9 @@
       <c r="R302" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S302" t="n">
+        <v>2.788737253921169</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -18612,7 +19520,7 @@
         <v>74.84</v>
       </c>
       <c r="H303" t="n">
-        <v>57.38</v>
+        <v>14.1</v>
       </c>
       <c r="I303" t="n">
         <v>103.3</v>
@@ -18644,6 +19552,9 @@
       <c r="R303" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S303" t="n">
+        <v>4.129824836469654</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -18672,7 +19583,7 @@
         <v>88.16</v>
       </c>
       <c r="H304" t="n">
-        <v>55.22</v>
+        <v>12.9</v>
       </c>
       <c r="I304" t="n">
         <v>102.81</v>
@@ -18704,6 +19615,9 @@
       <c r="R304" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S304" t="n">
+        <v>2.219414020947014</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -18732,7 +19646,7 @@
         <v>100.04</v>
       </c>
       <c r="H305" t="n">
-        <v>62.42</v>
+        <v>16.9</v>
       </c>
       <c r="I305" t="n">
         <v>102.48</v>
@@ -18764,6 +19678,9 @@
       <c r="R305" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S305" t="n">
+        <v>1.833804273589215</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -18792,7 +19709,7 @@
         <v>120.38</v>
       </c>
       <c r="H306" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I306" t="n">
         <v>101.83</v>
@@ -18824,6 +19741,9 @@
       <c r="R306" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S306" t="n">
+        <v>1.14067922142905</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -18852,7 +19772,7 @@
         <v>114.26</v>
       </c>
       <c r="H307" t="n">
-        <v>77.72</v>
+        <v>25.4</v>
       </c>
       <c r="I307" t="n">
         <v>101.6</v>
@@ -18884,6 +19804,9 @@
       <c r="R307" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S307" t="n">
+        <v>1.879269355014538</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -18912,7 +19835,7 @@
         <v>100.94</v>
       </c>
       <c r="H308" t="n">
-        <v>67.64</v>
+        <v>19.8</v>
       </c>
       <c r="I308" t="n">
         <v>102.95</v>
@@ -18944,6 +19867,9 @@
       <c r="R308" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S308" t="n">
+        <v>2.129004781494832</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -18972,7 +19898,7 @@
         <v>103.28</v>
       </c>
       <c r="H309" t="n">
-        <v>79.7</v>
+        <v>26.5</v>
       </c>
       <c r="I309" t="n">
         <v>102.5</v>
@@ -19004,6 +19930,9 @@
       <c r="R309" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S309" t="n">
+        <v>2.935470225258811</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -19032,7 +19961,7 @@
         <v>98.06</v>
       </c>
       <c r="H310" t="n">
-        <v>82.40000000000001</v>
+        <v>28</v>
       </c>
       <c r="I310" t="n">
         <v>102.47</v>
@@ -19064,6 +19993,9 @@
       <c r="R310" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S310" t="n">
+        <v>3.874941940147514</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -19092,7 +20024,7 @@
         <v>109.94</v>
       </c>
       <c r="H311" t="n">
-        <v>98.60000000000001</v>
+        <v>37</v>
       </c>
       <c r="I311" t="n">
         <v>102.03</v>
@@ -19124,6 +20056,9 @@
       <c r="R311" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S311" t="n">
+        <v>4.218984414882848</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -19152,7 +20087,7 @@
         <v>114.62</v>
       </c>
       <c r="H312" t="n">
-        <v>111.38</v>
+        <v>44.1</v>
       </c>
       <c r="I312" t="n">
         <v>101.97</v>
@@ -19184,6 +20119,9 @@
       <c r="R312" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S312" t="n">
+        <v>5.255033292245913</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -19212,7 +20150,7 @@
         <v>111.74</v>
       </c>
       <c r="H313" t="n">
-        <v>107.6</v>
+        <v>42</v>
       </c>
       <c r="I313" t="n">
         <v>102.43</v>
@@ -19244,6 +20182,9 @@
       <c r="R313" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S313" t="n">
+        <v>5.189037221475011</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -19272,7 +20213,7 @@
         <v>109.58</v>
       </c>
       <c r="H314" t="n">
-        <v>102.02</v>
+        <v>38.9</v>
       </c>
       <c r="I314" t="n">
         <v>102.63</v>
@@ -19304,6 +20245,9 @@
       <c r="R314" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S314" t="n">
+        <v>4.736078487592236</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -19332,7 +20276,7 @@
         <v>105.98</v>
       </c>
       <c r="H315" t="n">
-        <v>104.36</v>
+        <v>40.2</v>
       </c>
       <c r="I315" t="n">
         <v>102.24</v>
@@ -19364,6 +20308,9 @@
       <c r="R315" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S315" t="n">
+        <v>5.757791707253511</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -19392,7 +20339,7 @@
         <v>108.14</v>
       </c>
       <c r="H316" t="n">
-        <v>103.1</v>
+        <v>39.5</v>
       </c>
       <c r="I316" t="n">
         <v>102.12</v>
@@ -19424,6 +20371,9 @@
       <c r="R316" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S316" t="n">
+        <v>5.141860241827684</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -19452,7 +20402,7 @@
         <v>101.66</v>
       </c>
       <c r="H317" t="n">
-        <v>79.7</v>
+        <v>26.5</v>
       </c>
       <c r="I317" t="n">
         <v>102.97</v>
@@ -19484,6 +20434,9 @@
       <c r="R317" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S317" t="n">
+        <v>3.111489572319239</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -19512,7 +20465,7 @@
         <v>95.53999999999999</v>
       </c>
       <c r="H318" t="n">
-        <v>72.31999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="I318" t="n">
         <v>103.14</v>
@@ -19544,6 +20497,9 @@
       <c r="R318" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S318" t="n">
+        <v>3.047740548088476</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -19572,7 +20528,7 @@
         <v>100.22</v>
       </c>
       <c r="H319" t="n">
-        <v>78.80000000000001</v>
+        <v>26</v>
       </c>
       <c r="I319" t="n">
         <v>103.29</v>
@@ -19604,6 +20560,9 @@
       <c r="R319" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S319" t="n">
+        <v>3.18279754219538</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -19632,7 +20591,7 @@
         <v>118.76</v>
       </c>
       <c r="H320" t="n">
-        <v>104.18</v>
+        <v>40.1</v>
       </c>
       <c r="I320" t="n">
         <v>102.12</v>
@@ -19664,6 +20623,9 @@
       <c r="R320" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S320" t="n">
+        <v>3.709408573202023</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -19692,7 +20654,7 @@
         <v>118.58</v>
       </c>
       <c r="H321" t="n">
-        <v>111.56</v>
+        <v>44.2</v>
       </c>
       <c r="I321" t="n">
         <v>102.21</v>
@@ -19724,6 +20686,9 @@
       <c r="R321" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S321" t="n">
+        <v>4.631985954577336</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -19752,7 +20717,7 @@
         <v>112.28</v>
       </c>
       <c r="H322" t="n">
-        <v>86.18000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="I322" t="n">
         <v>102.83</v>
@@ -19784,6 +20749,9 @@
       <c r="R322" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S322" t="n">
+        <v>2.645032956677016</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -19812,7 +20780,7 @@
         <v>105.98</v>
       </c>
       <c r="H323" t="n">
-        <v>86.36</v>
+        <v>30.2</v>
       </c>
       <c r="I323" t="n">
         <v>103.33</v>
@@ -19844,6 +20812,9 @@
       <c r="R323" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S323" t="n">
+        <v>3.308308842030453</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -19872,7 +20843,7 @@
         <v>93.92</v>
       </c>
       <c r="H324" t="n">
-        <v>89.06</v>
+        <v>31.7</v>
       </c>
       <c r="I324" t="n">
         <v>102.82</v>
@@ -19904,6 +20875,9 @@
       <c r="R324" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S324" t="n">
+        <v>5.59660057633065</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -19932,7 +20906,7 @@
         <v>98.42</v>
       </c>
       <c r="H325" t="n">
-        <v>93.56</v>
+        <v>34.2</v>
       </c>
       <c r="I325" t="n">
         <v>102.6</v>
@@ -19964,6 +20938,9 @@
       <c r="R325" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S325" t="n">
+        <v>5.447118819902751</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -19992,7 +20969,7 @@
         <v>107.42</v>
       </c>
       <c r="H326" t="n">
-        <v>100.22</v>
+        <v>37.9</v>
       </c>
       <c r="I326" t="n">
         <v>103.25</v>
@@ -20024,6 +21001,9 @@
       <c r="R326" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S326" t="n">
+        <v>4.835932602645835</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -20052,7 +21032,7 @@
         <v>105.08</v>
       </c>
       <c r="H327" t="n">
-        <v>83.84</v>
+        <v>28.8</v>
       </c>
       <c r="I327" t="n">
         <v>102.81</v>
@@ -20084,6 +21064,9 @@
       <c r="R327" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S327" t="n">
+        <v>3.149993096886624</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -20112,7 +21095,7 @@
         <v>116.78</v>
       </c>
       <c r="H328" t="n">
-        <v>96.98</v>
+        <v>36.1</v>
       </c>
       <c r="I328" t="n">
         <v>102.43</v>
@@ -20144,6 +21127,9 @@
       <c r="R328" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S328" t="n">
+        <v>3.187064513055413</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -20172,7 +21158,7 @@
         <v>118.22</v>
       </c>
       <c r="H329" t="n">
-        <v>90.31999999999999</v>
+        <v>32.4</v>
       </c>
       <c r="I329" t="n">
         <v>102.89</v>
@@ -20204,6 +21190,9 @@
       <c r="R329" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S329" t="n">
+        <v>2.472393119722778</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -20232,7 +21221,7 @@
         <v>122.72</v>
       </c>
       <c r="H330" t="n">
-        <v>85.81999999999999</v>
+        <v>29.9</v>
       </c>
       <c r="I330" t="n">
         <v>102.46</v>
@@ -20264,6 +21253,9 @@
       <c r="R330" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S330" t="n">
+        <v>1.852290537891319</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -20292,7 +21284,7 @@
         <v>136.94</v>
       </c>
       <c r="H331" t="n">
-        <v>99.86000000000001</v>
+        <v>37.7</v>
       </c>
       <c r="I331" t="n">
         <v>102.47</v>
@@ -20324,6 +21316,9 @@
       <c r="R331" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S331" t="n">
+        <v>1.847459187486098</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -20352,7 +21347,7 @@
         <v>133.7</v>
       </c>
       <c r="H332" t="n">
-        <v>99.31999999999999</v>
+        <v>37.4</v>
       </c>
       <c r="I332" t="n">
         <v>102.05</v>
@@ -20384,6 +21379,9 @@
       <c r="R332" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S332" t="n">
+        <v>2.002938518395251</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -20412,7 +21410,7 @@
         <v>151.7</v>
       </c>
       <c r="H333" t="n">
-        <v>96.62</v>
+        <v>35.9</v>
       </c>
       <c r="I333" t="n">
         <v>101.77</v>
@@ -20444,6 +21442,9 @@
       <c r="R333" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S333" t="n">
+        <v>1.097287689060755</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -20472,7 +21473,7 @@
         <v>152.24</v>
       </c>
       <c r="H334" t="n">
-        <v>100.94</v>
+        <v>38.3</v>
       </c>
       <c r="I334" t="n">
         <v>101.7</v>
@@ -20504,6 +21505,9 @@
       <c r="R334" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S334" t="n">
+        <v>1.232615980069547</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -20532,7 +21536,7 @@
         <v>150.08</v>
       </c>
       <c r="H335" t="n">
-        <v>125.24</v>
+        <v>51.8</v>
       </c>
       <c r="I335" t="n">
         <v>101.68</v>
@@ -20564,6 +21568,9 @@
       <c r="R335" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S335" t="n">
+        <v>2.629575782640894</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -20592,7 +21599,7 @@
         <v>144.5</v>
       </c>
       <c r="H336" t="n">
-        <v>126.68</v>
+        <v>52.6</v>
       </c>
       <c r="I336" t="n">
         <v>101.66</v>
@@ -20624,6 +21631,9 @@
       <c r="R336" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S336" t="n">
+        <v>3.200822234324416</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -20652,7 +21662,7 @@
         <v>156.02</v>
       </c>
       <c r="H337" t="n">
-        <v>112.64</v>
+        <v>44.8</v>
       </c>
       <c r="I337" t="n">
         <v>101.51</v>
@@ -20684,6 +21694,9 @@
       <c r="R337" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S337" t="n">
+        <v>1.56911627816299</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -20712,7 +21725,7 @@
         <v>150.08</v>
       </c>
       <c r="H338" t="n">
-        <v>109.58</v>
+        <v>43.1</v>
       </c>
       <c r="I338" t="n">
         <v>102</v>
@@ -20744,6 +21757,9 @@
       <c r="R338" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S338" t="n">
+        <v>1.689655009636723</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -20772,7 +21788,7 @@
         <v>104.9</v>
       </c>
       <c r="H339" t="n">
-        <v>74.66</v>
+        <v>23.7</v>
       </c>
       <c r="I339" t="n">
         <v>103.06</v>
@@ -20804,6 +21820,9 @@
       <c r="R339" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S339" t="n">
+        <v>2.344762664361386</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -20832,7 +21851,7 @@
         <v>124.34</v>
       </c>
       <c r="H340" t="n">
-        <v>76.81999999999999</v>
+        <v>24.9</v>
       </c>
       <c r="I340" t="n">
         <v>101.75</v>
@@ -20864,6 +21883,9 @@
       <c r="R340" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S340" t="n">
+        <v>1.311939917790225</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -20892,7 +21914,7 @@
         <v>138.02</v>
       </c>
       <c r="H341" t="n">
-        <v>101.12</v>
+        <v>38.4</v>
       </c>
       <c r="I341" t="n">
         <v>101.12</v>
@@ -20924,6 +21946,9 @@
       <c r="R341" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S341" t="n">
+        <v>1.858539245375226</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -20952,7 +21977,7 @@
         <v>103.64</v>
       </c>
       <c r="H342" t="n">
-        <v>96.98</v>
+        <v>36.1</v>
       </c>
       <c r="I342" t="n">
         <v>102.56</v>
@@ -20984,6 +22009,9 @@
       <c r="R342" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S342" t="n">
+        <v>5.008567042265448</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -21012,7 +22040,7 @@
         <v>121.1</v>
       </c>
       <c r="H343" t="n">
-        <v>96.26000000000001</v>
+        <v>35.7</v>
       </c>
       <c r="I343" t="n">
         <v>102.29</v>
@@ -21044,6 +22072,9 @@
       <c r="R343" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S343" t="n">
+        <v>2.706216829169237</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -21072,7 +22103,7 @@
         <v>123.8</v>
       </c>
       <c r="H344" t="n">
-        <v>100.22</v>
+        <v>37.9</v>
       </c>
       <c r="I344" t="n">
         <v>101.71</v>
@@ -21104,6 +22135,9 @@
       <c r="R344" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S344" t="n">
+        <v>2.799061682830712</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -21132,7 +22166,7 @@
         <v>128.48</v>
       </c>
       <c r="H345" t="n">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="I345" t="n">
         <v>101.12</v>
@@ -21164,6 +22198,9 @@
       <c r="R345" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S345" t="n">
+        <v>3.519062341322411</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -21192,7 +22229,7 @@
         <v>128.66</v>
       </c>
       <c r="H346" t="n">
-        <v>99.86000000000001</v>
+        <v>37.7</v>
       </c>
       <c r="I346" t="n">
         <v>101.84</v>
@@ -21224,6 +22261,9 @@
       <c r="R346" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S346" t="n">
+        <v>2.37603725250501</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -21252,7 +22292,7 @@
         <v>118.22</v>
       </c>
       <c r="H347" t="n">
-        <v>101.12</v>
+        <v>38.4</v>
       </c>
       <c r="I347" t="n">
         <v>102.23</v>
@@ -21284,6 +22324,9 @@
       <c r="R347" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S347" t="n">
+        <v>3.44564658634105</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -21312,7 +22355,7 @@
         <v>124.16</v>
       </c>
       <c r="H348" t="n">
-        <v>101.84</v>
+        <v>38.8</v>
       </c>
       <c r="I348" t="n">
         <v>102.17</v>
@@ -21344,6 +22387,9 @@
       <c r="R348" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S348" t="n">
+        <v>2.905369312058409</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -21372,7 +22418,7 @@
         <v>133.34</v>
       </c>
       <c r="H349" t="n">
-        <v>93.02</v>
+        <v>33.9</v>
       </c>
       <c r="I349" t="n">
         <v>102.11</v>
@@ -21404,6 +22450,9 @@
       <c r="R349" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S349" t="n">
+        <v>1.669043843300163</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -21432,7 +22481,7 @@
         <v>128.84</v>
       </c>
       <c r="H350" t="n">
-        <v>111.92</v>
+        <v>44.4</v>
       </c>
       <c r="I350" t="n">
         <v>101.71</v>
@@ -21464,6 +22513,9 @@
       <c r="R350" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S350" t="n">
+        <v>3.373429020756509</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -21492,7 +22544,7 @@
         <v>125.96</v>
       </c>
       <c r="H351" t="n">
-        <v>115.52</v>
+        <v>46.4</v>
       </c>
       <c r="I351" t="n">
         <v>101.68</v>
@@ -21524,6 +22576,9 @@
       <c r="R351" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S351" t="n">
+        <v>4.092320684269675</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -21552,7 +22607,7 @@
         <v>154.94</v>
       </c>
       <c r="H352" t="n">
-        <v>128.12</v>
+        <v>53.4</v>
       </c>
       <c r="I352" t="n">
         <v>100.72</v>
@@ -21584,6 +22639,9 @@
       <c r="R352" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S352" t="n">
+        <v>2.489291405515724</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -21612,7 +22670,7 @@
         <v>145.58</v>
       </c>
       <c r="H353" t="n">
-        <v>101.84</v>
+        <v>38.8</v>
       </c>
       <c r="I353" t="n">
         <v>101.42</v>
@@ -21644,6 +22702,9 @@
       <c r="R353" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S353" t="n">
+        <v>1.525447589022689</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -21672,7 +22733,7 @@
         <v>150.98</v>
       </c>
       <c r="H354" t="n">
-        <v>120.56</v>
+        <v>49.2</v>
       </c>
       <c r="I354" t="n">
         <v>100.73</v>
@@ -21704,6 +22765,9 @@
       <c r="R354" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S354" t="n">
+        <v>2.253433005299755</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -21732,7 +22796,7 @@
         <v>171.32</v>
       </c>
       <c r="H355" t="n">
-        <v>149.18</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="I355" t="n">
         <v>100.75</v>
@@ -21764,6 +22828,9 @@
       <c r="R355" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S355" t="n">
+        <v>2.815169082153916</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -21792,7 +22859,7 @@
         <v>150.8</v>
       </c>
       <c r="H356" t="n">
-        <v>137.12</v>
+        <v>58.4</v>
       </c>
       <c r="I356" t="n">
         <v>100.72</v>
@@ -21824,6 +22891,9 @@
       <c r="R356" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S356" t="n">
+        <v>3.54448265238322</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -21852,7 +22922,7 @@
         <v>126.32</v>
       </c>
       <c r="H357" t="n">
-        <v>115.7</v>
+        <v>46.5</v>
       </c>
       <c r="I357" t="n">
         <v>102.24</v>
@@ -21884,6 +22954,9 @@
       <c r="R357" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S357" t="n">
+        <v>4.06695089486119</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -21912,7 +22985,7 @@
         <v>131</v>
       </c>
       <c r="H358" t="n">
-        <v>113.54</v>
+        <v>45.3</v>
       </c>
       <c r="I358" t="n">
         <v>102.3</v>
@@ -21944,6 +23017,9 @@
       <c r="R358" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S358" t="n">
+        <v>3.306379027260066</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -21972,7 +23048,7 @@
         <v>124.7</v>
       </c>
       <c r="H359" t="n">
-        <v>115.7</v>
+        <v>46.5</v>
       </c>
       <c r="I359" t="n">
         <v>101.73</v>
@@ -22004,6 +23080,9 @@
       <c r="R359" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S359" t="n">
+        <v>4.280554332371881</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -22032,7 +23111,7 @@
         <v>141.44</v>
       </c>
       <c r="H360" t="n">
-        <v>119.66</v>
+        <v>48.7</v>
       </c>
       <c r="I360" t="n">
         <v>101.67</v>
@@ -22064,6 +23143,9 @@
       <c r="R360" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S360" t="n">
+        <v>2.879490658717622</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -22092,7 +23174,7 @@
         <v>159.44</v>
       </c>
       <c r="H361" t="n">
-        <v>104.18</v>
+        <v>40.1</v>
       </c>
       <c r="I361" t="n">
         <v>101.36</v>
@@ -22124,6 +23206,9 @@
       <c r="R361" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S361" t="n">
+        <v>1.118257471789664</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -22152,7 +23237,7 @@
         <v>168.26</v>
       </c>
       <c r="H362" t="n">
-        <v>130.28</v>
+        <v>54.6</v>
       </c>
       <c r="I362" t="n">
         <v>101.11</v>
@@ -22184,6 +23269,9 @@
       <c r="R362" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S362" t="n">
+        <v>1.860802337741302</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -22212,7 +23300,7 @@
         <v>154.58</v>
       </c>
       <c r="H363" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I363" t="n">
         <v>100.8</v>
@@ -22244,6 +23332,9 @@
       <c r="R363" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S363" t="n">
+        <v>4.473865125331419</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -22272,7 +23363,7 @@
         <v>159.08</v>
       </c>
       <c r="H364" t="n">
-        <v>155.66</v>
+        <v>68.7</v>
       </c>
       <c r="I364" t="n">
         <v>100.11</v>
@@ -22304,6 +23395,9 @@
       <c r="R364" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S364" t="n">
+        <v>4.5319519593753</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -22332,7 +23426,7 @@
         <v>148.28</v>
       </c>
       <c r="H365" t="n">
-        <v>118.4</v>
+        <v>48</v>
       </c>
       <c r="I365" t="n">
         <v>101.94</v>
@@ -22364,6 +23458,9 @@
       <c r="R365" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S365" t="n">
+        <v>2.286697688196723</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -22392,7 +23489,7 @@
         <v>154.4</v>
       </c>
       <c r="H366" t="n">
-        <v>122.36</v>
+        <v>50.2</v>
       </c>
       <c r="I366" t="n">
         <v>101.66</v>
@@ -22424,6 +23521,9 @@
       <c r="R366" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S366" t="n">
+        <v>2.157083840251135</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -22452,7 +23552,7 @@
         <v>152.78</v>
       </c>
       <c r="H367" t="n">
-        <v>129.38</v>
+        <v>54.1</v>
       </c>
       <c r="I367" t="n">
         <v>101.37</v>
@@ -22484,6 +23584,9 @@
       <c r="R367" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S367" t="n">
+        <v>2.73175908461764</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -22512,7 +23615,7 @@
         <v>148.46</v>
       </c>
       <c r="H368" t="n">
-        <v>140.36</v>
+        <v>60.2</v>
       </c>
       <c r="I368" t="n">
         <v>101.08</v>
@@ -22544,6 +23647,9 @@
       <c r="R368" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S368" t="n">
+        <v>4.11651533524569</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -22572,7 +23678,7 @@
         <v>167</v>
       </c>
       <c r="H369" t="n">
-        <v>139.82</v>
+        <v>59.9</v>
       </c>
       <c r="I369" t="n">
         <v>100.76</v>
@@ -22604,6 +23710,9 @@
       <c r="R369" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S369" t="n">
+        <v>2.472467993771433</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -22632,7 +23741,7 @@
         <v>160.16</v>
       </c>
       <c r="H370" t="n">
-        <v>132.62</v>
+        <v>55.9</v>
       </c>
       <c r="I370" t="n">
         <v>100.97</v>
@@ -22664,6 +23773,9 @@
       <c r="R370" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S370" t="n">
+        <v>2.443326188548276</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -22692,7 +23804,7 @@
         <v>177.8</v>
       </c>
       <c r="H371" t="n">
-        <v>161.96</v>
+        <v>72.2</v>
       </c>
       <c r="I371" t="n">
         <v>100.75</v>
@@ -22724,6 +23836,9 @@
       <c r="R371" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S371" t="n">
+        <v>3.283953489843169</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -22752,7 +23867,7 @@
         <v>180.5</v>
       </c>
       <c r="H372" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I372" t="n">
         <v>100.8</v>
@@ -22784,6 +23899,9 @@
       <c r="R372" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S372" t="n">
+        <v>3.633963624530255</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -22812,7 +23930,7 @@
         <v>159.26</v>
       </c>
       <c r="H373" t="n">
-        <v>150.62</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I373" t="n">
         <v>100.98</v>
@@ -22844,6 +23962,9 @@
       <c r="R373" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S373" t="n">
+        <v>3.981485653624454</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -22872,7 +23993,7 @@
         <v>174.38</v>
       </c>
       <c r="H374" t="n">
-        <v>141.44</v>
+        <v>60.8</v>
       </c>
       <c r="I374" t="n">
         <v>100.7</v>
@@ -22904,6 +24025,9 @@
       <c r="R374" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S374" t="n">
+        <v>2.142666559882595</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -22932,7 +24056,7 @@
         <v>171.14</v>
       </c>
       <c r="H375" t="n">
-        <v>148.82</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I375" t="n">
         <v>100.44</v>
@@ -22964,6 +24088,9 @@
       <c r="R375" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S375" t="n">
+        <v>2.802419806403352</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -22992,7 +24119,7 @@
         <v>176.18</v>
       </c>
       <c r="H376" t="n">
-        <v>137.84</v>
+        <v>58.8</v>
       </c>
       <c r="I376" t="n">
         <v>101.16</v>
@@ -23024,6 +24151,9 @@
       <c r="R376" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S376" t="n">
+        <v>1.867021058231575</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -23052,7 +24182,7 @@
         <v>146.3</v>
       </c>
       <c r="H377" t="n">
-        <v>141.44</v>
+        <v>60.8</v>
       </c>
       <c r="I377" t="n">
         <v>101.08</v>
@@ -23084,6 +24214,9 @@
       <c r="R377" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S377" t="n">
+        <v>4.498615833206</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -23112,7 +24245,7 @@
         <v>186.8</v>
       </c>
       <c r="H378" t="n">
-        <v>149.36</v>
+        <v>65.2</v>
       </c>
       <c r="I378" t="n">
         <v>99.92999999999999</v>
@@ -23144,6 +24277,9 @@
       <c r="R378" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S378" t="n">
+        <v>1.947206370132255</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -23172,7 +24308,7 @@
         <v>181.4</v>
       </c>
       <c r="H379" t="n">
-        <v>141.26</v>
+        <v>60.7</v>
       </c>
       <c r="I379" t="n">
         <v>100.42</v>
@@ -23204,6 +24340,9 @@
       <c r="R379" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S379" t="n">
+        <v>1.799108513868361</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -23232,7 +24371,7 @@
         <v>174.38</v>
       </c>
       <c r="H380" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I380" t="n">
         <v>100.41</v>
@@ -23264,6 +24403,9 @@
       <c r="R380" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S380" t="n">
+        <v>2.064278231615333</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -23292,7 +24434,7 @@
         <v>181.22</v>
       </c>
       <c r="H381" t="n">
-        <v>141.26</v>
+        <v>60.7</v>
       </c>
       <c r="I381" t="n">
         <v>100.42</v>
@@ -23324,6 +24466,9 @@
       <c r="R381" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S381" t="n">
+        <v>1.806846147748591</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -23352,7 +24497,7 @@
         <v>180.86</v>
       </c>
       <c r="H382" t="n">
-        <v>149.72</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I382" t="n">
         <v>100.72</v>
@@ -23384,6 +24529,9 @@
       <c r="R382" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S382" t="n">
+        <v>2.260043150193226</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -23412,7 +24560,7 @@
         <v>170.6</v>
       </c>
       <c r="H383" t="n">
-        <v>154.76</v>
+        <v>68.2</v>
       </c>
       <c r="I383" t="n">
         <v>100.67</v>
@@ -23444,6 +24592,9 @@
       <c r="R383" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S383" t="n">
+        <v>3.292743228461942</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -23472,7 +24623,7 @@
         <v>166.64</v>
       </c>
       <c r="H384" t="n">
-        <v>161.96</v>
+        <v>72.2</v>
       </c>
       <c r="I384" t="n">
         <v>100.49</v>
@@ -23504,6 +24655,9 @@
       <c r="R384" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S384" t="n">
+        <v>4.335947167323983</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -23532,7 +24686,7 @@
         <v>172.4</v>
       </c>
       <c r="H385" t="n">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="I385" t="n">
         <v>100.55</v>
@@ -23564,6 +24718,9 @@
       <c r="R385" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S385" t="n">
+        <v>3.407600020126935</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -23592,7 +24749,7 @@
         <v>200.12</v>
       </c>
       <c r="H386" t="n">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="I386" t="n">
         <v>100.28</v>
@@ -23624,6 +24781,9 @@
       <c r="R386" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S386" t="n">
+        <v>2.214493021088898</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -23652,7 +24812,7 @@
         <v>167.72</v>
       </c>
       <c r="H387" t="n">
-        <v>161.96</v>
+        <v>72.2</v>
       </c>
       <c r="I387" t="n">
         <v>100.09</v>
@@ -23684,6 +24844,9 @@
       <c r="R387" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S387" t="n">
+        <v>4.218113933904122</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -23712,7 +24875,7 @@
         <v>182.66</v>
       </c>
       <c r="H388" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I388" t="n">
         <v>100.42</v>
@@ -23744,6 +24907,9 @@
       <c r="R388" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S388" t="n">
+        <v>3.198361321062233</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -23772,7 +24938,7 @@
         <v>179.42</v>
       </c>
       <c r="H389" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I389" t="n">
         <v>100.38</v>
@@ -23804,6 +24970,9 @@
       <c r="R389" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S389" t="n">
+        <v>4.088898528288019</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -23832,7 +25001,7 @@
         <v>179.42</v>
       </c>
       <c r="H390" t="n">
-        <v>158.36</v>
+        <v>70.2</v>
       </c>
       <c r="I390" t="n">
         <v>99.96000000000001</v>
@@ -23864,6 +25033,9 @@
       <c r="R390" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S390" t="n">
+        <v>2.895148848851501</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -23892,7 +25064,7 @@
         <v>184.46</v>
       </c>
       <c r="H391" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I391" t="n">
         <v>99.81</v>
@@ -23924,6 +25096,9 @@
       <c r="R391" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S391" t="n">
+        <v>3.266685812807042</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -23952,7 +25127,7 @@
         <v>195.98</v>
       </c>
       <c r="H392" t="n">
-        <v>174.92</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I392" t="n">
         <v>100.04</v>
@@ -23984,6 +25159,9 @@
       <c r="R392" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S392" t="n">
+        <v>2.916754265687161</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -24012,7 +25190,7 @@
         <v>189.68</v>
       </c>
       <c r="H393" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I393" t="n">
         <v>100.18</v>
@@ -24044,6 +25222,9 @@
       <c r="R393" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S393" t="n">
+        <v>3.294296119567824</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -24072,7 +25253,7 @@
         <v>195.8</v>
       </c>
       <c r="H394" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I394" t="n">
         <v>100.06</v>
@@ -24104,6 +25285,9 @@
       <c r="R394" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S394" t="n">
+        <v>2.821416723720068</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -24132,7 +25316,7 @@
         <v>192.38</v>
       </c>
       <c r="H395" t="n">
-        <v>175.46</v>
+        <v>79.7</v>
       </c>
       <c r="I395" t="n">
         <v>100.1</v>
@@ -24164,6 +25348,9 @@
       <c r="R395" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S395" t="n">
+        <v>3.201756686115858</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -24192,7 +25379,7 @@
         <v>189.32</v>
       </c>
       <c r="H396" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I396" t="n">
         <v>100.01</v>
@@ -24224,6 +25411,9 @@
       <c r="R396" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S396" t="n">
+        <v>3.239992191204737</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -24252,7 +25442,7 @@
         <v>180.14</v>
       </c>
       <c r="H397" t="n">
-        <v>164.48</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I397" t="n">
         <v>100.22</v>
@@ -24284,6 +25474,9 @@
       <c r="R397" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S397" t="n">
+        <v>3.296327270091111</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -24312,7 +25505,7 @@
         <v>175.64</v>
       </c>
       <c r="H398" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I398" t="n">
         <v>100.64</v>
@@ -24344,6 +25537,9 @@
       <c r="R398" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S398" t="n">
+        <v>3.723541847726371</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -24372,7 +25568,7 @@
         <v>172.22</v>
       </c>
       <c r="H399" t="n">
-        <v>165.2</v>
+        <v>74</v>
       </c>
       <c r="I399" t="n">
         <v>100.82</v>
@@ -24404,6 +25600,9 @@
       <c r="R399" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S399" t="n">
+        <v>4.068991903412491</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -24432,7 +25631,7 @@
         <v>179.06</v>
       </c>
       <c r="H400" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I400" t="n">
         <v>100.92</v>
@@ -24464,6 +25663,9 @@
       <c r="R400" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S400" t="n">
+        <v>3.874153922766819</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -24492,7 +25694,7 @@
         <v>171.68</v>
       </c>
       <c r="H401" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I401" t="n">
         <v>100.75</v>
@@ -24524,6 +25726,9 @@
       <c r="R401" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S401" t="n">
+        <v>4.508212168269356</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -24552,7 +25757,7 @@
         <v>181.22</v>
       </c>
       <c r="H402" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I402" t="n">
         <v>100.64</v>
@@ -24584,6 +25789,9 @@
       <c r="R402" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S402" t="n">
+        <v>3.740793681342404</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -24612,7 +25820,7 @@
         <v>177.08</v>
       </c>
       <c r="H403" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I403" t="n">
         <v>100.57</v>
@@ -24644,6 +25852,9 @@
       <c r="R403" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S403" t="n">
+        <v>4.255613326345776</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -24672,7 +25883,7 @@
         <v>184.28</v>
       </c>
       <c r="H404" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I404" t="n">
         <v>100.53</v>
@@ -24704,6 +25915,9 @@
       <c r="R404" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S404" t="n">
+        <v>3.582469852089427</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -24732,7 +25946,7 @@
         <v>191.66</v>
       </c>
       <c r="H405" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I405" t="n">
         <v>100.59</v>
@@ -24764,6 +25978,9 @@
       <c r="R405" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S405" t="n">
+        <v>3.008098414200657</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -24792,7 +26009,7 @@
         <v>185</v>
       </c>
       <c r="H406" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I406" t="n">
         <v>100.73</v>
@@ -24824,6 +26041,9 @@
       <c r="R406" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S406" t="n">
+        <v>3.294235858629745</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -24852,7 +26072,7 @@
         <v>179.24</v>
       </c>
       <c r="H407" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I407" t="n">
         <v>100.81</v>
@@ -24884,6 +26104,9 @@
       <c r="R407" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S407" t="n">
+        <v>3.857393612745831</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -24912,7 +26135,7 @@
         <v>180.32</v>
       </c>
       <c r="H408" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I408" t="n">
         <v>100.57</v>
@@ -24944,6 +26167,9 @@
       <c r="R408" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S408" t="n">
+        <v>3.603785946871676</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -24972,7 +26198,7 @@
         <v>178.34</v>
       </c>
       <c r="H409" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I409" t="n">
         <v>100.39</v>
@@ -25004,6 +26230,9 @@
       <c r="R409" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S409" t="n">
+        <v>3.975256262837128</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -25032,7 +26261,7 @@
         <v>176.54</v>
       </c>
       <c r="H410" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I410" t="n">
         <v>100.36</v>
@@ -25064,6 +26293,9 @@
       <c r="R410" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S410" t="n">
+        <v>4.240617837018716</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -25092,7 +26324,7 @@
         <v>178.16</v>
       </c>
       <c r="H411" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I411" t="n">
         <v>100.67</v>
@@ -25124,6 +26356,9 @@
       <c r="R411" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S411" t="n">
+        <v>3.959273997860404</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -25152,7 +26387,7 @@
         <v>185.36</v>
       </c>
       <c r="H412" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I412" t="n">
         <v>100.49</v>
@@ -25184,6 +26419,9 @@
       <c r="R412" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S412" t="n">
+        <v>3.551476935482577</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -25212,7 +26450,7 @@
         <v>192.2</v>
       </c>
       <c r="H413" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I413" t="n">
         <v>100.24</v>
@@ -25244,6 +26482,9 @@
       <c r="R413" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S413" t="n">
+        <v>2.959098132100149</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -25272,7 +26513,7 @@
         <v>189.14</v>
       </c>
       <c r="H414" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I414" t="n">
         <v>100.13</v>
@@ -25304,6 +26545,9 @@
       <c r="R414" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S414" t="n">
+        <v>3.280551508485147</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -25332,7 +26576,7 @@
         <v>177.44</v>
       </c>
       <c r="H415" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I415" t="n">
         <v>100.06</v>
@@ -25364,6 +26608,9 @@
       <c r="R415" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S415" t="n">
+        <v>4.201002152653131</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -25392,7 +26639,7 @@
         <v>175.1</v>
       </c>
       <c r="H416" t="n">
-        <v>163.76</v>
+        <v>73.2</v>
       </c>
       <c r="I416" t="n">
         <v>100.2</v>
@@ -25424,6 +26671,9 @@
       <c r="R416" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S416" t="n">
+        <v>3.661801788323207</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -25452,7 +26702,7 @@
         <v>185</v>
       </c>
       <c r="H417" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I417" t="n">
         <v>100.53</v>
@@ -25484,6 +26734,9 @@
       <c r="R417" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S417" t="n">
+        <v>2.838562649426664</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -25512,7 +26765,7 @@
         <v>187.16</v>
       </c>
       <c r="H418" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I418" t="n">
         <v>100.02</v>
@@ -25544,6 +26797,9 @@
       <c r="R418" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S418" t="n">
+        <v>3.119284811197931</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -25572,7 +26828,7 @@
         <v>181.58</v>
       </c>
       <c r="H419" t="n">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="I419" t="n">
         <v>100.27</v>
@@ -25604,6 +26860,9 @@
       <c r="R419" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S419" t="n">
+        <v>3.380575567247467</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -25632,7 +26891,7 @@
         <v>179.78</v>
       </c>
       <c r="H420" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I420" t="n">
         <v>100.51</v>
@@ -25664,6 +26923,9 @@
       <c r="R420" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S420" t="n">
+        <v>3.425796426083862</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -25692,7 +26954,7 @@
         <v>180.32</v>
       </c>
       <c r="H421" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I421" t="n">
         <v>100.52</v>
@@ -25724,6 +26986,9 @@
       <c r="R421" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S421" t="n">
+        <v>3.513510930110912</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -25752,7 +27017,7 @@
         <v>188.96</v>
       </c>
       <c r="H422" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I422" t="n">
         <v>100.43</v>
@@ -25784,6 +27049,9 @@
       <c r="R422" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S422" t="n">
+        <v>3.030224956785837</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -25812,7 +27080,7 @@
         <v>182.66</v>
       </c>
       <c r="H423" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I423" t="n">
         <v>100.39</v>
@@ -25844,6 +27112,9 @@
       <c r="R423" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S423" t="n">
+        <v>3.323013049682833</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -25872,7 +27143,7 @@
         <v>180.32</v>
       </c>
       <c r="H424" t="n">
-        <v>162.86</v>
+        <v>72.7</v>
       </c>
       <c r="I424" t="n">
         <v>100.61</v>
@@ -25904,6 +27175,9 @@
       <c r="R424" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S424" t="n">
+        <v>3.157797282514916</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -25932,7 +27206,7 @@
         <v>180.32</v>
       </c>
       <c r="H425" t="n">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="I425" t="n">
         <v>100.8</v>
@@ -25964,6 +27238,9 @@
       <c r="R425" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S425" t="n">
+        <v>3.48385061723349</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -25992,7 +27269,7 @@
         <v>185.36</v>
       </c>
       <c r="H426" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I426" t="n">
         <v>100.64</v>
@@ -26024,6 +27301,9 @@
       <c r="R426" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S426" t="n">
+        <v>3.225578420986241</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -26052,7 +27332,7 @@
         <v>178.7</v>
       </c>
       <c r="H427" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I427" t="n">
         <v>100.27</v>
@@ -26084,6 +27364,9 @@
       <c r="R427" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S427" t="n">
+        <v>3.699753495178135</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -26112,7 +27395,7 @@
         <v>184.1</v>
       </c>
       <c r="H428" t="n">
-        <v>161.24</v>
+        <v>71.8</v>
       </c>
       <c r="I428" t="n">
         <v>100.36</v>
@@ -26144,6 +27427,9 @@
       <c r="R428" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S428" t="n">
+        <v>2.776771701295893</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -26172,7 +27458,7 @@
         <v>177.98</v>
       </c>
       <c r="H429" t="n">
-        <v>161.6</v>
+        <v>72</v>
       </c>
       <c r="I429" t="n">
         <v>100.67</v>
@@ -26204,6 +27490,9 @@
       <c r="R429" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S429" t="n">
+        <v>3.241534836929366</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -26232,7 +27521,7 @@
         <v>164.84</v>
       </c>
       <c r="H430" t="n">
-        <v>161.06</v>
+        <v>71.7</v>
       </c>
       <c r="I430" t="n">
         <v>100.16</v>
@@ -26264,6 +27553,9 @@
       <c r="R430" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S430" t="n">
+        <v>4.444042669987547</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -26292,7 +27584,7 @@
         <v>160.16</v>
       </c>
       <c r="H431" t="n">
-        <v>154.4</v>
+        <v>68</v>
       </c>
       <c r="I431" t="n">
         <v>100.58</v>
@@ -26324,6 +27616,9 @@
       <c r="R431" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S431" t="n">
+        <v>4.26988784083748</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -26352,7 +27647,7 @@
         <v>164.66</v>
       </c>
       <c r="H432" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I432" t="n">
         <v>101.23</v>
@@ -26384,6 +27679,9 @@
       <c r="R432" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S432" t="n">
+        <v>4.020779611744587</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -26412,7 +27710,7 @@
         <v>168.62</v>
       </c>
       <c r="H433" t="n">
-        <v>152.06</v>
+        <v>66.7</v>
       </c>
       <c r="I433" t="n">
         <v>101.22</v>
@@ -26444,6 +27742,9 @@
       <c r="R433" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S433" t="n">
+        <v>3.23779058679069</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -26472,7 +27773,7 @@
         <v>167.18</v>
       </c>
       <c r="H434" t="n">
-        <v>150.98</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I434" t="n">
         <v>101.03</v>
@@ -26504,6 +27805,9 @@
       <c r="R434" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S434" t="n">
+        <v>3.269437084058514</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -26532,7 +27836,7 @@
         <v>172.94</v>
       </c>
       <c r="H435" t="n">
-        <v>159.08</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I435" t="n">
         <v>101.29</v>
@@ -26564,6 +27868,9 @@
       <c r="R435" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S435" t="n">
+        <v>3.451504486801079</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -26592,7 +27899,7 @@
         <v>176.54</v>
       </c>
       <c r="H436" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I436" t="n">
         <v>101.24</v>
@@ -26624,6 +27931,9 @@
       <c r="R436" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S436" t="n">
+        <v>2.984190522041699</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -26652,7 +27962,7 @@
         <v>172.22</v>
       </c>
       <c r="H437" t="n">
-        <v>156.02</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="I437" t="n">
         <v>100.74</v>
@@ -26684,6 +27994,9 @@
       <c r="R437" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S437" t="n">
+        <v>3.261416974338552</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -26712,7 +28025,7 @@
         <v>180.32</v>
       </c>
       <c r="H438" t="n">
-        <v>154.4</v>
+        <v>68</v>
       </c>
       <c r="I438" t="n">
         <v>100.77</v>
@@ -26744,6 +28057,9 @@
       <c r="R438" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S438" t="n">
+        <v>2.571689656407907</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -26772,7 +28088,7 @@
         <v>161.06</v>
       </c>
       <c r="H439" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I439" t="n">
         <v>101.13</v>
@@ -26804,6 +28120,9 @@
       <c r="R439" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S439" t="n">
+        <v>4.096427183776005</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -26832,7 +28151,7 @@
         <v>165.74</v>
       </c>
       <c r="H440" t="n">
-        <v>151.16</v>
+        <v>66.2</v>
       </c>
       <c r="I440" t="n">
         <v>101.24</v>
@@ -26864,6 +28183,9 @@
       <c r="R440" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S440" t="n">
+        <v>3.407471059673254</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -26892,7 +28214,7 @@
         <v>168.62</v>
       </c>
       <c r="H441" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I441" t="n">
         <v>101.19</v>
@@ -26924,6 +28246,9 @@
       <c r="R441" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S441" t="n">
+        <v>3.633453180138412</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -26952,7 +28277,7 @@
         <v>166.46</v>
       </c>
       <c r="H442" t="n">
-        <v>158.36</v>
+        <v>70.2</v>
       </c>
       <c r="I442" t="n">
         <v>101.03</v>
@@ -26984,6 +28309,9 @@
       <c r="R442" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S442" t="n">
+        <v>3.99344739820673</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -27012,7 +28340,7 @@
         <v>176</v>
       </c>
       <c r="H443" t="n">
-        <v>158.54</v>
+        <v>70.3</v>
       </c>
       <c r="I443" t="n">
         <v>100.94</v>
@@ -27044,6 +28372,9 @@
       <c r="R443" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S443" t="n">
+        <v>3.159294713407083</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -27072,7 +28403,7 @@
         <v>181.58</v>
       </c>
       <c r="H444" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I444" t="n">
         <v>101</v>
@@ -27104,6 +28435,9 @@
       <c r="R444" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S444" t="n">
+        <v>3.157686964268295</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -27132,7 +28466,7 @@
         <v>153.32</v>
       </c>
       <c r="H445" t="n">
-        <v>141.44</v>
+        <v>60.8</v>
       </c>
       <c r="I445" t="n">
         <v>101.59</v>
@@ -27164,6 +28498,9 @@
       <c r="R445" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S445" t="n">
+        <v>3.700614868287234</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -27192,7 +28529,7 @@
         <v>159.44</v>
       </c>
       <c r="H446" t="n">
-        <v>137.84</v>
+        <v>58.8</v>
       </c>
       <c r="I446" t="n">
         <v>101.79</v>
@@ -27224,6 +28561,9 @@
       <c r="R446" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S446" t="n">
+        <v>2.858418045200959</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -27252,7 +28592,7 @@
         <v>140.36</v>
       </c>
       <c r="H447" t="n">
-        <v>132.08</v>
+        <v>55.6</v>
       </c>
       <c r="I447" t="n">
         <v>102.16</v>
@@ -27284,6 +28624,9 @@
       <c r="R447" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S447" t="n">
+        <v>4.173502163399423</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -27312,7 +28655,7 @@
         <v>140.72</v>
       </c>
       <c r="H448" t="n">
-        <v>133.52</v>
+        <v>56.4</v>
       </c>
       <c r="I448" t="n">
         <v>102.2</v>
@@ -27344,6 +28687,9 @@
       <c r="R448" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S448" t="n">
+        <v>4.291459217536958</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -27372,7 +28718,7 @@
         <v>149.18</v>
       </c>
       <c r="H449" t="n">
-        <v>134.6</v>
+        <v>57</v>
       </c>
       <c r="I449" t="n">
         <v>102.34</v>
@@ -27404,6 +28750,9 @@
       <c r="R449" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S449" t="n">
+        <v>3.469505017847921</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -27432,7 +28781,7 @@
         <v>149.18</v>
       </c>
       <c r="H450" t="n">
-        <v>130.1</v>
+        <v>54.5</v>
       </c>
       <c r="I450" t="n">
         <v>101.78</v>
@@ -27464,6 +28813,9 @@
       <c r="R450" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S450" t="n">
+        <v>3.076806126510343</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -27492,7 +28844,7 @@
         <v>156.02</v>
       </c>
       <c r="H451" t="n">
-        <v>134.24</v>
+        <v>56.8</v>
       </c>
       <c r="I451" t="n">
         <v>101.37</v>
@@ -27524,6 +28876,9 @@
       <c r="R451" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S451" t="n">
+        <v>2.848760397158578</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -27552,7 +28907,7 @@
         <v>134.24</v>
       </c>
       <c r="H452" t="n">
-        <v>106.52</v>
+        <v>41.4</v>
       </c>
       <c r="I452" t="n">
         <v>102.45</v>
@@ -27584,6 +28939,9 @@
       <c r="R452" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S452" t="n">
+        <v>2.443336674763531</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -27612,7 +28970,7 @@
         <v>141.8</v>
       </c>
       <c r="H453" t="n">
-        <v>107.06</v>
+        <v>41.7</v>
       </c>
       <c r="I453" t="n">
         <v>102.2</v>
@@ -27644,6 +29002,9 @@
       <c r="R453" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S453" t="n">
+        <v>1.985273887026323</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -27672,7 +29033,7 @@
         <v>140</v>
       </c>
       <c r="H454" t="n">
-        <v>115.52</v>
+        <v>46.4</v>
       </c>
       <c r="I454" t="n">
         <v>101.89</v>
@@ -27704,6 +29065,9 @@
       <c r="R454" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S454" t="n">
+        <v>2.671816871987391</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -27732,7 +29096,7 @@
         <v>159.44</v>
       </c>
       <c r="H455" t="n">
-        <v>134.78</v>
+        <v>57.1</v>
       </c>
       <c r="I455" t="n">
         <v>101.7</v>
@@ -27764,6 +29128,9 @@
       <c r="R455" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S455" t="n">
+        <v>2.637352278824511</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -27792,7 +29159,7 @@
         <v>159.26</v>
       </c>
       <c r="H456" t="n">
-        <v>132.44</v>
+        <v>55.8</v>
       </c>
       <c r="I456" t="n">
         <v>101.79</v>
@@ -27824,6 +29191,9 @@
       <c r="R456" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S456" t="n">
+        <v>2.49023575894101</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -27852,7 +29222,7 @@
         <v>170.06</v>
       </c>
       <c r="H457" t="n">
-        <v>123.8</v>
+        <v>51</v>
       </c>
       <c r="I457" t="n">
         <v>101.24</v>
@@ -27884,6 +29254,9 @@
       <c r="R457" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S457" t="n">
+        <v>1.490467472538521</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -27912,7 +29285,7 @@
         <v>157.82</v>
       </c>
       <c r="H458" t="n">
-        <v>140.36</v>
+        <v>60.2</v>
       </c>
       <c r="I458" t="n">
         <v>101.49</v>
@@ -27944,6 +29317,9 @@
       <c r="R458" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S458" t="n">
+        <v>3.186694312586952</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -27972,7 +29348,7 @@
         <v>153.68</v>
       </c>
       <c r="H459" t="n">
-        <v>143.24</v>
+        <v>61.8</v>
       </c>
       <c r="I459" t="n">
         <v>101.55</v>
@@ -28004,6 +29380,9 @@
       <c r="R459" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S459" t="n">
+        <v>3.838127351362205</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -28032,7 +29411,7 @@
         <v>116.78</v>
       </c>
       <c r="H460" t="n">
-        <v>95.53999999999999</v>
+        <v>35.3</v>
       </c>
       <c r="I460" t="n">
         <v>102.26</v>
@@ -28064,6 +29443,9 @@
       <c r="R460" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S460" t="n">
+        <v>3.049396444330168</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -28092,7 +29474,7 @@
         <v>140.72</v>
       </c>
       <c r="H461" t="n">
-        <v>119.12</v>
+        <v>48.4</v>
       </c>
       <c r="I461" t="n">
         <v>101.63</v>
@@ -28124,6 +29506,9 @@
       <c r="R461" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S461" t="n">
+        <v>2.896275271797557</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -28152,7 +29537,7 @@
         <v>135.5</v>
       </c>
       <c r="H462" t="n">
-        <v>118.04</v>
+        <v>47.8</v>
       </c>
       <c r="I462" t="n">
         <v>102.24</v>
@@ -28184,6 +29569,9 @@
       <c r="R462" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S462" t="n">
+        <v>3.278221927277553</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -28212,7 +29600,7 @@
         <v>124.7</v>
       </c>
       <c r="H463" t="n">
-        <v>101.3</v>
+        <v>38.5</v>
       </c>
       <c r="I463" t="n">
         <v>102.92</v>
@@ -28244,6 +29632,9 @@
       <c r="R463" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S463" t="n">
+        <v>2.80999592084898</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -28272,7 +29663,7 @@
         <v>109.4</v>
       </c>
       <c r="H464" t="n">
-        <v>102.02</v>
+        <v>38.9</v>
       </c>
       <c r="I464" t="n">
         <v>103.29</v>
@@ -28304,6 +29695,9 @@
       <c r="R464" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S464" t="n">
+        <v>4.76560774563717</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -28332,7 +29726,7 @@
         <v>96.44</v>
       </c>
       <c r="H465" t="n">
-        <v>77.53999999999999</v>
+        <v>25.3</v>
       </c>
       <c r="I465" t="n">
         <v>103.35</v>
@@ -28364,6 +29758,9 @@
       <c r="R465" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S465" t="n">
+        <v>3.509165229743675</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -28392,7 +29789,7 @@
         <v>102.74</v>
       </c>
       <c r="H466" t="n">
-        <v>82.22</v>
+        <v>27.9</v>
       </c>
       <c r="I466" t="n">
         <v>102.74</v>
@@ -28424,6 +29821,9 @@
       <c r="R466" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S466" t="n">
+        <v>3.249242339254879</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -28452,7 +29852,7 @@
         <v>120.2</v>
       </c>
       <c r="H467" t="n">
-        <v>86.36</v>
+        <v>30.2</v>
       </c>
       <c r="I467" t="n">
         <v>102.2</v>
@@ -28484,6 +29884,9 @@
       <c r="R467" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S467" t="n">
+        <v>2.044345533831157</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -28512,7 +29915,7 @@
         <v>130.1</v>
       </c>
       <c r="H468" t="n">
-        <v>102.56</v>
+        <v>39.2</v>
       </c>
       <c r="I468" t="n">
         <v>102.03</v>
@@ -28544,6 +29947,9 @@
       <c r="R468" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S468" t="n">
+        <v>2.46467327572035</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -28572,7 +29978,7 @@
         <v>142.16</v>
       </c>
       <c r="H469" t="n">
-        <v>108.14</v>
+        <v>42.3</v>
       </c>
       <c r="I469" t="n">
         <v>101.57</v>
@@ -28604,6 +30010,9 @@
       <c r="R469" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S469" t="n">
+        <v>2.027908261179089</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -28632,7 +30041,7 @@
         <v>107.96</v>
       </c>
       <c r="H470" t="n">
-        <v>63.31999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="I470" t="n">
         <v>103.28</v>
@@ -28664,6 +30073,9 @@
       <c r="R470" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S470" t="n">
+        <v>1.427358665469125</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -28692,7 +30104,7 @@
         <v>118.58</v>
       </c>
       <c r="H471" t="n">
-        <v>100.94</v>
+        <v>38.3</v>
       </c>
       <c r="I471" t="n">
         <v>102.76</v>
@@ -28724,6 +30136,9 @@
       <c r="R471" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S471" t="n">
+        <v>3.386742982074497</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -28752,7 +30167,7 @@
         <v>91.58000000000001</v>
       </c>
       <c r="H472" t="n">
-        <v>69.44</v>
+        <v>20.8</v>
       </c>
       <c r="I472" t="n">
         <v>103.2</v>
@@ -28784,6 +30199,9 @@
       <c r="R472" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S472" t="n">
+        <v>3.210484207174205</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -28812,7 +30230,7 @@
         <v>109.4</v>
       </c>
       <c r="H473" t="n">
-        <v>68.72</v>
+        <v>20.4</v>
       </c>
       <c r="I473" t="n">
         <v>102.78</v>
@@ -28844,6 +30262,9 @@
       <c r="R473" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S473" t="n">
+        <v>1.637788084390506</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -28872,7 +30293,7 @@
         <v>109.04</v>
       </c>
       <c r="H474" t="n">
-        <v>76.46000000000001</v>
+        <v>24.7</v>
       </c>
       <c r="I474" t="n">
         <v>102.39</v>
@@ -28904,6 +30325,9 @@
       <c r="R474" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S474" t="n">
+        <v>2.153720870552911</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -28932,7 +30356,7 @@
         <v>133.16</v>
       </c>
       <c r="H475" t="n">
-        <v>100.58</v>
+        <v>38.1</v>
       </c>
       <c r="I475" t="n">
         <v>101.57</v>
@@ -28964,6 +30388,9 @@
       <c r="R475" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S475" t="n">
+        <v>2.11497834528867</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -28992,7 +30419,7 @@
         <v>119.84</v>
       </c>
       <c r="H476" t="n">
-        <v>109.94</v>
+        <v>43.3</v>
       </c>
       <c r="I476" t="n">
         <v>102</v>
@@ -29024,6 +30451,9 @@
       <c r="R476" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S476" t="n">
+        <v>4.241199587554002</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -29052,7 +30482,7 @@
         <v>100.94</v>
       </c>
       <c r="H477" t="n">
-        <v>98.42</v>
+        <v>36.9</v>
       </c>
       <c r="I477" t="n">
         <v>102.04</v>
@@ -29084,6 +30514,9 @@
       <c r="R477" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S477" t="n">
+        <v>5.76735193481475</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -29112,7 +30545,7 @@
         <v>87.44</v>
       </c>
       <c r="H478" t="n">
-        <v>79.16</v>
+        <v>26.2</v>
       </c>
       <c r="I478" t="n">
         <v>103.17</v>
@@ -29144,6 +30577,9 @@
       <c r="R478" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S478" t="n">
+        <v>5.222656240642571</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -29172,7 +30608,7 @@
         <v>75.38</v>
       </c>
       <c r="H479" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I479" t="n">
         <v>104.09</v>
@@ -29204,6 +30640,9 @@
       <c r="R479" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S479" t="n">
+        <v>3.404314619185071</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -29232,7 +30671,7 @@
         <v>80.59999999999999</v>
       </c>
       <c r="H480" t="n">
-        <v>50.18</v>
+        <v>10.1</v>
       </c>
       <c r="I480" t="n">
         <v>103.79</v>
@@ -29264,6 +30703,9 @@
       <c r="R480" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S480" t="n">
+        <v>2.495715601447183</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -29292,7 +30734,7 @@
         <v>85.46000000000001</v>
       </c>
       <c r="H481" t="n">
-        <v>74.84</v>
+        <v>23.8</v>
       </c>
       <c r="I481" t="n">
         <v>103.33</v>
@@ -29324,6 +30766,9 @@
       <c r="R481" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S481" t="n">
+        <v>4.894047243633248</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -29352,7 +30797,7 @@
         <v>88.88</v>
       </c>
       <c r="H482" t="n">
-        <v>74.84</v>
+        <v>23.8</v>
       </c>
       <c r="I482" t="n">
         <v>103.6</v>
@@ -29384,6 +30829,9 @@
       <c r="R482" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S482" t="n">
+        <v>4.277799112605133</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -29412,7 +30860,7 @@
         <v>75.92</v>
       </c>
       <c r="H483" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I483" t="n">
         <v>104.26</v>
@@ -29444,6 +30892,9 @@
       <c r="R483" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S483" t="n">
+        <v>3.011360388431494</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -29472,7 +30923,7 @@
         <v>85.46000000000001</v>
       </c>
       <c r="H484" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I484" t="n">
         <v>103.83</v>
@@ -29504,6 +30955,9 @@
       <c r="R484" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S484" t="n">
+        <v>3.016775363500093</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -29532,7 +30986,7 @@
         <v>84.2</v>
       </c>
       <c r="H485" t="n">
-        <v>64.58000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I485" t="n">
         <v>103.52</v>
@@ -29564,6 +31018,9 @@
       <c r="R485" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S485" t="n">
+        <v>3.624004294549058</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -29592,7 +31049,7 @@
         <v>108.5</v>
       </c>
       <c r="H486" t="n">
-        <v>84.74000000000001</v>
+        <v>29.3</v>
       </c>
       <c r="I486" t="n">
         <v>102.8</v>
@@ -29624,6 +31081,9 @@
       <c r="R486" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S486" t="n">
+        <v>2.876097643798095</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -29652,7 +31112,7 @@
         <v>90.5</v>
       </c>
       <c r="H487" t="n">
-        <v>83.48</v>
+        <v>28.6</v>
       </c>
       <c r="I487" t="n">
         <v>103.05</v>
@@ -29683,6 +31143,9 @@
       </c>
       <c r="R487" t="n">
         <v>0.02032</v>
+      </c>
+      <c r="S487" t="n">
+        <v>5.336695044284729</v>
       </c>
     </row>
   </sheetData>

--- a/result/NCDC_weather_data/stations_imputed/58221099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58221099999.xlsx
@@ -557,7 +557,7 @@
         <v>3.722222222222224</v>
       </c>
       <c r="H2" t="n">
-        <v>23.8</v>
+        <v>-4.555555555555555</v>
       </c>
       <c r="I2" t="n">
         <v>102.76</v>
@@ -590,7 +590,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S2" t="n">
-        <v>369.6062966463016</v>
+        <v>54.72075353060284</v>
       </c>
     </row>
     <row r="3">
@@ -620,7 +620,7 @@
         <v>3.833333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>27.2</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="I3" t="n">
         <v>102.81</v>
@@ -653,7 +653,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S3" t="n">
-        <v>448.8975902349425</v>
+        <v>62.53053645882072</v>
       </c>
     </row>
     <row r="4">
@@ -683,7 +683,7 @@
         <v>5.666666666666669</v>
       </c>
       <c r="H4" t="n">
-        <v>30.4</v>
+        <v>-0.8888888888888897</v>
       </c>
       <c r="I4" t="n">
         <v>102.53</v>
@@ -716,7 +716,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S4" t="n">
-        <v>475.5602428672426</v>
+        <v>62.7131125930707</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         <v>5.944444444444446</v>
       </c>
       <c r="H5" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>102.5</v>
@@ -779,7 +779,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S5" t="n">
-        <v>690.0238543725383</v>
+        <v>81.38018444749135</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>3.777777777777776</v>
       </c>
       <c r="H6" t="n">
-        <v>36.3</v>
+        <v>2.388888888888888</v>
       </c>
       <c r="I6" t="n">
         <v>102.85</v>
@@ -842,7 +842,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S6" t="n">
-        <v>755.6997186917102</v>
+        <v>90.63922311391156</v>
       </c>
     </row>
     <row r="7">
@@ -872,7 +872,7 @@
         <v>3.555555555555555</v>
       </c>
       <c r="H7" t="n">
-        <v>30.6</v>
+        <v>-0.777777777777777</v>
       </c>
       <c r="I7" t="n">
         <v>103.32</v>
@@ -905,7 +905,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S7" t="n">
-        <v>557.5283921022821</v>
+        <v>73.27699826291504</v>
       </c>
     </row>
     <row r="8">
@@ -935,7 +935,7 @@
         <v>1.944444444444445</v>
       </c>
       <c r="H8" t="n">
-        <v>29.7</v>
+        <v>-1.277777777777778</v>
       </c>
       <c r="I8" t="n">
         <v>103.08</v>
@@ -968,7 +968,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S8" t="n">
-        <v>593.5487867254499</v>
+        <v>79.19971715266155</v>
       </c>
     </row>
     <row r="9">
@@ -998,7 +998,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>31.2</v>
+        <v>-0.4444444444444449</v>
       </c>
       <c r="I9" t="n">
         <v>102.67</v>
@@ -1031,7 +1031,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S9" t="n">
-        <v>559.2103090381287</v>
+        <v>72.76852925387848</v>
       </c>
     </row>
     <row r="10">
@@ -1061,7 +1061,7 @@
         <v>3.944444444444446</v>
       </c>
       <c r="H10" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>102.39</v>
@@ -1094,7 +1094,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S10" t="n">
-        <v>587.520609437824</v>
+        <v>75.45206335784597</v>
       </c>
     </row>
     <row r="11">
@@ -1124,7 +1124,7 @@
         <v>4.444444444444445</v>
       </c>
       <c r="H11" t="n">
-        <v>35.3</v>
+        <v>1.833333333333332</v>
       </c>
       <c r="I11" t="n">
         <v>102.59</v>
@@ -1157,7 +1157,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S11" t="n">
-        <v>682.4593810320528</v>
+        <v>83.13596520441494</v>
       </c>
     </row>
     <row r="12">
@@ -1187,7 +1187,7 @@
         <v>1.055555555555555</v>
       </c>
       <c r="H12" t="n">
-        <v>28.6</v>
+        <v>-1.888888888888888</v>
       </c>
       <c r="I12" t="n">
         <v>102.76</v>
@@ -1220,7 +1220,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S12" t="n">
-        <v>593.5777995595178</v>
+        <v>80.70176762743667</v>
       </c>
     </row>
     <row r="13">
@@ -1250,7 +1250,7 @@
         <v>3.888888888888889</v>
       </c>
       <c r="H13" t="n">
-        <v>29.1</v>
+        <v>-1.61111111111111</v>
       </c>
       <c r="I13" t="n">
         <v>102.58</v>
@@ -1283,7 +1283,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S13" t="n">
-        <v>499.5319939477545</v>
+        <v>67.33705041022105</v>
       </c>
     </row>
     <row r="14">
@@ -1313,7 +1313,7 @@
         <v>-1.055555555555555</v>
       </c>
       <c r="H14" t="n">
-        <v>16.6</v>
+        <v>-8.555555555555555</v>
       </c>
       <c r="I14" t="n">
         <v>103.06</v>
@@ -1346,7 +1346,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S14" t="n">
-        <v>333.5623141786916</v>
+        <v>56.74938492401497</v>
       </c>
     </row>
     <row r="15">
@@ -1376,7 +1376,7 @@
         <v>1.222222222222224</v>
       </c>
       <c r="H15" t="n">
-        <v>21.2</v>
+        <v>-6.000000000000001</v>
       </c>
       <c r="I15" t="n">
         <v>102.42</v>
@@ -1409,7 +1409,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S15" t="n">
-        <v>376.9537818457617</v>
+        <v>58.58744765254394</v>
       </c>
     </row>
     <row r="16">
@@ -1439,7 +1439,7 @@
         <v>4.61111111111111</v>
       </c>
       <c r="H16" t="n">
-        <v>32.2</v>
+        <v>0.1111111111111127</v>
       </c>
       <c r="I16" t="n">
         <v>102.5</v>
@@ -1472,7 +1472,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S16" t="n">
-        <v>567.0904691704307</v>
+        <v>72.59056411634582</v>
       </c>
     </row>
     <row r="17">
@@ -1502,7 +1502,7 @@
         <v>3.777777777777776</v>
       </c>
       <c r="H17" t="n">
-        <v>30.7</v>
+        <v>-0.7222222222222227</v>
       </c>
       <c r="I17" t="n">
         <v>102.82</v>
@@ -1535,7 +1535,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S17" t="n">
-        <v>552.0215964196672</v>
+        <v>72.43228670902812</v>
       </c>
     </row>
     <row r="18">
@@ -1565,7 +1565,7 @@
         <v>4.388888888888888</v>
       </c>
       <c r="H18" t="n">
-        <v>33.7</v>
+        <v>0.9444444444444461</v>
       </c>
       <c r="I18" t="n">
         <v>102.94</v>
@@ -1598,7 +1598,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S18" t="n">
-        <v>626.7290613913464</v>
+        <v>78.30348748963209</v>
       </c>
     </row>
     <row r="19">
@@ -1628,7 +1628,7 @@
         <v>4.555555555555557</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="I19" t="n">
         <v>102.47</v>
@@ -1661,7 +1661,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S19" t="n">
-        <v>647.7593538873015</v>
+        <v>79.90792744477655</v>
       </c>
     </row>
     <row r="20">
@@ -1691,7 +1691,7 @@
         <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>35.1</v>
+        <v>1.722222222222223</v>
       </c>
       <c r="I20" t="n">
         <v>102.64</v>
@@ -1724,7 +1724,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S20" t="n">
-        <v>649.2570177156167</v>
+        <v>79.33943630898112</v>
       </c>
     </row>
     <row r="21">
@@ -1754,7 +1754,7 @@
         <v>2.722222222222221</v>
       </c>
       <c r="H21" t="n">
-        <v>28.6</v>
+        <v>-1.888888888888888</v>
       </c>
       <c r="I21" t="n">
         <v>102.93</v>
@@ -1787,7 +1787,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S21" t="n">
-        <v>526.9349690874177</v>
+        <v>71.64112852876228</v>
       </c>
     </row>
     <row r="22">
@@ -1817,7 +1817,7 @@
         <v>5.222222222222221</v>
       </c>
       <c r="H22" t="n">
-        <v>31.4</v>
+        <v>-0.3333333333333341</v>
       </c>
       <c r="I22" t="n">
         <v>102.48</v>
@@ -1850,7 +1850,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S22" t="n">
-        <v>519.3063332392404</v>
+        <v>67.35284960447711</v>
       </c>
     </row>
     <row r="23">
@@ -1880,7 +1880,7 @@
         <v>5.944444444444446</v>
       </c>
       <c r="H23" t="n">
-        <v>39.4</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="I23" t="n">
         <v>102.06</v>
@@ -1913,7 +1913,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S23" t="n">
-        <v>768.9410365428769</v>
+        <v>88.01064824309589</v>
       </c>
     </row>
     <row r="24">
@@ -1943,7 +1943,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>36.7</v>
+        <v>2.611111111111113</v>
       </c>
       <c r="I24" t="n">
         <v>102.36</v>
@@ -1976,7 +1976,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S24" t="n">
-        <v>778.5384540149247</v>
+        <v>92.80577755906465</v>
       </c>
     </row>
     <row r="25">
@@ -2006,7 +2006,7 @@
         <v>1.944444444444445</v>
       </c>
       <c r="H25" t="n">
-        <v>32.3</v>
+        <v>0.1666666666666651</v>
       </c>
       <c r="I25" t="n">
         <v>102.52</v>
@@ -2039,7 +2039,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S25" t="n">
-        <v>688.5498853426438</v>
+        <v>87.99431530387861</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>4.055555555555554</v>
       </c>
       <c r="H26" t="n">
-        <v>34.1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I26" t="n">
         <v>102.5</v>
@@ -2102,7 +2102,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S26" t="n">
-        <v>656.0594657346954</v>
+        <v>81.44684262041049</v>
       </c>
     </row>
     <row r="27">
@@ -2132,7 +2132,7 @@
         <v>3.111111111111112</v>
       </c>
       <c r="H27" t="n">
-        <v>33.8</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="I27" t="n">
         <v>102.63</v>
@@ -2165,7 +2165,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S27" t="n">
-        <v>689.5541532483558</v>
+        <v>86.01528849715638</v>
       </c>
     </row>
     <row r="28">
@@ -2195,7 +2195,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>30</v>
+        <v>-1.111111111111111</v>
       </c>
       <c r="I28" t="n">
         <v>102.99</v>
@@ -2228,7 +2228,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S28" t="n">
-        <v>560.2190598572051</v>
+        <v>74.37502229639554</v>
       </c>
     </row>
     <row r="29">
@@ -2258,7 +2258,7 @@
         <v>2.333333333333335</v>
       </c>
       <c r="H29" t="n">
-        <v>24.8</v>
+        <v>-4</v>
       </c>
       <c r="I29" t="n">
         <v>102.88</v>
@@ -2291,7 +2291,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S29" t="n">
-        <v>433.0100476623676</v>
+        <v>62.94995900152654</v>
       </c>
     </row>
     <row r="30">
@@ -2321,7 +2321,7 @@
         <v>2.5</v>
       </c>
       <c r="H30" t="n">
-        <v>24</v>
+        <v>-4.444444444444445</v>
       </c>
       <c r="I30" t="n">
         <v>102.59</v>
@@ -2354,7 +2354,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S30" t="n">
-        <v>407.8676806408848</v>
+        <v>60.16447282599528</v>
       </c>
     </row>
     <row r="31">
@@ -2384,7 +2384,7 @@
         <v>1.388888888888889</v>
       </c>
       <c r="H31" t="n">
-        <v>28.8</v>
+        <v>-1.777777777777777</v>
       </c>
       <c r="I31" t="n">
         <v>102.76</v>
@@ -2417,7 +2417,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S31" t="n">
-        <v>586.3017452057265</v>
+        <v>79.43970743351005</v>
       </c>
     </row>
     <row r="32">
@@ -2447,7 +2447,7 @@
         <v>2.388888888888888</v>
       </c>
       <c r="H32" t="n">
-        <v>28.9</v>
+        <v>-1.722222222222223</v>
       </c>
       <c r="I32" t="n">
         <v>102.81</v>
@@ -2480,7 +2480,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S32" t="n">
-        <v>549.0453943221265</v>
+        <v>74.26458864401378</v>
       </c>
     </row>
     <row r="33">
@@ -2510,7 +2510,7 @@
         <v>2.888888888888891</v>
       </c>
       <c r="H33" t="n">
-        <v>17.1</v>
+        <v>-8.277777777777777</v>
       </c>
       <c r="I33" t="n">
         <v>103.14</v>
@@ -2543,7 +2543,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S33" t="n">
-        <v>259.1630876480916</v>
+        <v>43.64813301495248</v>
       </c>
     </row>
     <row r="34">
@@ -2573,7 +2573,7 @@
         <v>2.055555555555557</v>
       </c>
       <c r="H34" t="n">
-        <v>22.9</v>
+        <v>-5.055555555555556</v>
       </c>
       <c r="I34" t="n">
         <v>103.01</v>
@@ -2606,7 +2606,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S34" t="n">
-        <v>393.9342733901927</v>
+        <v>59.30006330625126</v>
       </c>
     </row>
     <row r="35">
@@ -2636,7 +2636,7 @@
         <v>1.222222222222224</v>
       </c>
       <c r="H35" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I35" t="n">
         <v>102.86</v>
@@ -2669,7 +2669,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S35" t="n">
-        <v>509.521573314262</v>
+        <v>72.23745076305647</v>
       </c>
     </row>
     <row r="36">
@@ -2699,7 +2699,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>28.6</v>
+        <v>-1.888888888888888</v>
       </c>
       <c r="I36" t="n">
         <v>103.07</v>
@@ -2732,7 +2732,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S36" t="n">
-        <v>568.1091304760341</v>
+        <v>77.23909328941288</v>
       </c>
     </row>
     <row r="37">
@@ -2762,7 +2762,7 @@
         <v>1.500000000000002</v>
       </c>
       <c r="H37" t="n">
-        <v>15.2</v>
+        <v>-9.333333333333334</v>
       </c>
       <c r="I37" t="n">
         <v>103.4</v>
@@ -2795,7 +2795,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S37" t="n">
-        <v>253.4566821197226</v>
+        <v>44.37613455963501</v>
       </c>
     </row>
     <row r="38">
@@ -2825,7 +2825,7 @@
         <v>2.055555555555557</v>
       </c>
       <c r="H38" t="n">
-        <v>19.8</v>
+        <v>-6.777777777777778</v>
       </c>
       <c r="I38" t="n">
         <v>103.03</v>
@@ -2858,7 +2858,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S38" t="n">
-        <v>325.7164308562362</v>
+        <v>52.00450785052742</v>
       </c>
     </row>
     <row r="39">
@@ -2888,7 +2888,7 @@
         <v>0.3888888888888905</v>
       </c>
       <c r="H39" t="n">
-        <v>31.2</v>
+        <v>-0.4444444444444449</v>
       </c>
       <c r="I39" t="n">
         <v>102.88</v>
@@ -2921,7 +2921,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S39" t="n">
-        <v>723.373716105289</v>
+        <v>94.13067064596162</v>
       </c>
     </row>
     <row r="40">
@@ -2951,7 +2951,7 @@
         <v>2.5</v>
       </c>
       <c r="H40" t="n">
-        <v>32.1</v>
+        <v>0.05555555555555635</v>
       </c>
       <c r="I40" t="n">
         <v>102.95</v>
@@ -2984,7 +2984,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S40" t="n">
-        <v>654.3730271641242</v>
+        <v>83.90016507145369</v>
       </c>
     </row>
     <row r="41">
@@ -3014,7 +3014,7 @@
         <v>3.833333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>35.5</v>
+        <v>1.944444444444445</v>
       </c>
       <c r="I41" t="n">
         <v>102.57</v>
@@ -3047,7 +3047,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S41" t="n">
-        <v>720.2816624342994</v>
+        <v>87.46976193314391</v>
       </c>
     </row>
     <row r="42">
@@ -3077,7 +3077,7 @@
         <v>4.388888888888888</v>
       </c>
       <c r="H42" t="n">
-        <v>34.7</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="I42" t="n">
         <v>102.49</v>
@@ -3110,7 +3110,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S42" t="n">
-        <v>662.6904765556753</v>
+        <v>81.49204116215971</v>
       </c>
     </row>
     <row r="43">
@@ -3140,7 +3140,7 @@
         <v>4.722222222222222</v>
       </c>
       <c r="H43" t="n">
-        <v>35.7</v>
+        <v>2.055555555555557</v>
       </c>
       <c r="I43" t="n">
         <v>102.48</v>
@@ -3173,7 +3173,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S43" t="n">
-        <v>684.2979630089367</v>
+        <v>82.84151778974889</v>
       </c>
     </row>
     <row r="44">
@@ -3203,7 +3203,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="H44" t="n">
-        <v>37.2</v>
+        <v>2.888888888888891</v>
       </c>
       <c r="I44" t="n">
         <v>102.42</v>
@@ -3236,7 +3236,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S44" t="n">
-        <v>690.4510469524421</v>
+        <v>81.67867446727863</v>
       </c>
     </row>
     <row r="45">
@@ -3266,7 +3266,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H45" t="n">
-        <v>36.1</v>
+        <v>2.277777777777779</v>
       </c>
       <c r="I45" t="n">
         <v>102.33</v>
@@ -3299,7 +3299,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S45" t="n">
-        <v>618.4258047263539</v>
+        <v>74.40396456470961</v>
       </c>
     </row>
     <row r="46">
@@ -3329,7 +3329,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H46" t="n">
-        <v>36.8</v>
+        <v>2.666666666666665</v>
       </c>
       <c r="I46" t="n">
         <v>102.53</v>
@@ -3362,7 +3362,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S46" t="n">
-        <v>655.0762359814063</v>
+        <v>77.96884738306045</v>
       </c>
     </row>
     <row r="47">
@@ -3392,7 +3392,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="H47" t="n">
-        <v>33.6</v>
+        <v>0.8888888888888897</v>
       </c>
       <c r="I47" t="n">
         <v>102.54</v>
@@ -3425,7 +3425,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S47" t="n">
-        <v>640.4592843338729</v>
+        <v>80.14709072296033</v>
       </c>
     </row>
     <row r="48">
@@ -3455,7 +3455,7 @@
         <v>3.777777777777776</v>
       </c>
       <c r="H48" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>102.65</v>
@@ -3488,7 +3488,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S48" t="n">
-        <v>594.4467609672171</v>
+        <v>76.34155117431909</v>
       </c>
     </row>
     <row r="49">
@@ -3518,7 +3518,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>26.1</v>
+        <v>-3.277777777777777</v>
       </c>
       <c r="I49" t="n">
         <v>102.86</v>
@@ -3551,7 +3551,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S49" t="n">
-        <v>520.889761404997</v>
+        <v>73.98046047768077</v>
       </c>
     </row>
     <row r="50">
@@ -3581,7 +3581,7 @@
         <v>1.61111111111111</v>
       </c>
       <c r="H50" t="n">
-        <v>32.4</v>
+        <v>0.2222222222222214</v>
       </c>
       <c r="I50" t="n">
         <v>102.9</v>
@@ -3614,7 +3614,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S50" t="n">
-        <v>709.160417774902</v>
+        <v>90.48072260395045</v>
       </c>
     </row>
     <row r="51">
@@ -3644,7 +3644,7 @@
         <v>0.8888888888888897</v>
       </c>
       <c r="H51" t="n">
-        <v>22.8</v>
+        <v>-5.111111111111111</v>
       </c>
       <c r="I51" t="n">
         <v>103.37</v>
@@ -3677,7 +3677,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S51" t="n">
-        <v>425.7133462063314</v>
+        <v>64.203150371793</v>
       </c>
     </row>
     <row r="52">
@@ -3707,7 +3707,7 @@
         <v>0.4444444444444429</v>
       </c>
       <c r="H52" t="n">
-        <v>16.5</v>
+        <v>-8.611111111111111</v>
       </c>
       <c r="I52" t="n">
         <v>103.3</v>
@@ -3740,7 +3740,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S52" t="n">
-        <v>297.1813172472278</v>
+        <v>50.66262763069951</v>
       </c>
     </row>
     <row r="53">
@@ -3770,7 +3770,7 @@
         <v>3.777777777777776</v>
       </c>
       <c r="H53" t="n">
-        <v>21.8</v>
+        <v>-5.666666666666667</v>
       </c>
       <c r="I53" t="n">
         <v>103.18</v>
@@ -3803,7 +3803,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S53" t="n">
-        <v>326.0925317926512</v>
+        <v>50.10938201744174</v>
       </c>
     </row>
     <row r="54">
@@ -3833,7 +3833,7 @@
         <v>4.888888888888888</v>
       </c>
       <c r="H54" t="n">
-        <v>28.1</v>
+        <v>-2.166666666666666</v>
       </c>
       <c r="I54" t="n">
         <v>103.42</v>
@@ -3866,7 +3866,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S54" t="n">
-        <v>439.4559983716912</v>
+        <v>60.26447041083722</v>
       </c>
     </row>
     <row r="55">
@@ -3896,7 +3896,7 @@
         <v>3.888888888888889</v>
       </c>
       <c r="H55" t="n">
-        <v>24.7</v>
+        <v>-4.055555555555556</v>
       </c>
       <c r="I55" t="n">
         <v>103.45</v>
@@ -3929,7 +3929,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S55" t="n">
-        <v>385.5724106071237</v>
+        <v>56.15520226715264</v>
       </c>
     </row>
     <row r="56">
@@ -3959,7 +3959,7 @@
         <v>5.111111111111112</v>
       </c>
       <c r="H56" t="n">
-        <v>25.9</v>
+        <v>-3.38888888888889</v>
       </c>
       <c r="I56" t="n">
         <v>103.1</v>
@@ -3992,7 +3992,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S56" t="n">
-        <v>380.195224372248</v>
+        <v>54.1905853964225</v>
       </c>
     </row>
     <row r="57">
@@ -4022,7 +4022,7 @@
         <v>7.444444444444444</v>
       </c>
       <c r="H57" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I57" t="n">
         <v>102.48</v>
@@ -4055,7 +4055,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S57" t="n">
-        <v>359.8786749115098</v>
+        <v>49.69506880343047</v>
       </c>
     </row>
     <row r="58">
@@ -4085,7 +4085,7 @@
         <v>8.611111111111111</v>
       </c>
       <c r="H58" t="n">
-        <v>27.1</v>
+        <v>-2.722222222222221</v>
       </c>
       <c r="I58" t="n">
         <v>102.35</v>
@@ -4118,7 +4118,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S58" t="n">
-        <v>320.9371658737786</v>
+        <v>44.78428055399471</v>
       </c>
     </row>
     <row r="59">
@@ -4148,7 +4148,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H59" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I59" t="n">
         <v>101.99</v>
@@ -4181,7 +4181,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S59" t="n">
-        <v>263.1604908640576</v>
+        <v>37.30959393518976</v>
       </c>
     </row>
     <row r="60">
@@ -4211,7 +4211,7 @@
         <v>14.88888888888889</v>
       </c>
       <c r="H60" t="n">
-        <v>42.8</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="I60" t="n">
         <v>101.59</v>
@@ -4244,7 +4244,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S60" t="n">
-        <v>507.0146864198351</v>
+        <v>55.25279953170426</v>
       </c>
     </row>
     <row r="61">
@@ -4274,7 +4274,7 @@
         <v>9.500000000000002</v>
       </c>
       <c r="H61" t="n">
-        <v>29</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="I61" t="n">
         <v>102.28</v>
@@ -4307,7 +4307,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S61" t="n">
-        <v>337.6970617193047</v>
+        <v>45.59937809650189</v>
       </c>
     </row>
     <row r="62">
@@ -4337,7 +4337,7 @@
         <v>10.44444444444444</v>
       </c>
       <c r="H62" t="n">
-        <v>30.4</v>
+        <v>-0.8888888888888897</v>
       </c>
       <c r="I62" t="n">
         <v>101.95</v>
@@ -4370,7 +4370,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S62" t="n">
-        <v>343.6439928347994</v>
+        <v>45.31704392412242</v>
       </c>
     </row>
     <row r="63">
@@ -4400,7 +4400,7 @@
         <v>14.61111111111111</v>
       </c>
       <c r="H63" t="n">
-        <v>35.5</v>
+        <v>1.944444444444445</v>
       </c>
       <c r="I63" t="n">
         <v>101.54</v>
@@ -4433,7 +4433,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S63" t="n">
-        <v>348.3623174410814</v>
+        <v>42.30451858244987</v>
       </c>
     </row>
     <row r="64">
@@ -4463,7 +4463,7 @@
         <v>14.5</v>
       </c>
       <c r="H64" t="n">
-        <v>38.1</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="I64" t="n">
         <v>101.49</v>
@@ -4496,7 +4496,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S64" t="n">
-        <v>404.5638896807815</v>
+        <v>47.21132475863969</v>
       </c>
     </row>
     <row r="65">
@@ -4526,7 +4526,7 @@
         <v>10.83333333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>26.6</v>
+        <v>-3</v>
       </c>
       <c r="I65" t="n">
         <v>102.15</v>
@@ -4559,7 +4559,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S65" t="n">
-        <v>268.457845216704</v>
+        <v>37.7921114177288</v>
       </c>
     </row>
     <row r="66">
@@ -4589,7 +4589,7 @@
         <v>9.388888888888889</v>
       </c>
       <c r="H66" t="n">
-        <v>26.8</v>
+        <v>-2.888888888888889</v>
       </c>
       <c r="I66" t="n">
         <v>102.25</v>
@@ -4622,7 +4622,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S66" t="n">
-        <v>299.1989531378886</v>
+        <v>41.97146683828674</v>
       </c>
     </row>
     <row r="67">
@@ -4652,7 +4652,7 @@
         <v>11.88888888888889</v>
       </c>
       <c r="H67" t="n">
-        <v>36.7</v>
+        <v>2.611111111111113</v>
       </c>
       <c r="I67" t="n">
         <v>101.98</v>
@@ -4685,7 +4685,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S67" t="n">
-        <v>444.5104695409322</v>
+        <v>52.98792827271228</v>
       </c>
     </row>
     <row r="68">
@@ -4715,7 +4715,7 @@
         <v>13.38888888888889</v>
       </c>
       <c r="H68" t="n">
-        <v>39.7</v>
+        <v>4.277777777777779</v>
       </c>
       <c r="I68" t="n">
         <v>101.67</v>
@@ -4748,7 +4748,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S68" t="n">
-        <v>474.0274744783828</v>
+        <v>54.01629789757363</v>
       </c>
     </row>
     <row r="69">
@@ -4778,7 +4778,7 @@
         <v>15.77777777777778</v>
       </c>
       <c r="H69" t="n">
-        <v>38.7</v>
+        <v>3.722222222222224</v>
       </c>
       <c r="I69" t="n">
         <v>101.63</v>
@@ -4811,7 +4811,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S69" t="n">
-        <v>384.9479853036938</v>
+        <v>44.52024249425964</v>
       </c>
     </row>
     <row r="70">
@@ -4841,7 +4841,7 @@
         <v>17.11111111111111</v>
       </c>
       <c r="H70" t="n">
-        <v>46.3</v>
+        <v>7.944444444444443</v>
       </c>
       <c r="I70" t="n">
         <v>101.29</v>
@@ -4874,7 +4874,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S70" t="n">
-        <v>527.4496849844759</v>
+        <v>54.77792683838558</v>
       </c>
     </row>
     <row r="71">
@@ -4904,7 +4904,7 @@
         <v>18.11111111111111</v>
       </c>
       <c r="H71" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I71" t="n">
         <v>101.33</v>
@@ -4937,7 +4937,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S71" t="n">
-        <v>649.716209741693</v>
+        <v>62.92432682605295</v>
       </c>
     </row>
     <row r="72">
@@ -4967,7 +4967,7 @@
         <v>20.88888888888889</v>
       </c>
       <c r="H72" t="n">
-        <v>56.7</v>
+        <v>13.72222222222222</v>
       </c>
       <c r="I72" t="n">
         <v>100.87</v>
@@ -5000,7 +5000,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S72" t="n">
-        <v>696.8014062201208</v>
+        <v>63.5450947881399</v>
       </c>
     </row>
     <row r="73">
@@ -5030,7 +5030,7 @@
         <v>16.88888888888889</v>
       </c>
       <c r="H73" t="n">
-        <v>59.6</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="I73" t="n">
         <v>101.05</v>
@@ -5063,7 +5063,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S73" t="n">
-        <v>1026.208266579892</v>
+        <v>90.5464993041623</v>
       </c>
     </row>
     <row r="74">
@@ -5093,7 +5093,7 @@
         <v>15.05555555555556</v>
       </c>
       <c r="H74" t="n">
-        <v>46.5</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="I74" t="n">
         <v>101.52</v>
@@ -5126,7 +5126,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S74" t="n">
-        <v>607.6192046018667</v>
+        <v>62.93491657325701</v>
       </c>
     </row>
     <row r="75">
@@ -5156,7 +5156,7 @@
         <v>18.22222222222222</v>
       </c>
       <c r="H75" t="n">
-        <v>52</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="I75" t="n">
         <v>101.04</v>
@@ -5189,7 +5189,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S75" t="n">
-        <v>654.8136683023929</v>
+        <v>63.18201710285554</v>
       </c>
     </row>
     <row r="76">
@@ -5219,7 +5219,7 @@
         <v>17.66666666666666</v>
       </c>
       <c r="H76" t="n">
-        <v>54.9</v>
+        <v>12.72222222222222</v>
       </c>
       <c r="I76" t="n">
         <v>101.09</v>
@@ -5252,7 +5252,7 @@
         <v>0.0203694403892944</v>
       </c>
       <c r="S76" t="n">
-        <v>781.1976678512534</v>
+        <v>72.76606648564493</v>
       </c>
     </row>
     <row r="77">
@@ -5282,7 +5282,7 @@
         <v>5.944444444444446</v>
       </c>
       <c r="H77" t="n">
-        <v>37.8</v>
+        <v>3.222222222222221</v>
       </c>
       <c r="I77" t="n">
         <v>101.74</v>
@@ -5315,7 +5315,7 @@
         <v>0.02032</v>
       </c>
       <c r="S77" t="n">
-        <v>705.2180028915129</v>
+        <v>82.66972457989432</v>
       </c>
     </row>
     <row r="78">
@@ -5345,7 +5345,7 @@
         <v>9.055555555555554</v>
       </c>
       <c r="H78" t="n">
-        <v>42.2</v>
+        <v>5.666666666666669</v>
       </c>
       <c r="I78" t="n">
         <v>101.3</v>
@@ -5378,7 +5378,7 @@
         <v>0.02370666666666667</v>
       </c>
       <c r="S78" t="n">
-        <v>721.6855472400947</v>
+        <v>79.31756035497159</v>
       </c>
     </row>
     <row r="79">
@@ -5408,7 +5408,7 @@
         <v>6.555555555555554</v>
       </c>
       <c r="H79" t="n">
-        <v>36.7</v>
+        <v>2.611111111111113</v>
       </c>
       <c r="I79" t="n">
         <v>101.84</v>
@@ -5441,7 +5441,7 @@
         <v>0.02709333333333333</v>
       </c>
       <c r="S79" t="n">
-        <v>636.7043870929569</v>
+        <v>75.89842918445849</v>
       </c>
     </row>
     <row r="80">
@@ -5471,7 +5471,7 @@
         <v>4.833333333333335</v>
       </c>
       <c r="H80" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I80" t="n">
         <v>102.14</v>
@@ -5504,7 +5504,7 @@
         <v>0.03048</v>
       </c>
       <c r="S80" t="n">
-        <v>804.2139158536972</v>
+        <v>92.87089045236266</v>
       </c>
     </row>
     <row r="81">
@@ -5534,7 +5534,7 @@
         <v>5.444444444444443</v>
       </c>
       <c r="H81" t="n">
-        <v>40</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="I81" t="n">
         <v>102.33</v>
@@ -5567,7 +5567,7 @@
         <v>0.02032</v>
       </c>
       <c r="S81" t="n">
-        <v>822.0875428082303</v>
+        <v>93.26667066798457</v>
       </c>
     </row>
     <row r="82">
@@ -5597,7 +5597,7 @@
         <v>7.722222222222221</v>
       </c>
       <c r="H82" t="n">
-        <v>39.3</v>
+        <v>4.055555555555554</v>
       </c>
       <c r="I82" t="n">
         <v>102.43</v>
@@ -5630,7 +5630,7 @@
         <v>0.02032</v>
       </c>
       <c r="S82" t="n">
-        <v>676.9342091081976</v>
+        <v>77.59446016380707</v>
       </c>
     </row>
     <row r="83">
@@ -5660,7 +5660,7 @@
         <v>9.833333333333336</v>
       </c>
       <c r="H83" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I83" t="n">
         <v>101.82</v>
@@ -5693,7 +5693,7 @@
         <v>0.02032</v>
       </c>
       <c r="S83" t="n">
-        <v>688.5267075312294</v>
+        <v>75.56581950780379</v>
       </c>
     </row>
     <row r="84">
@@ -5723,7 +5723,7 @@
         <v>14.5</v>
       </c>
       <c r="H84" t="n">
-        <v>50.8</v>
+        <v>10.44444444444444</v>
       </c>
       <c r="I84" t="n">
         <v>100.95</v>
@@ -5756,7 +5756,7 @@
         <v>0.02032</v>
       </c>
       <c r="S84" t="n">
-        <v>782.2388638506898</v>
+        <v>76.61827866575688</v>
       </c>
     </row>
     <row r="85">
@@ -5786,7 +5786,7 @@
         <v>12.22222222222222</v>
       </c>
       <c r="H85" t="n">
-        <v>51.2</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="I85" t="n">
         <v>100.8</v>
@@ -5819,7 +5819,7 @@
         <v>0.02032</v>
       </c>
       <c r="S85" t="n">
-        <v>925.6990500662649</v>
+        <v>90.21490611364439</v>
       </c>
     </row>
     <row r="86">
@@ -5849,7 +5849,7 @@
         <v>12.61111111111111</v>
       </c>
       <c r="H86" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I86" t="n">
         <v>101.82</v>
@@ -5882,7 +5882,7 @@
         <v>0.02032</v>
       </c>
       <c r="S86" t="n">
-        <v>600.4046827507091</v>
+        <v>65.06335251844192</v>
       </c>
     </row>
     <row r="87">
@@ -5912,7 +5912,7 @@
         <v>12.22222222222222</v>
       </c>
       <c r="H87" t="n">
-        <v>39.3</v>
+        <v>4.055555555555554</v>
       </c>
       <c r="I87" t="n">
         <v>102.24</v>
@@ -5945,7 +5945,7 @@
         <v>0.02032</v>
       </c>
       <c r="S87" t="n">
-        <v>500.7911643631977</v>
+        <v>57.40383560281226</v>
       </c>
     </row>
     <row r="88">
@@ -5975,7 +5975,7 @@
         <v>12.55555555555556</v>
       </c>
       <c r="H88" t="n">
-        <v>44.8</v>
+        <v>7.11111111111111</v>
       </c>
       <c r="I88" t="n">
         <v>102.16</v>
@@ -6008,7 +6008,7 @@
         <v>0.02032</v>
       </c>
       <c r="S88" t="n">
-        <v>654.9356999858513</v>
+        <v>69.41606536638261</v>
       </c>
     </row>
     <row r="89">
@@ -6038,7 +6038,7 @@
         <v>15.77777777777778</v>
       </c>
       <c r="H89" t="n">
-        <v>51</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="I89" t="n">
         <v>101.63</v>
@@ -6071,7 +6071,7 @@
         <v>0.02032</v>
       </c>
       <c r="S89" t="n">
-        <v>727.7090244611795</v>
+        <v>71.09793445723365</v>
       </c>
     </row>
     <row r="90">
@@ -6101,7 +6101,7 @@
         <v>16.38888888888889</v>
       </c>
       <c r="H90" t="n">
-        <v>54</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="I90" t="n">
         <v>102.18</v>
@@ -6134,7 +6134,7 @@
         <v>0.02032</v>
       </c>
       <c r="S90" t="n">
-        <v>810.9509911023108</v>
+        <v>76.35672149226613</v>
       </c>
     </row>
     <row r="91">
@@ -6164,7 +6164,7 @@
         <v>10.11111111111111</v>
       </c>
       <c r="H91" t="n">
-        <v>40.2</v>
+        <v>4.555555555555557</v>
       </c>
       <c r="I91" t="n">
         <v>103.17</v>
@@ -6197,7 +6197,7 @@
         <v>0.02032</v>
       </c>
       <c r="S91" t="n">
-        <v>604.5676515628782</v>
+        <v>68.38840397562414</v>
       </c>
     </row>
     <row r="92">
@@ -6227,7 +6227,7 @@
         <v>9.388888888888889</v>
       </c>
       <c r="H92" t="n">
-        <v>31.2</v>
+        <v>-0.4444444444444449</v>
       </c>
       <c r="I92" t="n">
         <v>103.26</v>
@@ -6260,7 +6260,7 @@
         <v>0.02032</v>
       </c>
       <c r="S92" t="n">
-        <v>386.091914269098</v>
+        <v>50.24109946489052</v>
       </c>
     </row>
     <row r="93">
@@ -6290,7 +6290,7 @@
         <v>10.61111111111111</v>
       </c>
       <c r="H93" t="n">
-        <v>36.9</v>
+        <v>2.722222222222221</v>
       </c>
       <c r="I93" t="n">
         <v>102.86</v>
@@ -6323,7 +6323,7 @@
         <v>0.02032</v>
       </c>
       <c r="S93" t="n">
-        <v>489.1368042205431</v>
+        <v>58.12926857433076</v>
       </c>
     </row>
     <row r="94">
@@ -6353,7 +6353,7 @@
         <v>12.77777777777778</v>
       </c>
       <c r="H94" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I94" t="n">
         <v>102.71</v>
@@ -6386,7 +6386,7 @@
         <v>0.02032</v>
       </c>
       <c r="S94" t="n">
-        <v>470.0165286213153</v>
+        <v>54.27766503400188</v>
       </c>
     </row>
     <row r="95">
@@ -6416,7 +6416,7 @@
         <v>15.77777777777778</v>
       </c>
       <c r="H95" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I95" t="n">
         <v>102.37</v>
@@ -6449,7 +6449,7 @@
         <v>0.02032</v>
       </c>
       <c r="S95" t="n">
-        <v>444.7899838346247</v>
+        <v>49.44713802986216</v>
       </c>
     </row>
     <row r="96">
@@ -6479,7 +6479,7 @@
         <v>18.22222222222222</v>
       </c>
       <c r="H96" t="n">
-        <v>48.6</v>
+        <v>9.222222222222223</v>
       </c>
       <c r="I96" t="n">
         <v>101.88</v>
@@ -6512,7 +6512,7 @@
         <v>0.02032</v>
       </c>
       <c r="S96" t="n">
-        <v>552.7291027779603</v>
+        <v>55.685208029926</v>
       </c>
     </row>
     <row r="97">
@@ -6542,7 +6542,7 @@
         <v>19.33333333333333</v>
       </c>
       <c r="H97" t="n">
-        <v>54.3</v>
+        <v>12.38888888888889</v>
       </c>
       <c r="I97" t="n">
         <v>101.86</v>
@@ -6575,7 +6575,7 @@
         <v>0.02032</v>
       </c>
       <c r="S97" t="n">
-        <v>683.5558716784701</v>
+        <v>64.12960773055825</v>
       </c>
     </row>
     <row r="98">
@@ -6605,7 +6605,7 @@
         <v>17</v>
       </c>
       <c r="H98" t="n">
-        <v>57.1</v>
+        <v>13.94444444444445</v>
       </c>
       <c r="I98" t="n">
         <v>101.78</v>
@@ -6638,7 +6638,7 @@
         <v>0.02032</v>
       </c>
       <c r="S98" t="n">
-        <v>905.5283930536191</v>
+        <v>82.19831566315085</v>
       </c>
     </row>
     <row r="99">
@@ -6668,7 +6668,7 @@
         <v>23.72222222222222</v>
       </c>
       <c r="H99" t="n">
-        <v>45.6</v>
+        <v>7.555555555555556</v>
       </c>
       <c r="I99" t="n">
         <v>101.16</v>
@@ -6701,7 +6701,7 @@
         <v>0.02032</v>
       </c>
       <c r="S99" t="n">
-        <v>338.2039833169271</v>
+        <v>35.45718009447766</v>
       </c>
     </row>
     <row r="100">
@@ -6731,7 +6731,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H100" t="n">
-        <v>51.2</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="I100" t="n">
         <v>100.85</v>
@@ -6764,7 +6764,7 @@
         <v>0.02032</v>
       </c>
       <c r="S100" t="n">
-        <v>470.3424675519876</v>
+        <v>45.83768509692752</v>
       </c>
     </row>
     <row r="101">
@@ -6794,7 +6794,7 @@
         <v>24.88888888888889</v>
       </c>
       <c r="H101" t="n">
-        <v>53.7</v>
+        <v>12.05555555555556</v>
       </c>
       <c r="I101" t="n">
         <v>100.75</v>
@@ -6827,7 +6827,7 @@
         <v>0.02032</v>
       </c>
       <c r="S101" t="n">
-        <v>473.0881452077366</v>
+        <v>44.70636860965092</v>
       </c>
     </row>
     <row r="102">
@@ -6857,7 +6857,7 @@
         <v>26.11111111111111</v>
       </c>
       <c r="H102" t="n">
-        <v>59.7</v>
+        <v>15.38888888888889</v>
       </c>
       <c r="I102" t="n">
         <v>100.68</v>
@@ -6890,7 +6890,7 @@
         <v>0.02032</v>
       </c>
       <c r="S102" t="n">
-        <v>585.8691899864102</v>
+        <v>51.63601547638466</v>
       </c>
     </row>
     <row r="103">
@@ -6920,7 +6920,7 @@
         <v>18.66666666666666</v>
       </c>
       <c r="H103" t="n">
-        <v>54</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="I103" t="n">
         <v>101.1</v>
@@ -6953,7 +6953,7 @@
         <v>0.02032</v>
       </c>
       <c r="S103" t="n">
-        <v>702.3044202665217</v>
+        <v>66.12688511322472</v>
       </c>
     </row>
     <row r="104">
@@ -6983,7 +6983,7 @@
         <v>11.83333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>40.4</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="I104" t="n">
         <v>101.48</v>
@@ -7016,7 +7016,7 @@
         <v>0.02032</v>
       </c>
       <c r="S104" t="n">
-        <v>544.9888696255408</v>
+        <v>61.46924448714628</v>
       </c>
     </row>
     <row r="105">
@@ -7046,7 +7046,7 @@
         <v>14.61111111111111</v>
       </c>
       <c r="H105" t="n">
-        <v>45.4</v>
+        <v>7.444444444444444</v>
       </c>
       <c r="I105" t="n">
         <v>102.03</v>
@@ -7079,7 +7079,7 @@
         <v>0.02032</v>
       </c>
       <c r="S105" t="n">
-        <v>590.938179296335</v>
+        <v>62.12216163369246</v>
       </c>
     </row>
     <row r="106">
@@ -7109,7 +7109,7 @@
         <v>14.44444444444444</v>
       </c>
       <c r="H106" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I106" t="n">
         <v>102.36</v>
@@ -7142,7 +7142,7 @@
         <v>0.02032</v>
       </c>
       <c r="S106" t="n">
-        <v>428.576099597115</v>
+        <v>49.27186781474015</v>
       </c>
     </row>
     <row r="107">
@@ -7172,7 +7172,7 @@
         <v>12.66666666666667</v>
       </c>
       <c r="H107" t="n">
-        <v>35.5</v>
+        <v>1.944444444444445</v>
       </c>
       <c r="I107" t="n">
         <v>102.18</v>
@@ -7205,7 +7205,7 @@
         <v>0.02032</v>
       </c>
       <c r="S107" t="n">
-        <v>395.3515929335646</v>
+        <v>48.01081509824285</v>
       </c>
     </row>
     <row r="108">
@@ -7235,7 +7235,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H108" t="n">
-        <v>40.4</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="I108" t="n">
         <v>101.87</v>
@@ -7268,7 +7268,7 @@
         <v>0.02032</v>
       </c>
       <c r="S108" t="n">
-        <v>417.2752004453417</v>
+        <v>47.06443148503453</v>
       </c>
     </row>
     <row r="109">
@@ -7298,7 +7298,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H109" t="n">
-        <v>47.3</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="I109" t="n">
         <v>101.84</v>
@@ -7331,7 +7331,7 @@
         <v>0.02032</v>
       </c>
       <c r="S109" t="n">
-        <v>566.9396488242</v>
+        <v>58.09940424540184</v>
       </c>
     </row>
     <row r="110">
@@ -7361,7 +7361,7 @@
         <v>21.38888888888889</v>
       </c>
       <c r="H110" t="n">
-        <v>56</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I110" t="n">
         <v>100.7</v>
@@ -7394,7 +7394,7 @@
         <v>0.02032</v>
       </c>
       <c r="S110" t="n">
-        <v>653.461417895954</v>
+        <v>60.08158524705676</v>
       </c>
     </row>
     <row r="111">
@@ -7424,7 +7424,7 @@
         <v>24.44444444444445</v>
       </c>
       <c r="H111" t="n">
-        <v>59.7</v>
+        <v>15.38888888888889</v>
       </c>
       <c r="I111" t="n">
         <v>100.91</v>
@@ -7457,7 +7457,7 @@
         <v>0.02032</v>
       </c>
       <c r="S111" t="n">
-        <v>647.0106879324834</v>
+        <v>57.02476673375322</v>
       </c>
     </row>
     <row r="112">
@@ -7487,7 +7487,7 @@
         <v>22.16666666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>59.8</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="I112" t="n">
         <v>100.95</v>
@@ -7520,7 +7520,7 @@
         <v>0.02032</v>
       </c>
       <c r="S112" t="n">
-        <v>745.9956463658641</v>
+        <v>65.67573451499217</v>
       </c>
     </row>
     <row r="113">
@@ -7550,7 +7550,7 @@
         <v>24.94444444444445</v>
       </c>
       <c r="H113" t="n">
-        <v>64.40000000000001</v>
+        <v>18</v>
       </c>
       <c r="I113" t="n">
         <v>100.55</v>
@@ -7583,7 +7583,7 @@
         <v>0.02032</v>
       </c>
       <c r="S113" t="n">
-        <v>779.8265162816481</v>
+        <v>65.33486410110909</v>
       </c>
     </row>
     <row r="114">
@@ -7613,7 +7613,7 @@
         <v>19.61111111111111</v>
       </c>
       <c r="H114" t="n">
-        <v>64.8</v>
+        <v>18.22222222222222</v>
       </c>
       <c r="I114" t="n">
         <v>100.29</v>
@@ -7646,7 +7646,7 @@
         <v>0.02032</v>
       </c>
       <c r="S114" t="n">
-        <v>1098.933336126119</v>
+        <v>91.68781299561329</v>
       </c>
     </row>
     <row r="115">
@@ -7676,7 +7676,7 @@
         <v>13.38888888888889</v>
       </c>
       <c r="H115" t="n">
-        <v>46.8</v>
+        <v>8.222222222222221</v>
       </c>
       <c r="I115" t="n">
         <v>101.67</v>
@@ -7709,7 +7709,7 @@
         <v>0.02032</v>
       </c>
       <c r="S115" t="n">
-        <v>687.3518746622188</v>
+        <v>70.90857661832163</v>
       </c>
     </row>
     <row r="116">
@@ -7739,7 +7739,7 @@
         <v>13.88888888888889</v>
       </c>
       <c r="H116" t="n">
-        <v>47.9</v>
+        <v>8.833333333333332</v>
       </c>
       <c r="I116" t="n">
         <v>102.1</v>
@@ -7772,7 +7772,7 @@
         <v>0.02032</v>
       </c>
       <c r="S116" t="n">
-        <v>703.6343216834643</v>
+        <v>71.53959226358923</v>
       </c>
     </row>
     <row r="117">
@@ -7802,7 +7802,7 @@
         <v>15.44444444444444</v>
       </c>
       <c r="H117" t="n">
-        <v>48</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="I117" t="n">
         <v>101.89</v>
@@ -7835,7 +7835,7 @@
         <v>0.02032</v>
       </c>
       <c r="S117" t="n">
-        <v>639.6384489585533</v>
+        <v>64.94776632775326</v>
       </c>
     </row>
     <row r="118">
@@ -7865,7 +7865,7 @@
         <v>19.66666666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>52.3</v>
+        <v>11.27777777777778</v>
       </c>
       <c r="I118" t="n">
         <v>101.67</v>
@@ -7898,7 +7898,7 @@
         <v>0.02032</v>
       </c>
       <c r="S118" t="n">
-        <v>607.216334702478</v>
+        <v>58.3723015097108</v>
       </c>
     </row>
     <row r="119">
@@ -7928,7 +7928,7 @@
         <v>21.5</v>
       </c>
       <c r="H119" t="n">
-        <v>49.1</v>
+        <v>9.500000000000002</v>
       </c>
       <c r="I119" t="n">
         <v>101.37</v>
@@ -7961,7 +7961,7 @@
         <v>0.02032</v>
       </c>
       <c r="S119" t="n">
-        <v>462.5229986528222</v>
+        <v>46.2964107328536</v>
       </c>
     </row>
     <row r="120">
@@ -7991,7 +7991,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H120" t="n">
-        <v>48.6</v>
+        <v>9.222222222222223</v>
       </c>
       <c r="I120" t="n">
         <v>101</v>
@@ -8024,7 +8024,7 @@
         <v>0.02032</v>
       </c>
       <c r="S120" t="n">
-        <v>381.1137869058384</v>
+        <v>38.39566326481251</v>
       </c>
     </row>
     <row r="121">
@@ -8054,7 +8054,7 @@
         <v>19.05555555555555</v>
       </c>
       <c r="H121" t="n">
-        <v>57.9</v>
+        <v>14.38888888888889</v>
       </c>
       <c r="I121" t="n">
         <v>101.77</v>
@@ -8087,7 +8087,7 @@
         <v>0.02032</v>
       </c>
       <c r="S121" t="n">
-        <v>826.4997664469383</v>
+        <v>74.33832671927357</v>
       </c>
     </row>
     <row r="122">
@@ -8117,7 +8117,7 @@
         <v>19.72222222222222</v>
       </c>
       <c r="H122" t="n">
-        <v>52.3</v>
+        <v>11.27777777777778</v>
       </c>
       <c r="I122" t="n">
         <v>101.63</v>
@@ -8150,7 +8150,7 @@
         <v>0.02032</v>
       </c>
       <c r="S122" t="n">
-        <v>605.1246128843818</v>
+        <v>58.17122224082028</v>
       </c>
     </row>
     <row r="123">
@@ -8180,7 +8180,7 @@
         <v>16.94444444444445</v>
       </c>
       <c r="H123" t="n">
-        <v>49.2</v>
+        <v>9.555555555555557</v>
       </c>
       <c r="I123" t="n">
         <v>101.61</v>
@@ -8213,7 +8213,7 @@
         <v>0.02032</v>
       </c>
       <c r="S123" t="n">
-        <v>617.5243812900824</v>
+        <v>61.73162893835389</v>
       </c>
     </row>
     <row r="124">
@@ -8243,7 +8243,7 @@
         <v>18.16666666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>58.1</v>
+        <v>14.5</v>
       </c>
       <c r="I124" t="n">
         <v>101.42</v>
@@ -8276,7 +8276,7 @@
         <v>0.02032</v>
       </c>
       <c r="S124" t="n">
-        <v>882.1262282917536</v>
+        <v>79.16077260264885</v>
       </c>
     </row>
     <row r="125">
@@ -8306,7 +8306,7 @@
         <v>19.83333333333334</v>
       </c>
       <c r="H125" t="n">
-        <v>57.1</v>
+        <v>13.94444444444445</v>
       </c>
       <c r="I125" t="n">
         <v>101.17</v>
@@ -8339,7 +8339,7 @@
         <v>0.02032</v>
       </c>
       <c r="S125" t="n">
-        <v>758.0925378174398</v>
+        <v>68.81499266440699</v>
       </c>
     </row>
     <row r="126">
@@ -8369,7 +8369,7 @@
         <v>13.22222222222222</v>
       </c>
       <c r="H126" t="n">
-        <v>51.2</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="I126" t="n">
         <v>101.51</v>
@@ -8402,7 +8402,7 @@
         <v>0.02032</v>
       </c>
       <c r="S126" t="n">
-        <v>866.974541780068</v>
+        <v>84.4918517351939</v>
       </c>
     </row>
     <row r="127">
@@ -8432,7 +8432,7 @@
         <v>17.61111111111111</v>
       </c>
       <c r="H127" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I127" t="n">
         <v>101.79</v>
@@ -8465,7 +8465,7 @@
         <v>0.02032</v>
       </c>
       <c r="S127" t="n">
-        <v>631.7780468866605</v>
+        <v>62.11606224296702</v>
       </c>
     </row>
     <row r="128">
@@ -8495,7 +8495,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H128" t="n">
-        <v>45.2</v>
+        <v>7.333333333333335</v>
       </c>
       <c r="I128" t="n">
         <v>101.57</v>
@@ -8528,7 +8528,7 @@
         <v>0.02032</v>
       </c>
       <c r="S128" t="n">
-        <v>484.6253259564269</v>
+        <v>51.08494500661676</v>
       </c>
     </row>
     <row r="129">
@@ -8558,7 +8558,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H129" t="n">
-        <v>44.8</v>
+        <v>7.11111111111111</v>
       </c>
       <c r="I129" t="n">
         <v>101.3</v>
@@ -8591,7 +8591,7 @@
         <v>0.02032</v>
       </c>
       <c r="S129" t="n">
-        <v>321.280534397816</v>
+        <v>34.05224448321709</v>
       </c>
     </row>
     <row r="130">
@@ -8621,7 +8621,7 @@
         <v>23</v>
       </c>
       <c r="H130" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I130" t="n">
         <v>101.58</v>
@@ -8654,7 +8654,7 @@
         <v>0.02032</v>
       </c>
       <c r="S130" t="n">
-        <v>461.8392703990856</v>
+        <v>45.17899754448578</v>
       </c>
     </row>
     <row r="131">
@@ -8684,7 +8684,7 @@
         <v>23.11111111111111</v>
       </c>
       <c r="H131" t="n">
-        <v>54.2</v>
+        <v>12.33333333333334</v>
       </c>
       <c r="I131" t="n">
         <v>101.2</v>
@@ -8717,7 +8717,7 @@
         <v>0.02032</v>
       </c>
       <c r="S131" t="n">
-        <v>539.4203202095918</v>
+        <v>50.66800904057263</v>
       </c>
     </row>
     <row r="132">
@@ -8747,7 +8747,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H132" t="n">
-        <v>53.3</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="I132" t="n">
         <v>100.72</v>
@@ -8780,7 +8780,7 @@
         <v>0.02032</v>
       </c>
       <c r="S132" t="n">
-        <v>492.6139890972351</v>
+        <v>46.77824060471916</v>
       </c>
     </row>
     <row r="133">
@@ -8810,7 +8810,7 @@
         <v>26</v>
       </c>
       <c r="H133" t="n">
-        <v>59.5</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="I133" t="n">
         <v>100.94</v>
@@ -8843,7 +8843,7 @@
         <v>0.02032</v>
       </c>
       <c r="S133" t="n">
-        <v>584.2384712784683</v>
+        <v>51.60729269817049</v>
       </c>
     </row>
     <row r="134">
@@ -8873,7 +8873,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H134" t="n">
-        <v>59.5</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="I134" t="n">
         <v>100.92</v>
@@ -8906,7 +8906,7 @@
         <v>0.02032</v>
       </c>
       <c r="S134" t="n">
-        <v>664.9445914285553</v>
+        <v>58.73627267787823</v>
       </c>
     </row>
     <row r="135">
@@ -8936,7 +8936,7 @@
         <v>19.61111111111111</v>
       </c>
       <c r="H135" t="n">
-        <v>59.7</v>
+        <v>15.38888888888889</v>
       </c>
       <c r="I135" t="n">
         <v>100.73</v>
@@ -8969,7 +8969,7 @@
         <v>0.02032</v>
       </c>
       <c r="S135" t="n">
-        <v>869.0031206029719</v>
+        <v>76.59023439263372</v>
       </c>
     </row>
     <row r="136">
@@ -8999,7 +8999,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H136" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I136" t="n">
         <v>99.97999999999999</v>
@@ -9032,7 +9032,7 @@
         <v>0.02032</v>
       </c>
       <c r="S136" t="n">
-        <v>795.245926695869</v>
+        <v>64.61630105651082</v>
       </c>
     </row>
     <row r="137">
@@ -9062,7 +9062,7 @@
         <v>22</v>
       </c>
       <c r="H137" t="n">
-        <v>55.9</v>
+        <v>13.27777777777778</v>
       </c>
       <c r="I137" t="n">
         <v>100.74</v>
@@ -9095,7 +9095,7 @@
         <v>0.02032</v>
       </c>
       <c r="S137" t="n">
-        <v>626.4679472783874</v>
+        <v>57.66735577962815</v>
       </c>
     </row>
     <row r="138">
@@ -9125,7 +9125,7 @@
         <v>23.5</v>
       </c>
       <c r="H138" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I138" t="n">
         <v>100.37</v>
@@ -9158,7 +9158,7 @@
         <v>0.02032</v>
       </c>
       <c r="S138" t="n">
-        <v>956.0361330675031</v>
+        <v>77.99322729769183</v>
       </c>
     </row>
     <row r="139">
@@ -9188,7 +9188,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H139" t="n">
-        <v>66.5</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="I139" t="n">
         <v>100.235</v>
@@ -9221,7 +9221,7 @@
         <v>0.02032</v>
       </c>
       <c r="S139" t="n">
-        <v>677.5022305288384</v>
+        <v>55.55006423624916</v>
       </c>
     </row>
     <row r="140">
@@ -9251,7 +9251,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H140" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I140" t="n">
         <v>100.1</v>
@@ -9284,7 +9284,7 @@
         <v>0.02032</v>
       </c>
       <c r="S140" t="n">
-        <v>1101.73385243463</v>
+        <v>83.37017978330444</v>
       </c>
     </row>
     <row r="141">
@@ -9314,7 +9314,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H141" t="n">
-        <v>72.90000000000001</v>
+        <v>22.72222222222222</v>
       </c>
       <c r="I141" t="n">
         <v>100.04</v>
@@ -9347,7 +9347,7 @@
         <v>0.02032</v>
       </c>
       <c r="S141" t="n">
-        <v>988.6766315943623</v>
+        <v>76.19255222779982</v>
       </c>
     </row>
     <row r="142">
@@ -9377,7 +9377,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H142" t="n">
-        <v>61.4</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="I142" t="n">
         <v>100.22</v>
@@ -9410,7 +9410,7 @@
         <v>0.02032</v>
       </c>
       <c r="S142" t="n">
-        <v>523.4974741031073</v>
+        <v>45.28347822510801</v>
       </c>
     </row>
     <row r="143">
@@ -9440,7 +9440,7 @@
         <v>24.83333333333334</v>
       </c>
       <c r="H143" t="n">
-        <v>55.6</v>
+        <v>13.11111111111111</v>
       </c>
       <c r="I143" t="n">
         <v>100.76</v>
@@ -9473,7 +9473,7 @@
         <v>0.02032</v>
       </c>
       <c r="S143" t="n">
-        <v>520.38354778832</v>
+        <v>48.07156515500014</v>
       </c>
     </row>
     <row r="144">
@@ -9503,7 +9503,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H144" t="n">
-        <v>60.9</v>
+        <v>16.05555555555556</v>
       </c>
       <c r="I144" t="n">
         <v>100.59</v>
@@ -9536,7 +9536,7 @@
         <v>0.02032</v>
       </c>
       <c r="S144" t="n">
-        <v>595.6632284250211</v>
+        <v>51.80792674309911</v>
       </c>
     </row>
     <row r="145">
@@ -9566,7 +9566,7 @@
         <v>30.27777777777778</v>
       </c>
       <c r="H145" t="n">
-        <v>65.90000000000001</v>
+        <v>18.83333333333334</v>
       </c>
       <c r="I145" t="n">
         <v>100.67</v>
@@ -9599,7 +9599,7 @@
         <v>0.02032</v>
       </c>
       <c r="S145" t="n">
-        <v>610.6869640620345</v>
+        <v>50.37817027433518</v>
       </c>
     </row>
     <row r="146">
@@ -9629,7 +9629,7 @@
         <v>24</v>
       </c>
       <c r="H146" t="n">
-        <v>66.09999999999999</v>
+        <v>18.94444444444444</v>
       </c>
       <c r="I146" t="n">
         <v>100.83</v>
@@ -9662,7 +9662,7 @@
         <v>0.02032</v>
       </c>
       <c r="S146" t="n">
-        <v>891.0425850993101</v>
+        <v>73.35613088490548</v>
       </c>
     </row>
     <row r="147">
@@ -9692,7 +9692,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H147" t="n">
-        <v>65.5</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="I147" t="n">
         <v>100.53</v>
@@ -9725,7 +9725,7 @@
         <v>0.02032</v>
       </c>
       <c r="S147" t="n">
-        <v>706.9267104064295</v>
+        <v>58.55677922354327</v>
       </c>
     </row>
     <row r="148">
@@ -9755,7 +9755,7 @@
         <v>30.27777777777778</v>
       </c>
       <c r="H148" t="n">
-        <v>66.5</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="I148" t="n">
         <v>100.35</v>
@@ -9788,7 +9788,7 @@
         <v>0.02032</v>
       </c>
       <c r="S148" t="n">
-        <v>627.3472011978208</v>
+        <v>51.43773076255089</v>
       </c>
     </row>
     <row r="149">
@@ -9818,7 +9818,7 @@
         <v>30.88888888888889</v>
       </c>
       <c r="H149" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I149" t="n">
         <v>100.28</v>
@@ -9851,7 +9851,7 @@
         <v>0.02032</v>
       </c>
       <c r="S149" t="n">
-        <v>673.9304866240882</v>
+        <v>53.95231287884946</v>
       </c>
     </row>
     <row r="150">
@@ -9881,7 +9881,7 @@
         <v>32.16666666666667</v>
       </c>
       <c r="H150" t="n">
-        <v>70.2</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="I150" t="n">
         <v>100.18</v>
@@ -9914,7 +9914,7 @@
         <v>0.02032</v>
       </c>
       <c r="S150" t="n">
-        <v>663.4932853710289</v>
+        <v>52.45106875445757</v>
       </c>
     </row>
     <row r="151">
@@ -9944,7 +9944,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H151" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I151" t="n">
         <v>100.12</v>
@@ -9977,7 +9977,7 @@
         <v>0.02032</v>
       </c>
       <c r="S151" t="n">
-        <v>1080.729948175555</v>
+        <v>81.27002836010246</v>
       </c>
     </row>
     <row r="152">
@@ -10007,7 +10007,7 @@
         <v>32.44444444444445</v>
       </c>
       <c r="H152" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I152" t="n">
         <v>100.09</v>
@@ -10040,7 +10040,7 @@
         <v>0.02032</v>
       </c>
       <c r="S152" t="n">
-        <v>888.5107695205429</v>
+        <v>65.76616142496231</v>
       </c>
     </row>
     <row r="153">
@@ -10070,7 +10070,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>72.40000000000001</v>
+        <v>22.44444444444445</v>
       </c>
       <c r="I153" t="n">
         <v>100.46</v>
@@ -10103,7 +10103,7 @@
         <v>0.02032</v>
       </c>
       <c r="S153" t="n">
-        <v>1003.035526351237</v>
+        <v>77.65884491676304</v>
       </c>
     </row>
     <row r="154">
@@ -10133,7 +10133,7 @@
         <v>30.55555555555556</v>
       </c>
       <c r="H154" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I154" t="n">
         <v>100.55</v>
@@ -10166,7 +10166,7 @@
         <v>0.02032</v>
       </c>
       <c r="S154" t="n">
-        <v>948.7090016138417</v>
+        <v>70.83855110296453</v>
       </c>
     </row>
     <row r="155">
@@ -10196,7 +10196,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H155" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I155" t="n">
         <v>100.15</v>
@@ -10229,7 +10229,7 @@
         <v>0.02032</v>
       </c>
       <c r="S155" t="n">
-        <v>1290.333280319454</v>
+        <v>95.17831628790606</v>
       </c>
     </row>
     <row r="156">
@@ -10259,7 +10259,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H156" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I156" t="n">
         <v>99.92</v>
@@ -10292,7 +10292,7 @@
         <v>0.02032</v>
       </c>
       <c r="S156" t="n">
-        <v>1235.000400838825</v>
+        <v>91.49221793068601</v>
       </c>
     </row>
     <row r="157">
@@ -10322,7 +10322,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H157" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I157" t="n">
         <v>100.4</v>
@@ -10355,7 +10355,7 @@
         <v>0.02032</v>
       </c>
       <c r="S157" t="n">
-        <v>1093.627440520173</v>
+        <v>80.87838561139723</v>
       </c>
     </row>
     <row r="158">
@@ -10385,7 +10385,7 @@
         <v>30.77777777777778</v>
       </c>
       <c r="H158" t="n">
-        <v>80</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="I158" t="n">
         <v>100.27</v>
@@ -10418,7 +10418,7 @@
         <v>0.02032</v>
       </c>
       <c r="S158" t="n">
-        <v>1087.957100444344</v>
+        <v>78.76425166957239</v>
       </c>
     </row>
     <row r="159">
@@ -10448,7 +10448,7 @@
         <v>31</v>
       </c>
       <c r="H159" t="n">
-        <v>80.40000000000001</v>
+        <v>26.88888888888889</v>
       </c>
       <c r="I159" t="n">
         <v>100.14</v>
@@ -10481,7 +10481,7 @@
         <v>0.02032</v>
       </c>
       <c r="S159" t="n">
-        <v>1092.017937421107</v>
+        <v>78.79491879866588</v>
       </c>
     </row>
     <row r="160">
@@ -10511,7 +10511,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H160" t="n">
-        <v>79.5</v>
+        <v>26.38888888888889</v>
       </c>
       <c r="I160" t="n">
         <v>100.11</v>
@@ -10544,7 +10544,7 @@
         <v>0.02032</v>
       </c>
       <c r="S160" t="n">
-        <v>1154.369299592545</v>
+        <v>83.92377390542836</v>
       </c>
     </row>
     <row r="161">
@@ -10574,7 +10574,7 @@
         <v>32.22222222222222</v>
       </c>
       <c r="H161" t="n">
-        <v>79.8</v>
+        <v>26.55555555555555</v>
       </c>
       <c r="I161" t="n">
         <v>100.15</v>
@@ -10607,7 +10607,7 @@
         <v>0.02032</v>
       </c>
       <c r="S161" t="n">
-        <v>993.9110159491241</v>
+        <v>72.07629688832596</v>
       </c>
     </row>
     <row r="162">
@@ -10637,7 +10637,7 @@
         <v>31.55555555555556</v>
       </c>
       <c r="H162" t="n">
-        <v>80.90000000000001</v>
+        <v>27.16666666666667</v>
       </c>
       <c r="I162" t="n">
         <v>100.12</v>
@@ -10670,7 +10670,7 @@
         <v>0.02032</v>
       </c>
       <c r="S162" t="n">
-        <v>1079.872092358483</v>
+        <v>77.59633240908427</v>
       </c>
     </row>
     <row r="163">
@@ -10700,7 +10700,7 @@
         <v>30.5</v>
       </c>
       <c r="H163" t="n">
-        <v>80.5</v>
+        <v>26.94444444444445</v>
       </c>
       <c r="I163" t="n">
         <v>99.97999999999999</v>
@@ -10733,7 +10733,7 @@
         <v>0.02032</v>
       </c>
       <c r="S163" t="n">
-        <v>1128.320597226661</v>
+        <v>81.34671389478369</v>
       </c>
     </row>
     <row r="164">
@@ -10763,7 +10763,7 @@
         <v>30.66666666666667</v>
       </c>
       <c r="H164" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I164" t="n">
         <v>100.24</v>
@@ -10796,7 +10796,7 @@
         <v>0.02032</v>
       </c>
       <c r="S164" t="n">
-        <v>907.59007681129</v>
+        <v>68.3108987516281</v>
       </c>
     </row>
     <row r="165">
@@ -10826,7 +10826,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H165" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I165" t="n">
         <v>100.5</v>
@@ -10859,7 +10859,7 @@
         <v>0.02032</v>
       </c>
       <c r="S165" t="n">
-        <v>1223.952287448454</v>
+        <v>92.04023380703985</v>
       </c>
     </row>
     <row r="166">
@@ -10889,7 +10889,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H166" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I166" t="n">
         <v>100.87</v>
@@ -10922,7 +10922,7 @@
         <v>0.02032</v>
       </c>
       <c r="S166" t="n">
-        <v>1028.134707555126</v>
+        <v>78.08201129550592</v>
       </c>
     </row>
     <row r="167">
@@ -10952,7 +10952,7 @@
         <v>30.44444444444444</v>
       </c>
       <c r="H167" t="n">
-        <v>79.09999999999999</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="I167" t="n">
         <v>100.52</v>
@@ -10985,7 +10985,7 @@
         <v>0.02032</v>
       </c>
       <c r="S167" t="n">
-        <v>1068.530303686379</v>
+        <v>77.94616681864383</v>
       </c>
     </row>
     <row r="168">
@@ -11015,7 +11015,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H168" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I168" t="n">
         <v>100.6</v>
@@ -11048,7 +11048,7 @@
         <v>0.02032</v>
       </c>
       <c r="S168" t="n">
-        <v>901.9170355140186</v>
+        <v>69.76486975853783</v>
       </c>
     </row>
     <row r="169">
@@ -11078,7 +11078,7 @@
         <v>29</v>
       </c>
       <c r="H169" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I169" t="n">
         <v>100.51</v>
@@ -11111,7 +11111,7 @@
         <v>0.02032</v>
       </c>
       <c r="S169" t="n">
-        <v>1132.79302880811</v>
+        <v>83.05691058738066</v>
       </c>
     </row>
     <row r="170">
@@ -11141,7 +11141,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H170" t="n">
-        <v>72.90000000000001</v>
+        <v>22.72222222222222</v>
       </c>
       <c r="I170" t="n">
         <v>100.6</v>
@@ -11174,7 +11174,7 @@
         <v>0.02032</v>
       </c>
       <c r="S170" t="n">
-        <v>1109.092855592137</v>
+        <v>85.47245138070015</v>
       </c>
     </row>
     <row r="171">
@@ -11204,7 +11204,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H171" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I171" t="n">
         <v>100.44</v>
@@ -11237,7 +11237,7 @@
         <v>0.02032</v>
       </c>
       <c r="S171" t="n">
-        <v>1220.271819603498</v>
+        <v>89.47089612631837</v>
       </c>
     </row>
     <row r="172">
@@ -11267,7 +11267,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H172" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I172" t="n">
         <v>100.36</v>
@@ -11300,7 +11300,7 @@
         <v>0.02032</v>
       </c>
       <c r="S172" t="n">
-        <v>1112.634135506762</v>
+        <v>81.71859766173297</v>
       </c>
     </row>
     <row r="173">
@@ -11330,7 +11330,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H173" t="n">
-        <v>79.5</v>
+        <v>26.38888888888889</v>
       </c>
       <c r="I173" t="n">
         <v>100.55</v>
@@ -11363,7 +11363,7 @@
         <v>0.02032</v>
       </c>
       <c r="S173" t="n">
-        <v>1143.313146255975</v>
+        <v>83.11998077509344</v>
       </c>
     </row>
     <row r="174">
@@ -11393,7 +11393,7 @@
         <v>30.38888888888889</v>
       </c>
       <c r="H174" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I174" t="n">
         <v>100.66</v>
@@ -11426,7 +11426,7 @@
         <v>0.02032</v>
       </c>
       <c r="S174" t="n">
-        <v>1045.628055850574</v>
+        <v>76.66593431795314</v>
       </c>
     </row>
     <row r="175">
@@ -11456,7 +11456,7 @@
         <v>31.05555555555556</v>
       </c>
       <c r="H175" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I175" t="n">
         <v>100.51</v>
@@ -11489,7 +11489,7 @@
         <v>0.02032</v>
       </c>
       <c r="S175" t="n">
-        <v>1002.324180794572</v>
+        <v>73.55374810944372</v>
       </c>
     </row>
     <row r="176">
@@ -11519,7 +11519,7 @@
         <v>31.22222222222222</v>
       </c>
       <c r="H176" t="n">
-        <v>79.7</v>
+        <v>26.5</v>
       </c>
       <c r="I176" t="n">
         <v>100.34</v>
@@ -11552,7 +11552,7 @@
         <v>0.02032</v>
       </c>
       <c r="S176" t="n">
-        <v>1047.679265149472</v>
+        <v>76.03925984285453</v>
       </c>
     </row>
     <row r="177">
@@ -11582,7 +11582,7 @@
         <v>31</v>
       </c>
       <c r="H177" t="n">
-        <v>79.7</v>
+        <v>26.5</v>
       </c>
       <c r="I177" t="n">
         <v>100.44</v>
@@ -11615,7 +11615,7 @@
         <v>0.02032</v>
       </c>
       <c r="S177" t="n">
-        <v>1061.047416107348</v>
+        <v>77.00950363608204</v>
       </c>
     </row>
     <row r="178">
@@ -11645,7 +11645,7 @@
         <v>30.77777777777778</v>
       </c>
       <c r="H178" t="n">
-        <v>80.09999999999999</v>
+        <v>26.72222222222222</v>
       </c>
       <c r="I178" t="n">
         <v>100.57</v>
@@ -11678,7 +11678,7 @@
         <v>0.02032</v>
       </c>
       <c r="S178" t="n">
-        <v>1092.437918309995</v>
+        <v>79.02256720212488</v>
       </c>
     </row>
     <row r="179">
@@ -11708,7 +11708,7 @@
         <v>30.61111111111111</v>
       </c>
       <c r="H179" t="n">
-        <v>79</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="I179" t="n">
         <v>100.47</v>
@@ -11741,7 +11741,7 @@
         <v>0.02032</v>
       </c>
       <c r="S179" t="n">
-        <v>1054.006597881279</v>
+        <v>76.95192352062523</v>
       </c>
     </row>
     <row r="180">
@@ -11771,7 +11771,7 @@
         <v>32.61111111111111</v>
       </c>
       <c r="H180" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I180" t="n">
         <v>100.18</v>
@@ -11804,7 +11804,7 @@
         <v>0.02032</v>
       </c>
       <c r="S180" t="n">
-        <v>880.187398567826</v>
+        <v>65.15007867565404</v>
       </c>
     </row>
     <row r="181">
@@ -11834,7 +11834,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H181" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I181" t="n">
         <v>100.5</v>
@@ -11867,7 +11867,7 @@
         <v>0.02032</v>
       </c>
       <c r="S181" t="n">
-        <v>1196.120114194401</v>
+        <v>87.47601380686227</v>
       </c>
     </row>
     <row r="182">
@@ -11897,7 +11897,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H182" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I182" t="n">
         <v>100.56</v>
@@ -11930,7 +11930,7 @@
         <v>0.02032</v>
       </c>
       <c r="S182" t="n">
-        <v>1064.817507337528</v>
+        <v>78.8161072189083</v>
       </c>
     </row>
     <row r="183">
@@ -11960,7 +11960,7 @@
         <v>24.94444444444445</v>
       </c>
       <c r="H183" t="n">
-        <v>71.2</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="I183" t="n">
         <v>101.01</v>
@@ -11993,7 +11993,7 @@
         <v>0.02032</v>
       </c>
       <c r="S183" t="n">
-        <v>1054.712544703092</v>
+        <v>82.58601902762641</v>
       </c>
     </row>
     <row r="184">
@@ -12023,7 +12023,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H184" t="n">
-        <v>71.5</v>
+        <v>21.94444444444445</v>
       </c>
       <c r="I184" t="n">
         <v>100.89</v>
@@ -12056,7 +12056,7 @@
         <v>0.02032</v>
       </c>
       <c r="S184" t="n">
-        <v>964.7520591898314</v>
+        <v>75.32790451916723</v>
       </c>
     </row>
     <row r="185">
@@ -12086,7 +12086,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="H185" t="n">
-        <v>67.8</v>
+        <v>19.88888888888889</v>
       </c>
       <c r="I185" t="n">
         <v>101.18</v>
@@ -12119,7 +12119,7 @@
         <v>0.02032</v>
       </c>
       <c r="S185" t="n">
-        <v>1010.853424044432</v>
+        <v>81.80816545837051</v>
       </c>
     </row>
     <row r="186">
@@ -12149,7 +12149,7 @@
         <v>25</v>
       </c>
       <c r="H186" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I186" t="n">
         <v>100.96</v>
@@ -12182,7 +12182,7 @@
         <v>0.02032</v>
       </c>
       <c r="S186" t="n">
-        <v>988.9186313532075</v>
+        <v>78.47891127036732</v>
       </c>
     </row>
     <row r="187">
@@ -12212,7 +12212,7 @@
         <v>21.22222222222222</v>
       </c>
       <c r="H187" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I187" t="n">
         <v>101.41</v>
@@ -12245,7 +12245,7 @@
         <v>0.02032</v>
       </c>
       <c r="S187" t="n">
-        <v>1127.974982785939</v>
+        <v>91.4687623828612</v>
       </c>
     </row>
     <row r="188">
@@ -12275,7 +12275,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H188" t="n">
-        <v>69.90000000000001</v>
+        <v>21.05555555555556</v>
       </c>
       <c r="I188" t="n">
         <v>101.52</v>
@@ -12308,7 +12308,7 @@
         <v>0.02032</v>
       </c>
       <c r="S188" t="n">
-        <v>960.9338933200225</v>
+        <v>76.18445867269131</v>
       </c>
     </row>
     <row r="189">
@@ -12338,7 +12338,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H189" t="n">
-        <v>61.1</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="I189" t="n">
         <v>100.74</v>
@@ -12371,7 +12371,7 @@
         <v>0.02032</v>
       </c>
       <c r="S189" t="n">
-        <v>644.1752854063674</v>
+        <v>55.90483843439647</v>
       </c>
     </row>
     <row r="190">
@@ -12401,7 +12401,7 @@
         <v>24.88888888888889</v>
       </c>
       <c r="H190" t="n">
-        <v>66.3</v>
+        <v>19.05555555555555</v>
       </c>
       <c r="I190" t="n">
         <v>100.72</v>
@@ -12434,7 +12434,7 @@
         <v>0.02032</v>
       </c>
       <c r="S190" t="n">
-        <v>852.4313052131678</v>
+        <v>70.03482496126297</v>
       </c>
     </row>
     <row r="191">
@@ -12464,7 +12464,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H191" t="n">
-        <v>67.90000000000001</v>
+        <v>19.94444444444445</v>
       </c>
       <c r="I191" t="n">
         <v>101.2</v>
@@ -12497,7 +12497,7 @@
         <v>0.02032</v>
       </c>
       <c r="S191" t="n">
-        <v>774.3161680082593</v>
+        <v>62.60301830631975</v>
       </c>
     </row>
     <row r="192">
@@ -12527,7 +12527,7 @@
         <v>26.11111111111111</v>
       </c>
       <c r="H192" t="n">
-        <v>65.5</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="I192" t="n">
         <v>101.75</v>
@@ -12560,7 +12560,7 @@
         <v>0.02032</v>
       </c>
       <c r="S192" t="n">
-        <v>764.6825083529751</v>
+        <v>63.34085861883313</v>
       </c>
     </row>
     <row r="193">
@@ -12590,7 +12590,7 @@
         <v>24.5</v>
       </c>
       <c r="H193" t="n">
-        <v>63.3</v>
+        <v>17.38888888888889</v>
       </c>
       <c r="I193" t="n">
         <v>101.84</v>
@@ -12623,7 +12623,7 @@
         <v>0.02032</v>
       </c>
       <c r="S193" t="n">
-        <v>761.6971876489168</v>
+        <v>64.55805242369208</v>
       </c>
     </row>
     <row r="194">
@@ -12653,7 +12653,7 @@
         <v>23.38888888888889</v>
       </c>
       <c r="H194" t="n">
-        <v>66.3</v>
+        <v>19.05555555555555</v>
       </c>
       <c r="I194" t="n">
         <v>101.62</v>
@@ -12686,7 +12686,7 @@
         <v>0.02032</v>
       </c>
       <c r="S194" t="n">
-        <v>932.8030346609794</v>
+        <v>76.63807846601767</v>
       </c>
     </row>
     <row r="195">
@@ -12716,7 +12716,7 @@
         <v>23</v>
       </c>
       <c r="H195" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I195" t="n">
         <v>101.27</v>
@@ -12749,7 +12749,7 @@
         <v>0.02032</v>
       </c>
       <c r="S195" t="n">
-        <v>742.9995990418183</v>
+        <v>64.69340961391048</v>
       </c>
     </row>
     <row r="196">
@@ -12779,7 +12779,7 @@
         <v>24.94444444444445</v>
       </c>
       <c r="H196" t="n">
-        <v>64.8</v>
+        <v>18.22222222222222</v>
       </c>
       <c r="I196" t="n">
         <v>101.27</v>
@@ -12812,7 +12812,7 @@
         <v>0.02032</v>
       </c>
       <c r="S196" t="n">
-        <v>794.094192666952</v>
+        <v>66.25402783285313</v>
       </c>
     </row>
     <row r="197">
@@ -12842,7 +12842,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H197" t="n">
-        <v>68.2</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="I197" t="n">
         <v>101.37</v>
@@ -12875,7 +12875,7 @@
         <v>0.02032</v>
       </c>
       <c r="S197" t="n">
-        <v>897.5199428487699</v>
+        <v>72.34859855074181</v>
       </c>
     </row>
     <row r="198">
@@ -12905,7 +12905,7 @@
         <v>23.55555555555556</v>
       </c>
       <c r="H198" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I198" t="n">
         <v>101.09</v>
@@ -12938,7 +12938,7 @@
         <v>0.02032</v>
       </c>
       <c r="S198" t="n">
-        <v>978.6448514071926</v>
+        <v>79.35941376065323</v>
       </c>
     </row>
     <row r="199">
@@ -12968,7 +12968,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H199" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I199" t="n">
         <v>100.49</v>
@@ -13001,7 +13001,7 @@
         <v>0.02032</v>
       </c>
       <c r="S199" t="n">
-        <v>1020.008091043131</v>
+        <v>82.63122931232164</v>
       </c>
     </row>
     <row r="200">
@@ -13031,7 +13031,7 @@
         <v>25.27777777777778</v>
       </c>
       <c r="H200" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I200" t="n">
         <v>100.8</v>
@@ -13064,7 +13064,7 @@
         <v>0.02032</v>
       </c>
       <c r="S200" t="n">
-        <v>874.8357270947635</v>
+        <v>71.0832295008603</v>
       </c>
     </row>
     <row r="201">
@@ -13094,7 +13094,7 @@
         <v>19.88888888888889</v>
       </c>
       <c r="H201" t="n">
-        <v>55.3</v>
+        <v>12.94444444444444</v>
       </c>
       <c r="I201" t="n">
         <v>101.78</v>
@@ -13127,7 +13127,7 @@
         <v>0.02032</v>
       </c>
       <c r="S201" t="n">
-        <v>693.071428381488</v>
+        <v>64.25140801997389</v>
       </c>
     </row>
     <row r="202">
@@ -13157,7 +13157,7 @@
         <v>20.77777777777778</v>
       </c>
       <c r="H202" t="n">
-        <v>48.8</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="I202" t="n">
         <v>101.91</v>
@@ -13190,7 +13190,7 @@
         <v>0.02032</v>
       </c>
       <c r="S202" t="n">
-        <v>476.2653271267642</v>
+        <v>47.85735835297928</v>
       </c>
     </row>
     <row r="203">
@@ -13220,7 +13220,7 @@
         <v>17.88888888888889</v>
       </c>
       <c r="H203" t="n">
-        <v>54</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="I203" t="n">
         <v>101.75</v>
@@ -13253,7 +13253,7 @@
         <v>0.02032</v>
       </c>
       <c r="S203" t="n">
-        <v>737.4523116752786</v>
+        <v>69.43630551567203</v>
       </c>
     </row>
     <row r="204">
@@ -13283,7 +13283,7 @@
         <v>20.88888888888889</v>
       </c>
       <c r="H204" t="n">
-        <v>58.5</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="I204" t="n">
         <v>101.6</v>
@@ -13316,7 +13316,7 @@
         <v>0.02032</v>
       </c>
       <c r="S204" t="n">
-        <v>758.942871300831</v>
+        <v>67.79772806396268</v>
       </c>
     </row>
     <row r="205">
@@ -13346,7 +13346,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H205" t="n">
-        <v>59.3</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="I205" t="n">
         <v>101.58</v>
@@ -13379,7 +13379,7 @@
         <v>0.02032</v>
       </c>
       <c r="S205" t="n">
-        <v>815.5279939020677</v>
+        <v>72.19903167977878</v>
       </c>
     </row>
     <row r="206">
@@ -13409,7 +13409,7 @@
         <v>22.38888888888889</v>
       </c>
       <c r="H206" t="n">
-        <v>60.4</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="I206" t="n">
         <v>101.49</v>
@@ -13442,7 +13442,7 @@
         <v>0.02032</v>
       </c>
       <c r="S206" t="n">
-        <v>756.8703783228797</v>
+        <v>66.19174024238211</v>
       </c>
     </row>
     <row r="207">
@@ -13472,7 +13472,7 @@
         <v>23.61111111111111</v>
       </c>
       <c r="H207" t="n">
-        <v>62.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="I207" t="n">
         <v>101.32</v>
@@ -13505,7 +13505,7 @@
         <v>0.02032</v>
       </c>
       <c r="S207" t="n">
-        <v>788.92170609892</v>
+        <v>67.15016684950498</v>
       </c>
     </row>
     <row r="208">
@@ -13535,7 +13535,7 @@
         <v>25.38888888888889</v>
       </c>
       <c r="H208" t="n">
-        <v>68.2</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="I208" t="n">
         <v>101.21</v>
@@ -13568,7 +13568,7 @@
         <v>0.02032</v>
       </c>
       <c r="S208" t="n">
-        <v>900.491538029223</v>
+        <v>72.58813723562444</v>
       </c>
     </row>
     <row r="209">
@@ -13598,7 +13598,7 @@
         <v>31.05555555555556</v>
       </c>
       <c r="H209" t="n">
-        <v>69.7</v>
+        <v>20.94444444444445</v>
       </c>
       <c r="I209" t="n">
         <v>100.8</v>
@@ -13631,7 +13631,7 @@
         <v>0.02032</v>
       </c>
       <c r="S209" t="n">
-        <v>691.4478978294842</v>
+        <v>54.92524451349262</v>
       </c>
     </row>
     <row r="210">
@@ -13661,7 +13661,7 @@
         <v>10.61111111111111</v>
       </c>
       <c r="H210" t="n">
-        <v>49.9</v>
+        <v>9.944444444444445</v>
       </c>
       <c r="I210" t="n">
         <v>102.57</v>
@@ -13694,7 +13694,7 @@
         <v>0.02032</v>
       </c>
       <c r="S210" t="n">
-        <v>965.3932134407153</v>
+        <v>95.64385569213624</v>
       </c>
     </row>
     <row r="211">
@@ -13724,7 +13724,7 @@
         <v>11.61111111111111</v>
       </c>
       <c r="H211" t="n">
-        <v>42.8</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="I211" t="n">
         <v>102.67</v>
@@ -13757,7 +13757,7 @@
         <v>0.02032</v>
       </c>
       <c r="S211" t="n">
-        <v>627.9683298544064</v>
+        <v>68.43393134567641</v>
       </c>
     </row>
     <row r="212">
@@ -13787,7 +13787,7 @@
         <v>10.88888888888889</v>
       </c>
       <c r="H212" t="n">
-        <v>37.3</v>
+        <v>2.944444444444443</v>
       </c>
       <c r="I212" t="n">
         <v>102.67</v>
@@ -13820,7 +13820,7 @@
         <v>0.02032</v>
       </c>
       <c r="S212" t="n">
-        <v>490.7877774523874</v>
+        <v>57.97068828606399</v>
       </c>
     </row>
     <row r="213">
@@ -13850,7 +13850,7 @@
         <v>13.55555555555556</v>
       </c>
       <c r="H213" t="n">
-        <v>37</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I213" t="n">
         <v>102.59</v>
@@ -13883,7 +13883,7 @@
         <v>0.02032</v>
       </c>
       <c r="S213" t="n">
-        <v>405.1119211886946</v>
+        <v>48.07017573947036</v>
       </c>
     </row>
     <row r="214">
@@ -13913,7 +13913,7 @@
         <v>15.55555555555556</v>
       </c>
       <c r="H214" t="n">
-        <v>51.2</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="I214" t="n">
         <v>102.2</v>
@@ -13946,7 +13946,7 @@
         <v>0.02032</v>
       </c>
       <c r="S214" t="n">
-        <v>745.4974283568006</v>
+        <v>72.65318086083997</v>
       </c>
     </row>
     <row r="215">
@@ -13976,7 +13976,7 @@
         <v>16.61111111111111</v>
       </c>
       <c r="H215" t="n">
-        <v>53</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="I215" t="n">
         <v>102</v>
@@ -14009,7 +14009,7 @@
         <v>0.02032</v>
       </c>
       <c r="S215" t="n">
-        <v>761.4964445426366</v>
+        <v>72.57634827477644</v>
       </c>
     </row>
     <row r="216">
@@ -14039,7 +14039,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H216" t="n">
-        <v>53.9</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="I216" t="n">
         <v>101.98</v>
@@ -14072,7 +14072,7 @@
         <v>0.02032</v>
       </c>
       <c r="S216" t="n">
-        <v>787.2990780060965</v>
+        <v>74.21925050130828</v>
       </c>
     </row>
     <row r="217">
@@ -14102,7 +14102,7 @@
         <v>20.77777777777778</v>
       </c>
       <c r="H217" t="n">
-        <v>54.4</v>
+        <v>12.44444444444444</v>
       </c>
       <c r="I217" t="n">
         <v>102.17</v>
@@ -14135,7 +14135,7 @@
         <v>0.02032</v>
       </c>
       <c r="S217" t="n">
-        <v>628.0907779587219</v>
+        <v>58.85532159141146</v>
       </c>
     </row>
     <row r="218">
@@ -14165,7 +14165,7 @@
         <v>15.66666666666667</v>
       </c>
       <c r="H218" t="n">
-        <v>33.2</v>
+        <v>0.6666666666666683</v>
       </c>
       <c r="I218" t="n">
         <v>102.75</v>
@@ -14198,7 +14198,7 @@
         <v>0.02032</v>
       </c>
       <c r="S218" t="n">
-        <v>286.3344135943607</v>
+        <v>36.06278975152865</v>
       </c>
     </row>
     <row r="219">
@@ -14228,7 +14228,7 @@
         <v>10.16666666666667</v>
       </c>
       <c r="H219" t="n">
-        <v>31.3</v>
+        <v>-0.3888888888888885</v>
       </c>
       <c r="I219" t="n">
         <v>102.74</v>
@@ -14261,7 +14261,7 @@
         <v>0.02032</v>
       </c>
       <c r="S219" t="n">
-        <v>368.5616595710236</v>
+        <v>47.88065112968685</v>
       </c>
     </row>
     <row r="220">
@@ -14291,7 +14291,7 @@
         <v>14.72222222222222</v>
       </c>
       <c r="H220" t="n">
-        <v>37.7</v>
+        <v>3.166666666666668</v>
       </c>
       <c r="I220" t="n">
         <v>102.65</v>
@@ -14324,7 +14324,7 @@
         <v>0.02032</v>
       </c>
       <c r="S220" t="n">
-        <v>390.2249500445465</v>
+        <v>45.81362224996946</v>
       </c>
     </row>
     <row r="221">
@@ -14354,7 +14354,7 @@
         <v>18.16666666666667</v>
       </c>
       <c r="H221" t="n">
-        <v>48.3</v>
+        <v>9.055555555555554</v>
       </c>
       <c r="I221" t="n">
         <v>102.24</v>
@@ -14387,7 +14387,7 @@
         <v>0.02032</v>
       </c>
       <c r="S221" t="n">
-        <v>546.3252132502753</v>
+        <v>55.2555980220128</v>
       </c>
     </row>
     <row r="222">
@@ -14417,7 +14417,7 @@
         <v>15.77777777777778</v>
       </c>
       <c r="H222" t="n">
-        <v>52</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="I222" t="n">
         <v>102.15</v>
@@ -14450,7 +14450,7 @@
         <v>0.02032</v>
       </c>
       <c r="S222" t="n">
-        <v>764.5924149973799</v>
+        <v>73.77440847610593</v>
       </c>
     </row>
     <row r="223">
@@ -14480,7 +14480,7 @@
         <v>15.33333333333333</v>
       </c>
       <c r="H223" t="n">
-        <v>53.7</v>
+        <v>12.05555555555556</v>
       </c>
       <c r="I223" t="n">
         <v>102.31</v>
@@ -14513,7 +14513,7 @@
         <v>0.02032</v>
       </c>
       <c r="S223" t="n">
-        <v>855.0201212688739</v>
+        <v>80.79856808360711</v>
       </c>
     </row>
     <row r="224">
@@ -14543,7 +14543,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H224" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I224" t="n">
         <v>102.27</v>
@@ -14576,7 +14576,7 @@
         <v>0.02032</v>
       </c>
       <c r="S224" t="n">
-        <v>517.0287707566514</v>
+        <v>54.27868198544389</v>
       </c>
     </row>
     <row r="225">
@@ -14606,7 +14606,7 @@
         <v>13.88888888888889</v>
       </c>
       <c r="H225" t="n">
-        <v>55.4</v>
+        <v>13</v>
       </c>
       <c r="I225" t="n">
         <v>102.31</v>
@@ -14639,7 +14639,7 @@
         <v>0.02032</v>
       </c>
       <c r="S225" t="n">
-        <v>1019.179232675324</v>
+        <v>94.37157157728308</v>
       </c>
     </row>
     <row r="226">
@@ -14669,7 +14669,7 @@
         <v>16.88888888888889</v>
       </c>
       <c r="H226" t="n">
-        <v>58.3</v>
+        <v>14.61111111111111</v>
       </c>
       <c r="I226" t="n">
         <v>102.56</v>
@@ -14702,7 +14702,7 @@
         <v>0.02032</v>
       </c>
       <c r="S226" t="n">
-        <v>965.3388691264843</v>
+        <v>86.43130844847231</v>
       </c>
     </row>
     <row r="227">
@@ -14732,7 +14732,7 @@
         <v>15.66666666666667</v>
       </c>
       <c r="H227" t="n">
-        <v>52.2</v>
+        <v>11.22222222222222</v>
       </c>
       <c r="I227" t="n">
         <v>102.71</v>
@@ -14765,7 +14765,7 @@
         <v>0.02032</v>
       </c>
       <c r="S227" t="n">
-        <v>777.6726411628122</v>
+        <v>74.85087880624823</v>
       </c>
     </row>
     <row r="228">
@@ -14795,7 +14795,7 @@
         <v>15</v>
       </c>
       <c r="H228" t="n">
-        <v>48.8</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="I228" t="n">
         <v>102.53</v>
@@ -14828,7 +14828,7 @@
         <v>0.02032</v>
       </c>
       <c r="S228" t="n">
-        <v>685.3086544819607</v>
+        <v>68.86300553895222</v>
       </c>
     </row>
     <row r="229">
@@ -14858,7 +14858,7 @@
         <v>15.16666666666667</v>
       </c>
       <c r="H229" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I229" t="n">
         <v>102.36</v>
@@ -14891,7 +14891,7 @@
         <v>0.02032</v>
       </c>
       <c r="S229" t="n">
-        <v>738.2334502879545</v>
+        <v>72.5826976323433</v>
       </c>
     </row>
     <row r="230">
@@ -14921,7 +14921,7 @@
         <v>14.11111111111111</v>
       </c>
       <c r="H230" t="n">
-        <v>53.4</v>
+        <v>11.88888888888889</v>
       </c>
       <c r="I230" t="n">
         <v>102.39</v>
@@ -14954,7 +14954,7 @@
         <v>0.02032</v>
       </c>
       <c r="S230" t="n">
-        <v>911.7488631437665</v>
+        <v>86.47365534607164</v>
       </c>
     </row>
     <row r="231">
@@ -14984,7 +14984,7 @@
         <v>15.05555555555556</v>
       </c>
       <c r="H231" t="n">
-        <v>49.3</v>
+        <v>9.611111111111111</v>
       </c>
       <c r="I231" t="n">
         <v>102.37</v>
@@ -15017,7 +15017,7 @@
         <v>0.02032</v>
       </c>
       <c r="S231" t="n">
-        <v>700.2444262226535</v>
+        <v>69.91070875751696</v>
       </c>
     </row>
     <row r="232">
@@ -15047,7 +15047,7 @@
         <v>13.38888888888889</v>
       </c>
       <c r="H232" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I232" t="n">
         <v>102.01</v>
@@ -15080,7 +15080,7 @@
         <v>0.02032</v>
       </c>
       <c r="S232" t="n">
-        <v>659.7686117594627</v>
+        <v>68.79689854376836</v>
       </c>
     </row>
     <row r="233">
@@ -15110,7 +15110,7 @@
         <v>14.27777777777778</v>
       </c>
       <c r="H233" t="n">
-        <v>47.2</v>
+        <v>8.444444444444446</v>
       </c>
       <c r="I233" t="n">
         <v>102.41</v>
@@ -15143,7 +15143,7 @@
         <v>0.02032</v>
       </c>
       <c r="S233" t="n">
-        <v>662.1453226411938</v>
+        <v>67.94594160618917</v>
       </c>
     </row>
     <row r="234">
@@ -15173,7 +15173,7 @@
         <v>12.38888888888889</v>
       </c>
       <c r="H234" t="n">
-        <v>37.3</v>
+        <v>2.944444444444443</v>
       </c>
       <c r="I234" t="n">
         <v>102.68</v>
@@ -15206,7 +15206,7 @@
         <v>0.02032</v>
       </c>
       <c r="S234" t="n">
-        <v>444.4623504270082</v>
+        <v>52.49883871444829</v>
       </c>
     </row>
     <row r="235">
@@ -15236,7 +15236,7 @@
         <v>14.05555555555556</v>
       </c>
       <c r="H235" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I235" t="n">
         <v>102.19</v>
@@ -15269,7 +15269,7 @@
         <v>0.02032</v>
       </c>
       <c r="S235" t="n">
-        <v>631.7762527989826</v>
+        <v>65.87801540037476</v>
       </c>
     </row>
     <row r="236">
@@ -15299,7 +15299,7 @@
         <v>16.55555555555555</v>
       </c>
       <c r="H236" t="n">
-        <v>55.7</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I236" t="n">
         <v>101.96</v>
@@ -15332,7 +15332,7 @@
         <v>0.02032</v>
       </c>
       <c r="S236" t="n">
-        <v>871.1128473033124</v>
+        <v>80.37615685588425</v>
       </c>
     </row>
     <row r="237">
@@ -15362,7 +15362,7 @@
         <v>16.33333333333333</v>
       </c>
       <c r="H237" t="n">
-        <v>59.8</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="I237" t="n">
         <v>101.98</v>
@@ -15395,7 +15395,7 @@
         <v>0.02032</v>
       </c>
       <c r="S237" t="n">
-        <v>1073.110625384783</v>
+        <v>94.47418209653129</v>
       </c>
     </row>
     <row r="238">
@@ -15425,7 +15425,7 @@
         <v>19.94444444444445</v>
       </c>
       <c r="H238" t="n">
-        <v>64.8</v>
+        <v>18.22222222222222</v>
       </c>
       <c r="I238" t="n">
         <v>101.59</v>
@@ -15458,7 +15458,7 @@
         <v>0.02032</v>
       </c>
       <c r="S238" t="n">
-        <v>1076.428695524128</v>
+        <v>89.81017291389318</v>
       </c>
     </row>
     <row r="239">
@@ -15488,7 +15488,7 @@
         <v>13.27777777777778</v>
       </c>
       <c r="H239" t="n">
-        <v>52.5</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="I239" t="n">
         <v>102.04</v>
@@ -15521,7 +15521,7 @@
         <v>0.02032</v>
       </c>
       <c r="S239" t="n">
-        <v>921.0418615328339</v>
+        <v>88.32254098705015</v>
       </c>
     </row>
     <row r="240">
@@ -15551,7 +15551,7 @@
         <v>9.055555555555554</v>
       </c>
       <c r="H240" t="n">
-        <v>42.6</v>
+        <v>5.88888888888889</v>
       </c>
       <c r="I240" t="n">
         <v>102.71</v>
@@ -15584,7 +15584,7 @@
         <v>0.02032</v>
       </c>
       <c r="S240" t="n">
-        <v>737.0421659704019</v>
+        <v>80.54746332652383</v>
       </c>
     </row>
     <row r="241">
@@ -15614,7 +15614,7 @@
         <v>6.777777777777779</v>
       </c>
       <c r="H241" t="n">
-        <v>37.7</v>
+        <v>3.166666666666668</v>
       </c>
       <c r="I241" t="n">
         <v>102.26</v>
@@ -15647,7 +15647,7 @@
         <v>0.02032</v>
       </c>
       <c r="S241" t="n">
-        <v>662.2446369245856</v>
+        <v>77.74957913292747</v>
       </c>
     </row>
     <row r="242">
@@ -15677,7 +15677,7 @@
         <v>9.777777777777779</v>
       </c>
       <c r="H242" t="n">
-        <v>41.9</v>
+        <v>5.499999999999999</v>
       </c>
       <c r="I242" t="n">
         <v>102.13</v>
@@ -15710,7 +15710,7 @@
         <v>0.02032</v>
       </c>
       <c r="S242" t="n">
-        <v>676.6672644299281</v>
+        <v>74.68817625896014</v>
       </c>
     </row>
     <row r="243">
@@ -15740,7 +15740,7 @@
         <v>14.05555555555556</v>
       </c>
       <c r="H243" t="n">
-        <v>55.1</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="I243" t="n">
         <v>102.11</v>
@@ -15773,7 +15773,7 @@
         <v>0.02032</v>
       </c>
       <c r="S243" t="n">
-        <v>993.7374822282382</v>
+        <v>92.34354452868948</v>
       </c>
     </row>
     <row r="244">
@@ -15803,7 +15803,7 @@
         <v>13.5</v>
       </c>
       <c r="H244" t="n">
-        <v>54.6</v>
+        <v>12.55555555555556</v>
       </c>
       <c r="I244" t="n">
         <v>101.99</v>
@@ -15836,7 +15836,7 @@
         <v>0.02032</v>
       </c>
       <c r="S244" t="n">
-        <v>1005.677740244166</v>
+        <v>94.01168652294955</v>
       </c>
     </row>
     <row r="245">
@@ -15866,7 +15866,7 @@
         <v>14</v>
       </c>
       <c r="H245" t="n">
-        <v>51.2</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="I245" t="n">
         <v>101.92</v>
@@ -15899,7 +15899,7 @@
         <v>0.02032</v>
       </c>
       <c r="S245" t="n">
-        <v>824.1778342011094</v>
+        <v>80.32105674957469</v>
       </c>
     </row>
     <row r="246">
@@ -15929,7 +15929,7 @@
         <v>14.16666666666667</v>
       </c>
       <c r="H246" t="n">
-        <v>55.9</v>
+        <v>13.27777777777778</v>
       </c>
       <c r="I246" t="n">
         <v>101.94</v>
@@ -15962,7 +15962,7 @@
         <v>0.02032</v>
       </c>
       <c r="S246" t="n">
-        <v>1025.331534210912</v>
+        <v>94.38337369419709</v>
       </c>
     </row>
     <row r="247">
@@ -15992,7 +15992,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H247" t="n">
-        <v>54.8</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="I247" t="n">
         <v>101.97</v>
@@ -16025,7 +16025,7 @@
         <v>0.02032</v>
       </c>
       <c r="S247" t="n">
-        <v>1019.139604039244</v>
+        <v>95.04280953821238</v>
       </c>
     </row>
     <row r="248">
@@ -16055,7 +16055,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H248" t="n">
-        <v>51.5</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="I248" t="n">
         <v>102.12</v>
@@ -16088,7 +16088,7 @@
         <v>0.02032</v>
       </c>
       <c r="S248" t="n">
-        <v>967.4756366140922</v>
+        <v>93.93297803216214</v>
       </c>
     </row>
     <row r="249">
@@ -16118,7 +16118,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H249" t="n">
-        <v>51</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="I249" t="n">
         <v>101.94</v>
@@ -16151,7 +16151,7 @@
         <v>0.02032</v>
       </c>
       <c r="S249" t="n">
-        <v>1015.980596731032</v>
+        <v>99.2623692274376</v>
       </c>
     </row>
     <row r="250">
@@ -16181,7 +16181,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H250" t="n">
-        <v>51.3</v>
+        <v>10.72222222222222</v>
       </c>
       <c r="I250" t="n">
         <v>101.69</v>
@@ -16214,7 +16214,7 @@
         <v>0.02032</v>
       </c>
       <c r="S250" t="n">
-        <v>916.8034538345725</v>
+        <v>89.23608148519004</v>
       </c>
     </row>
     <row r="251">
@@ -16244,7 +16244,7 @@
         <v>13.5</v>
       </c>
       <c r="H251" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I251" t="n">
         <v>101.54</v>
@@ -16277,7 +16277,7 @@
         <v>0.02032</v>
       </c>
       <c r="S251" t="n">
-        <v>981.5834416399763</v>
+        <v>92.31163853950251</v>
       </c>
     </row>
     <row r="252">
@@ -16307,7 +16307,7 @@
         <v>16.55555555555555</v>
       </c>
       <c r="H252" t="n">
-        <v>57.6</v>
+        <v>14.22222222222222</v>
       </c>
       <c r="I252" t="n">
         <v>100.93</v>
@@ -16340,7 +16340,7 @@
         <v>0.02032</v>
       </c>
       <c r="S252" t="n">
-        <v>953.8584538968033</v>
+        <v>86.08853364992171</v>
       </c>
     </row>
     <row r="253">
@@ -16370,7 +16370,7 @@
         <v>4.222222222222223</v>
       </c>
       <c r="H253" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I253" t="n">
         <v>103.21</v>
@@ -16403,7 +16403,7 @@
         <v>0.02032</v>
       </c>
       <c r="S253" t="n">
-        <v>392.7166661333422</v>
+        <v>56.47813574218223</v>
       </c>
     </row>
     <row r="254">
@@ -16433,7 +16433,7 @@
         <v>-0.8888888888888897</v>
       </c>
       <c r="H254" t="n">
-        <v>9</v>
+        <v>-12.77777777777778</v>
       </c>
       <c r="I254" t="n">
         <v>103.86</v>
@@ -16466,7 +16466,7 @@
         <v>0.02032</v>
       </c>
       <c r="S254" t="n">
-        <v>200.2831397902234</v>
+        <v>40.09760049693747</v>
       </c>
     </row>
     <row r="255">
@@ -16496,7 +16496,7 @@
         <v>-1.277777777777778</v>
       </c>
       <c r="H255" t="n">
-        <v>20.4</v>
+        <v>-6.444444444444446</v>
       </c>
       <c r="I255" t="n">
         <v>103.47</v>
@@ -16529,7 +16529,7 @@
         <v>0.02032</v>
       </c>
       <c r="S255" t="n">
-        <v>430.225709181413</v>
+        <v>67.89876815158151</v>
       </c>
     </row>
     <row r="256">
@@ -16559,7 +16559,7 @@
         <v>3.277777777777777</v>
       </c>
       <c r="H256" t="n">
-        <v>27</v>
+        <v>-2.777777777777778</v>
       </c>
       <c r="I256" t="n">
         <v>103.44</v>
@@ -16592,7 +16592,7 @@
         <v>0.02032</v>
       </c>
       <c r="S256" t="n">
-        <v>461.3724701963996</v>
+        <v>64.4939584440968</v>
       </c>
     </row>
     <row r="257">
@@ -16622,7 +16622,7 @@
         <v>3</v>
       </c>
       <c r="H257" t="n">
-        <v>24.6</v>
+        <v>-4.111111111111111</v>
       </c>
       <c r="I257" t="n">
         <v>103.02</v>
@@ -16655,7 +16655,7 @@
         <v>0.02032</v>
       </c>
       <c r="S257" t="n">
-        <v>408.0796021132567</v>
+        <v>59.54106476639149</v>
       </c>
     </row>
     <row r="258">
@@ -16685,7 +16685,7 @@
         <v>3.555555555555555</v>
       </c>
       <c r="H258" t="n">
-        <v>29.4</v>
+        <v>-1.444444444444445</v>
       </c>
       <c r="I258" t="n">
         <v>102.77</v>
@@ -16718,7 +16718,7 @@
         <v>0.02032</v>
       </c>
       <c r="S258" t="n">
-        <v>520.3432985538401</v>
+        <v>69.7853635547828</v>
       </c>
     </row>
     <row r="259">
@@ -16748,7 +16748,7 @@
         <v>8.166666666666668</v>
       </c>
       <c r="H259" t="n">
-        <v>34.1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I259" t="n">
         <v>102.58</v>
@@ -16781,7 +16781,7 @@
         <v>0.02032</v>
       </c>
       <c r="S259" t="n">
-        <v>493.8990738380266</v>
+        <v>61.31535666847537</v>
       </c>
     </row>
     <row r="260">
@@ -16811,7 +16811,7 @@
         <v>8.222222222222221</v>
       </c>
       <c r="H260" t="n">
-        <v>44.9</v>
+        <v>7.166666666666666</v>
       </c>
       <c r="I260" t="n">
         <v>102.27</v>
@@ -16844,7 +16844,7 @@
         <v>0.02032</v>
       </c>
       <c r="S260" t="n">
-        <v>879.1722672939263</v>
+        <v>93.05515693041998</v>
       </c>
     </row>
     <row r="261">
@@ -16874,7 +16874,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="H261" t="n">
-        <v>34.9</v>
+        <v>1.61111111111111</v>
       </c>
       <c r="I261" t="n">
         <v>102.65</v>
@@ -16907,7 +16907,7 @@
         <v>0.02032</v>
       </c>
       <c r="S261" t="n">
-        <v>585.4194173014968</v>
+        <v>71.76351260220302</v>
       </c>
     </row>
     <row r="262">
@@ -16937,7 +16937,7 @@
         <v>0.8888888888888897</v>
       </c>
       <c r="H262" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I262" t="n">
         <v>102.91</v>
@@ -16970,7 +16970,7 @@
         <v>0.02032</v>
       </c>
       <c r="S262" t="n">
-        <v>521.8878708700494</v>
+        <v>73.99068332001541</v>
       </c>
     </row>
     <row r="263">
@@ -17000,7 +17000,7 @@
         <v>0.777777777777777</v>
       </c>
       <c r="H263" t="n">
-        <v>24.8</v>
+        <v>-4</v>
       </c>
       <c r="I263" t="n">
         <v>102.61</v>
@@ -17033,7 +17033,7 @@
         <v>0.02032</v>
       </c>
       <c r="S263" t="n">
-        <v>484.063017471557</v>
+        <v>70.37191693008837</v>
       </c>
     </row>
     <row r="264">
@@ -17063,7 +17063,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="H264" t="n">
-        <v>13.3</v>
+        <v>-10.38888888888889</v>
       </c>
       <c r="I264" t="n">
         <v>103.12</v>
@@ -17096,7 +17096,7 @@
         <v>0.02032</v>
       </c>
       <c r="S264" t="n">
-        <v>187.681485055039</v>
+        <v>34.19600169547343</v>
       </c>
     </row>
     <row r="265">
@@ -17126,7 +17126,7 @@
         <v>5.944444444444446</v>
       </c>
       <c r="H265" t="n">
-        <v>27</v>
+        <v>-2.777777777777778</v>
       </c>
       <c r="I265" t="n">
         <v>102.55</v>
@@ -17159,7 +17159,7 @@
         <v>0.02032</v>
       </c>
       <c r="S265" t="n">
-        <v>382.9157248361528</v>
+        <v>53.5267109341427</v>
       </c>
     </row>
     <row r="266">
@@ -17189,7 +17189,7 @@
         <v>-1.444444444444445</v>
       </c>
       <c r="H266" t="n">
-        <v>26.4</v>
+        <v>-3.111111111111112</v>
       </c>
       <c r="I266" t="n">
         <v>103.6</v>
@@ -17222,7 +17222,7 @@
         <v>0.02032</v>
       </c>
       <c r="S266" t="n">
-        <v>625.7730532136512</v>
+        <v>88.40506795025195</v>
       </c>
     </row>
     <row r="267">
@@ -17252,7 +17252,7 @@
         <v>-3.111111111111112</v>
       </c>
       <c r="H267" t="n">
-        <v>9.300000000000001</v>
+        <v>-12.61111111111111</v>
       </c>
       <c r="I267" t="n">
         <v>103.79</v>
@@ -17285,7 +17285,7 @@
         <v>0.02032</v>
       </c>
       <c r="S267" t="n">
-        <v>240.7836228741592</v>
+        <v>47.88119546679877</v>
       </c>
     </row>
     <row r="268">
@@ -17315,7 +17315,7 @@
         <v>1.777777777777779</v>
       </c>
       <c r="H268" t="n">
-        <v>10.9</v>
+        <v>-11.72222222222222</v>
       </c>
       <c r="I268" t="n">
         <v>102.72</v>
@@ -17348,7 +17348,7 @@
         <v>0.02032</v>
       </c>
       <c r="S268" t="n">
-        <v>187.5761638175828</v>
+        <v>35.99689903719378</v>
       </c>
     </row>
     <row r="269">
@@ -17378,7 +17378,7 @@
         <v>8.166666666666668</v>
       </c>
       <c r="H269" t="n">
-        <v>17.1</v>
+        <v>-8.277777777777777</v>
       </c>
       <c r="I269" t="n">
         <v>102.42</v>
@@ -17411,7 +17411,7 @@
         <v>0.02032</v>
       </c>
       <c r="S269" t="n">
-        <v>179.6911332291669</v>
+        <v>30.26350147303463</v>
       </c>
     </row>
     <row r="270">
@@ -17441,7 +17441,7 @@
         <v>2.888888888888891</v>
       </c>
       <c r="H270" t="n">
-        <v>26.7</v>
+        <v>-2.944444444444445</v>
       </c>
       <c r="I270" t="n">
         <v>102.1</v>
@@ -17474,7 +17474,7 @@
         <v>0.02032</v>
       </c>
       <c r="S270" t="n">
-        <v>465.9434193834364</v>
+        <v>65.47751919976619</v>
       </c>
     </row>
     <row r="271">
@@ -17504,7 +17504,7 @@
         <v>4.833333333333335</v>
       </c>
       <c r="H271" t="n">
-        <v>21.6</v>
+        <v>-5.777777777777778</v>
       </c>
       <c r="I271" t="n">
         <v>101.82</v>
@@ -17537,7 +17537,7 @@
         <v>0.02032</v>
       </c>
       <c r="S271" t="n">
-        <v>299.1621812919517</v>
+        <v>46.14518427404838</v>
       </c>
     </row>
     <row r="272">
@@ -17567,7 +17567,7 @@
         <v>-0.05555555555555635</v>
       </c>
       <c r="H272" t="n">
-        <v>5.9</v>
+        <v>-14.5</v>
       </c>
       <c r="I272" t="n">
         <v>102.54</v>
@@ -17600,7 +17600,7 @@
         <v>0.02032</v>
       </c>
       <c r="S272" t="n">
-        <v>152.5081180659908</v>
+        <v>32.79774609859144</v>
       </c>
     </row>
     <row r="273">
@@ -17630,7 +17630,7 @@
         <v>0.2222222222222214</v>
       </c>
       <c r="H273" t="n">
-        <v>10</v>
+        <v>-12.22222222222222</v>
       </c>
       <c r="I273" t="n">
         <v>102.68</v>
@@ -17663,7 +17663,7 @@
         <v>0.02032</v>
       </c>
       <c r="S273" t="n">
-        <v>197.5714652701467</v>
+        <v>38.67762263170023</v>
       </c>
     </row>
     <row r="274">
@@ -17693,7 +17693,7 @@
         <v>-0.3888888888888885</v>
       </c>
       <c r="H274" t="n">
-        <v>16.3</v>
+        <v>-8.722222222222221</v>
       </c>
       <c r="I274" t="n">
         <v>103.07</v>
@@ -17726,7 +17726,7 @@
         <v>0.02032</v>
       </c>
       <c r="S274" t="n">
-        <v>311.7063601696406</v>
+        <v>53.35555425800595</v>
       </c>
     </row>
     <row r="275">
@@ -17756,7 +17756,7 @@
         <v>2.666666666666665</v>
       </c>
       <c r="H275" t="n">
-        <v>25.7</v>
+        <v>-3.5</v>
       </c>
       <c r="I275" t="n">
         <v>103.06</v>
@@ -17789,7 +17789,7 @@
         <v>0.02032</v>
       </c>
       <c r="S275" t="n">
-        <v>446.1591204589895</v>
+        <v>63.82006603272659</v>
       </c>
     </row>
     <row r="276">
@@ -17819,7 +17819,7 @@
         <v>1.944444444444445</v>
       </c>
       <c r="H276" t="n">
-        <v>28.5</v>
+        <v>-1.944444444444445</v>
       </c>
       <c r="I276" t="n">
         <v>103.27</v>
@@ -17852,7 +17852,7 @@
         <v>0.02032</v>
       </c>
       <c r="S276" t="n">
-        <v>553.7084231228552</v>
+        <v>75.41062798386778</v>
       </c>
     </row>
     <row r="277">
@@ -17882,7 +17882,7 @@
         <v>0.4999999999999992</v>
       </c>
       <c r="H277" t="n">
-        <v>26.4</v>
+        <v>-3.111111111111112</v>
       </c>
       <c r="I277" t="n">
         <v>103.49</v>
@@ -17915,7 +17915,7 @@
         <v>0.02032</v>
       </c>
       <c r="S277" t="n">
-        <v>543.122363260075</v>
+        <v>76.72872646517612</v>
       </c>
     </row>
     <row r="278">
@@ -17945,7 +17945,7 @@
         <v>1.388888888888889</v>
       </c>
       <c r="H278" t="n">
-        <v>22.1</v>
+        <v>-5.499999999999999</v>
       </c>
       <c r="I278" t="n">
         <v>103.53</v>
@@ -17978,7 +17978,7 @@
         <v>0.02032</v>
       </c>
       <c r="S278" t="n">
-        <v>393.5613830774373</v>
+        <v>60.13634089613991</v>
       </c>
     </row>
     <row r="279">
@@ -18008,7 +18008,7 @@
         <v>2.333333333333335</v>
       </c>
       <c r="H279" t="n">
-        <v>21.8</v>
+        <v>-5.666666666666667</v>
       </c>
       <c r="I279" t="n">
         <v>103.4</v>
@@ -18041,7 +18041,7 @@
         <v>0.02032</v>
       </c>
       <c r="S279" t="n">
-        <v>361.1952772532989</v>
+        <v>55.50348556369246</v>
       </c>
     </row>
     <row r="280">
@@ -18071,7 +18071,7 @@
         <v>1.722222222222223</v>
       </c>
       <c r="H280" t="n">
-        <v>24.6</v>
+        <v>-4.111111111111111</v>
       </c>
       <c r="I280" t="n">
         <v>103.22</v>
@@ -18104,7 +18104,7 @@
         <v>0.02032</v>
       </c>
       <c r="S280" t="n">
-        <v>446.9356591608422</v>
+        <v>65.21037780545588</v>
       </c>
     </row>
     <row r="281">
@@ -18134,7 +18134,7 @@
         <v>5.555555555555555</v>
       </c>
       <c r="H281" t="n">
-        <v>29.7</v>
+        <v>-1.277777777777778</v>
       </c>
       <c r="I281" t="n">
         <v>103.31</v>
@@ -18167,7 +18167,7 @@
         <v>0.02032</v>
       </c>
       <c r="S281" t="n">
-        <v>460.3319542117356</v>
+        <v>61.42403351717303</v>
       </c>
     </row>
     <row r="282">
@@ -18197,7 +18197,7 @@
         <v>1.500000000000002</v>
       </c>
       <c r="H282" t="n">
-        <v>27.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I282" t="n">
         <v>103.44</v>
@@ -18230,7 +18230,7 @@
         <v>0.02032</v>
       </c>
       <c r="S282" t="n">
-        <v>539.1898274044777</v>
+        <v>74.71551420075676</v>
       </c>
     </row>
     <row r="283">
@@ -18260,7 +18260,7 @@
         <v>4.555555555555557</v>
       </c>
       <c r="H283" t="n">
-        <v>29.8</v>
+        <v>-1.222222222222222</v>
       </c>
       <c r="I283" t="n">
         <v>103.28</v>
@@ -18293,7 +18293,7 @@
         <v>0.02032</v>
       </c>
       <c r="S283" t="n">
-        <v>496.3868122612088</v>
+        <v>66.12318502798252</v>
       </c>
     </row>
     <row r="284">
@@ -18323,7 +18323,7 @@
         <v>4.333333333333332</v>
       </c>
       <c r="H284" t="n">
-        <v>26.1</v>
+        <v>-3.277777777777777</v>
       </c>
       <c r="I284" t="n">
         <v>102.86</v>
@@ -18356,7 +18356,7 @@
         <v>0.02032</v>
       </c>
       <c r="S284" t="n">
-        <v>406.2004781062465</v>
+        <v>57.69147455595566</v>
       </c>
     </row>
     <row r="285">
@@ -18386,7 +18386,7 @@
         <v>4.777777777777779</v>
       </c>
       <c r="H285" t="n">
-        <v>30.7</v>
+        <v>-0.7222222222222227</v>
       </c>
       <c r="I285" t="n">
         <v>102.52</v>
@@ -18419,7 +18419,7 @@
         <v>0.02032</v>
       </c>
       <c r="S285" t="n">
-        <v>514.6588154567286</v>
+        <v>67.52981245710271</v>
       </c>
     </row>
     <row r="286">
@@ -18449,7 +18449,7 @@
         <v>7.722222222222221</v>
       </c>
       <c r="H286" t="n">
-        <v>30.7</v>
+        <v>-0.7222222222222227</v>
       </c>
       <c r="I286" t="n">
         <v>102.09</v>
@@ -18482,7 +18482,7 @@
         <v>0.02032</v>
       </c>
       <c r="S286" t="n">
-        <v>420.0562910252725</v>
+        <v>55.11675250173148</v>
       </c>
     </row>
     <row r="287">
@@ -18512,7 +18512,7 @@
         <v>5.222222222222221</v>
       </c>
       <c r="H287" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>102.84</v>
@@ -18545,7 +18545,7 @@
         <v>0.02032</v>
       </c>
       <c r="S287" t="n">
-        <v>537.3131519897296</v>
+        <v>69.0041937860282</v>
       </c>
     </row>
     <row r="288">
@@ -18575,7 +18575,7 @@
         <v>10.27777777777778</v>
       </c>
       <c r="H288" t="n">
-        <v>39.7</v>
+        <v>4.277777777777779</v>
       </c>
       <c r="I288" t="n">
         <v>101.76</v>
@@ -18608,7 +18608,7 @@
         <v>0.02032</v>
       </c>
       <c r="S288" t="n">
-        <v>582.0725814600257</v>
+        <v>66.32823549468814</v>
       </c>
     </row>
     <row r="289">
@@ -18638,7 +18638,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H289" t="n">
-        <v>53.6</v>
+        <v>12</v>
       </c>
       <c r="I289" t="n">
         <v>101.03</v>
@@ -18671,7 +18671,7 @@
         <v>0.02032</v>
       </c>
       <c r="S289" t="n">
-        <v>1026.470345466129</v>
+        <v>97.11808011543486</v>
       </c>
     </row>
     <row r="290">
@@ -18701,7 +18701,7 @@
         <v>10.94444444444445</v>
       </c>
       <c r="H290" t="n">
-        <v>51.2</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="I290" t="n">
         <v>101.28</v>
@@ -18734,7 +18734,7 @@
         <v>0.02032</v>
       </c>
       <c r="S290" t="n">
-        <v>1007.31521668158</v>
+        <v>98.16888943903412</v>
       </c>
     </row>
     <row r="291">
@@ -18764,7 +18764,7 @@
         <v>-1.111111111111111</v>
       </c>
       <c r="H291" t="n">
-        <v>27.6</v>
+        <v>-2.444444444444444</v>
       </c>
       <c r="I291" t="n">
         <v>102.86</v>
@@ -18797,7 +18797,7 @@
         <v>0.02032</v>
       </c>
       <c r="S291" t="n">
-        <v>655.3091832563265</v>
+        <v>90.64813420424693</v>
       </c>
     </row>
     <row r="292">
@@ -18827,7 +18827,7 @@
         <v>-3.277777777777777</v>
       </c>
       <c r="H292" t="n">
-        <v>16.8</v>
+        <v>-8.444444444444445</v>
       </c>
       <c r="I292" t="n">
         <v>103.29</v>
@@ -18860,7 +18860,7 @@
         <v>0.02032</v>
       </c>
       <c r="S292" t="n">
-        <v>398.1032076726576</v>
+        <v>67.4558323129737</v>
       </c>
     </row>
     <row r="293">
@@ -18890,7 +18890,7 @@
         <v>-2.277777777777779</v>
       </c>
       <c r="H293" t="n">
-        <v>17.3</v>
+        <v>-8.166666666666666</v>
       </c>
       <c r="I293" t="n">
         <v>103.26</v>
@@ -18923,7 +18923,7 @@
         <v>0.02032</v>
       </c>
       <c r="S293" t="n">
-        <v>381.5149108378134</v>
+        <v>63.99646300268772</v>
       </c>
     </row>
     <row r="294">
@@ -18953,7 +18953,7 @@
         <v>0.9999999999999984</v>
       </c>
       <c r="H294" t="n">
-        <v>22.7</v>
+        <v>-5.166666666666667</v>
       </c>
       <c r="I294" t="n">
         <v>103.07</v>
@@ -18986,7 +18986,7 @@
         <v>0.02032</v>
       </c>
       <c r="S294" t="n">
-        <v>419.7653605094107</v>
+        <v>63.42412460128393</v>
       </c>
     </row>
     <row r="295">
@@ -19016,7 +19016,7 @@
         <v>-0.2777777777777778</v>
       </c>
       <c r="H295" t="n">
-        <v>22.6</v>
+        <v>-5.222222222222221</v>
       </c>
       <c r="I295" t="n">
         <v>102.94</v>
@@ -19049,7 +19049,7 @@
         <v>0.02032</v>
       </c>
       <c r="S295" t="n">
-        <v>457.6351115643824</v>
+        <v>69.27510018370067</v>
       </c>
     </row>
     <row r="296">
@@ -19079,7 +19079,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="H296" t="n">
-        <v>24.2</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="I296" t="n">
         <v>103.03</v>
@@ -19112,7 +19112,7 @@
         <v>0.02032</v>
       </c>
       <c r="S296" t="n">
-        <v>454.0809164662692</v>
+        <v>66.73699071935452</v>
       </c>
     </row>
     <row r="297">
@@ -19142,7 +19142,7 @@
         <v>7.055555555555557</v>
       </c>
       <c r="H297" t="n">
-        <v>35.7</v>
+        <v>2.055555555555557</v>
       </c>
       <c r="I297" t="n">
         <v>102.26</v>
@@ -19175,7 +19175,7 @@
         <v>0.02032</v>
       </c>
       <c r="S297" t="n">
-        <v>582.2905949841312</v>
+        <v>70.49244523697553</v>
       </c>
     </row>
     <row r="298">
@@ -19205,7 +19205,7 @@
         <v>3.888888888888889</v>
       </c>
       <c r="H298" t="n">
-        <v>36.2</v>
+        <v>2.333333333333335</v>
       </c>
       <c r="I298" t="n">
         <v>102.42</v>
@@ -19238,7 +19238,7 @@
         <v>0.02032</v>
       </c>
       <c r="S298" t="n">
-        <v>745.7058662878887</v>
+        <v>89.57870669409377</v>
       </c>
     </row>
     <row r="299">
@@ -19268,7 +19268,7 @@
         <v>1.111111111111111</v>
       </c>
       <c r="H299" t="n">
-        <v>26.5</v>
+        <v>-3.055555555555556</v>
       </c>
       <c r="I299" t="n">
         <v>103.32</v>
@@ -19301,7 +19301,7 @@
         <v>0.02032</v>
       </c>
       <c r="S299" t="n">
-        <v>522.7924326720705</v>
+        <v>73.72613014518508</v>
       </c>
     </row>
     <row r="300">
@@ -19331,7 +19331,7 @@
         <v>-6.944444444444445</v>
       </c>
       <c r="H300" t="n">
-        <v>3.1</v>
+        <v>-16.05555555555556</v>
       </c>
       <c r="I300" t="n">
         <v>103.86</v>
@@ -19364,7 +19364,7 @@
         <v>0.02032</v>
       </c>
       <c r="S300" t="n">
-        <v>209.7735446803851</v>
+        <v>48.25766819438594</v>
       </c>
     </row>
     <row r="301">
@@ -19394,7 +19394,7 @@
         <v>-4.388888888888888</v>
       </c>
       <c r="H301" t="n">
-        <v>10.5</v>
+        <v>-11.94444444444444</v>
       </c>
       <c r="I301" t="n">
         <v>102.85</v>
@@ -19427,7 +19427,7 @@
         <v>0.02032</v>
       </c>
       <c r="S301" t="n">
-        <v>287.136042845466</v>
+        <v>55.5910956433233</v>
       </c>
     </row>
     <row r="302">
@@ -19457,7 +19457,7 @@
         <v>-0.1111111111111107</v>
       </c>
       <c r="H302" t="n">
-        <v>17.1</v>
+        <v>-8.277777777777777</v>
       </c>
       <c r="I302" t="n">
         <v>102.97</v>
@@ -19490,7 +19490,7 @@
         <v>0.02032</v>
       </c>
       <c r="S302" t="n">
-        <v>321.40546372971</v>
+        <v>54.13096656594865</v>
       </c>
     </row>
     <row r="303">
@@ -19520,7 +19520,7 @@
         <v>-4.555555555555555</v>
       </c>
       <c r="H303" t="n">
-        <v>14.1</v>
+        <v>-9.944444444444445</v>
       </c>
       <c r="I303" t="n">
         <v>103.3</v>
@@ -19553,7 +19553,7 @@
         <v>0.02032</v>
       </c>
       <c r="S303" t="n">
-        <v>368.4261153615017</v>
+        <v>66.00249836399104</v>
       </c>
     </row>
     <row r="304">
@@ -19583,7 +19583,7 @@
         <v>-0.4444444444444449</v>
       </c>
       <c r="H304" t="n">
-        <v>12.9</v>
+        <v>-10.61111111111111</v>
       </c>
       <c r="I304" t="n">
         <v>102.81</v>
@@ -19616,7 +19616,7 @@
         <v>0.02032</v>
       </c>
       <c r="S304" t="n">
-        <v>251.2615186414112</v>
+        <v>46.17244713341848</v>
       </c>
     </row>
     <row r="305">
@@ -19646,7 +19646,7 @@
         <v>3.222222222222221</v>
       </c>
       <c r="H305" t="n">
-        <v>16.9</v>
+        <v>-8.388888888888889</v>
       </c>
       <c r="I305" t="n">
         <v>102.48</v>
@@ -19679,7 +19679,7 @@
         <v>0.02032</v>
       </c>
       <c r="S305" t="n">
-        <v>249.9306680759636</v>
+        <v>42.26346007302637</v>
       </c>
     </row>
     <row r="306">
@@ -19709,7 +19709,7 @@
         <v>9.500000000000002</v>
       </c>
       <c r="H306" t="n">
-        <v>20.5</v>
+        <v>-6.388888888888889</v>
       </c>
       <c r="I306" t="n">
         <v>101.83</v>
@@ -19742,7 +19742,7 @@
         <v>0.02032</v>
       </c>
       <c r="S306" t="n">
-        <v>203.1154293646535</v>
+        <v>31.99434693185871</v>
       </c>
     </row>
     <row r="307">
@@ -19772,7 +19772,7 @@
         <v>7.611111111111113</v>
       </c>
       <c r="H307" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I307" t="n">
         <v>101.6</v>
@@ -19805,7 +19805,7 @@
         <v>0.02032</v>
       </c>
       <c r="S307" t="n">
-        <v>310.6559587135781</v>
+        <v>44.67666111064901</v>
       </c>
     </row>
     <row r="308">
@@ -19835,7 +19835,7 @@
         <v>3.499999999999999</v>
       </c>
       <c r="H308" t="n">
-        <v>19.8</v>
+        <v>-6.777777777777778</v>
       </c>
       <c r="I308" t="n">
         <v>102.95</v>
@@ -19868,7 +19868,7 @@
         <v>0.02032</v>
       </c>
       <c r="S308" t="n">
-        <v>293.9938453811264</v>
+        <v>46.93961922626419</v>
       </c>
     </row>
     <row r="309">
@@ -19898,7 +19898,7 @@
         <v>4.222222222222223</v>
       </c>
       <c r="H309" t="n">
-        <v>26.5</v>
+        <v>-3.055555555555556</v>
       </c>
       <c r="I309" t="n">
         <v>102.5</v>
@@ -19931,7 +19931,7 @@
         <v>0.02032</v>
       </c>
       <c r="S309" t="n">
-        <v>419.1703068898933</v>
+        <v>59.11295318642519</v>
       </c>
     </row>
     <row r="310">
@@ -19961,7 +19961,7 @@
         <v>2.611111111111113</v>
       </c>
       <c r="H310" t="n">
-        <v>28</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="I310" t="n">
         <v>102.47</v>
@@ -19994,7 +19994,7 @@
         <v>0.02032</v>
       </c>
       <c r="S310" t="n">
-        <v>512.8693334063786</v>
+        <v>70.45371810576259</v>
       </c>
     </row>
     <row r="311">
@@ -20024,7 +20024,7 @@
         <v>6.277777777777777</v>
       </c>
       <c r="H311" t="n">
-        <v>37</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I311" t="n">
         <v>102.03</v>
@@ -20057,7 +20057,7 @@
         <v>0.02032</v>
       </c>
       <c r="S311" t="n">
-        <v>659.752146537513</v>
+        <v>78.2855304171091</v>
       </c>
     </row>
     <row r="312">
@@ -20087,7 +20087,7 @@
         <v>7.722222222222221</v>
       </c>
       <c r="H312" t="n">
-        <v>44.1</v>
+        <v>6.722222222222223</v>
       </c>
       <c r="I312" t="n">
         <v>101.97</v>
@@ -20120,7 +20120,7 @@
         <v>0.02032</v>
       </c>
       <c r="S312" t="n">
-        <v>872.6205797517107</v>
+        <v>93.38433693574858</v>
       </c>
     </row>
     <row r="313">
@@ -20150,7 +20150,7 @@
         <v>6.833333333333332</v>
       </c>
       <c r="H313" t="n">
-        <v>42</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="I313" t="n">
         <v>102.43</v>
@@ -20183,7 +20183,7 @@
         <v>0.02032</v>
       </c>
       <c r="S313" t="n">
-        <v>830.7034579399647</v>
+        <v>91.55949697603063</v>
       </c>
     </row>
     <row r="314">
@@ -20213,7 +20213,7 @@
         <v>6.166666666666668</v>
       </c>
       <c r="H314" t="n">
-        <v>38.9</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="I314" t="n">
         <v>102.63</v>
@@ -20246,7 +20246,7 @@
         <v>0.02032</v>
       </c>
       <c r="S314" t="n">
-        <v>737.1071150664235</v>
+        <v>84.99474656039725</v>
       </c>
     </row>
     <row r="315">
@@ -20276,7 +20276,7 @@
         <v>5.055555555555556</v>
       </c>
       <c r="H315" t="n">
-        <v>40.2</v>
+        <v>4.555555555555557</v>
       </c>
       <c r="I315" t="n">
         <v>102.24</v>
@@ -20309,7 +20309,7 @@
         <v>0.02032</v>
       </c>
       <c r="S315" t="n">
-        <v>853.7068816911847</v>
+        <v>96.57091468744404</v>
       </c>
     </row>
     <row r="316">
@@ -20339,7 +20339,7 @@
         <v>5.722222222222221</v>
       </c>
       <c r="H316" t="n">
-        <v>39.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I316" t="n">
         <v>102.12</v>
@@ -20372,7 +20372,7 @@
         <v>0.02032</v>
       </c>
       <c r="S316" t="n">
-        <v>785.0667409104072</v>
+        <v>89.72378329168478</v>
       </c>
     </row>
     <row r="317">
@@ -20402,7 +20402,7 @@
         <v>3.722222222222224</v>
       </c>
       <c r="H317" t="n">
-        <v>26.5</v>
+        <v>-3.055555555555556</v>
       </c>
       <c r="I317" t="n">
         <v>102.97</v>
@@ -20435,7 +20435,7 @@
         <v>0.02032</v>
       </c>
       <c r="S317" t="n">
-        <v>434.1565863789749</v>
+        <v>61.2263739686598</v>
       </c>
     </row>
     <row r="318">
@@ -20465,7 +20465,7 @@
         <v>1.833333333333332</v>
       </c>
       <c r="H318" t="n">
-        <v>22.4</v>
+        <v>-5.333333333333334</v>
       </c>
       <c r="I318" t="n">
         <v>103.14</v>
@@ -20498,7 +20498,7 @@
         <v>0.02032</v>
       </c>
       <c r="S318" t="n">
-        <v>388.2637815193385</v>
+        <v>58.99401840615132</v>
       </c>
     </row>
     <row r="319">
@@ -20528,7 +20528,7 @@
         <v>3.277777777777777</v>
       </c>
       <c r="H319" t="n">
-        <v>26</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="I319" t="n">
         <v>103.29</v>
@@ -20561,7 +20561,7 @@
         <v>0.02032</v>
       </c>
       <c r="S319" t="n">
-        <v>434.9296449805062</v>
+        <v>61.88176171790715</v>
       </c>
     </row>
     <row r="320">
@@ -20591,7 +20591,7 @@
         <v>9.000000000000002</v>
       </c>
       <c r="H320" t="n">
-        <v>40.1</v>
+        <v>4.500000000000001</v>
       </c>
       <c r="I320" t="n">
         <v>102.12</v>
@@ -20624,7 +20624,7 @@
         <v>0.02032</v>
       </c>
       <c r="S320" t="n">
-        <v>647.9552306758733</v>
+        <v>73.40363105491234</v>
       </c>
     </row>
     <row r="321">
@@ -20654,7 +20654,7 @@
         <v>8.944444444444446</v>
       </c>
       <c r="H321" t="n">
-        <v>44.2</v>
+        <v>6.777777777777779</v>
       </c>
       <c r="I321" t="n">
         <v>102.21</v>
@@ -20687,7 +20687,7 @@
         <v>0.02032</v>
       </c>
       <c r="S321" t="n">
-        <v>807.3686694403154</v>
+        <v>86.28192097040862</v>
       </c>
     </row>
     <row r="322">
@@ -20717,7 +20717,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="H322" t="n">
-        <v>30.1</v>
+        <v>-1.055555555555555</v>
       </c>
       <c r="I322" t="n">
         <v>102.83</v>
@@ -20750,7 +20750,7 @@
         <v>0.02032</v>
       </c>
       <c r="S322" t="n">
-        <v>426.3907009058196</v>
+        <v>56.51273533287812</v>
       </c>
     </row>
     <row r="323">
@@ -20780,7 +20780,7 @@
         <v>5.055555555555556</v>
       </c>
       <c r="H323" t="n">
-        <v>30.2</v>
+        <v>-1</v>
       </c>
       <c r="I323" t="n">
         <v>103.33</v>
@@ -20813,7 +20813,7 @@
         <v>0.02032</v>
       </c>
       <c r="S323" t="n">
-        <v>490.5224379067382</v>
+        <v>64.90346343549854</v>
       </c>
     </row>
     <row r="324">
@@ -20843,7 +20843,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="H324" t="n">
-        <v>31.7</v>
+        <v>-0.1666666666666671</v>
       </c>
       <c r="I324" t="n">
         <v>102.82</v>
@@ -20876,7 +20876,7 @@
         <v>0.02032</v>
       </c>
       <c r="S324" t="n">
-        <v>695.2908638162638</v>
+        <v>89.73301120330626</v>
       </c>
     </row>
     <row r="325">
@@ -20906,7 +20906,7 @@
         <v>2.722222222222221</v>
       </c>
       <c r="H325" t="n">
-        <v>34.2</v>
+        <v>1.222222222222224</v>
       </c>
       <c r="I325" t="n">
         <v>102.6</v>
@@ -20939,7 +20939,7 @@
         <v>0.02032</v>
       </c>
       <c r="S325" t="n">
-        <v>724.8401520372744</v>
+        <v>89.84277046366638</v>
       </c>
     </row>
     <row r="326">
@@ -20969,7 +20969,7 @@
         <v>5.499999999999999</v>
       </c>
       <c r="H326" t="n">
-        <v>37.9</v>
+        <v>3.277777777777777</v>
       </c>
       <c r="I326" t="n">
         <v>103.25</v>
@@ -21002,7 +21002,7 @@
         <v>0.02032</v>
       </c>
       <c r="S326" t="n">
-        <v>731.2317115727561</v>
+        <v>85.58990254377589</v>
       </c>
     </row>
     <row r="327">
@@ -21032,7 +21032,7 @@
         <v>4.777777777777779</v>
       </c>
       <c r="H327" t="n">
-        <v>28.8</v>
+        <v>-1.777777777777777</v>
       </c>
       <c r="I327" t="n">
         <v>102.81</v>
@@ -21065,7 +21065,7 @@
         <v>0.02032</v>
       </c>
       <c r="S327" t="n">
-        <v>461.2841800308358</v>
+        <v>62.50071845257447</v>
       </c>
     </row>
     <row r="328">
@@ -21095,7 +21095,7 @@
         <v>8.388888888888889</v>
       </c>
       <c r="H328" t="n">
-        <v>36.1</v>
+        <v>2.277777777777779</v>
       </c>
       <c r="I328" t="n">
         <v>102.43</v>
@@ -21128,7 +21128,7 @@
         <v>0.02032</v>
       </c>
       <c r="S328" t="n">
-        <v>543.5473667408693</v>
+        <v>65.39519972347207</v>
       </c>
     </row>
     <row r="329">
@@ -21158,7 +21158,7 @@
         <v>8.833333333333332</v>
       </c>
       <c r="H329" t="n">
-        <v>32.4</v>
+        <v>0.2222222222222214</v>
       </c>
       <c r="I329" t="n">
         <v>102.89</v>
@@ -21191,7 +21191,7 @@
         <v>0.02032</v>
       </c>
       <c r="S329" t="n">
-        <v>429.086982618973</v>
+        <v>54.74656971003809</v>
       </c>
     </row>
     <row r="330">
@@ -21221,7 +21221,7 @@
         <v>10.22222222222222</v>
       </c>
       <c r="H330" t="n">
-        <v>29.9</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="I330" t="n">
         <v>102.46</v>
@@ -21254,7 +21254,7 @@
         <v>0.02032</v>
       </c>
       <c r="S330" t="n">
-        <v>338.904143673555</v>
+        <v>45.0689820349352</v>
       </c>
     </row>
     <row r="331">
@@ -21284,7 +21284,7 @@
         <v>14.61111111111111</v>
       </c>
       <c r="H331" t="n">
-        <v>37.7</v>
+        <v>3.166666666666668</v>
       </c>
       <c r="I331" t="n">
         <v>102.47</v>
@@ -21317,7 +21317,7 @@
         <v>0.02032</v>
       </c>
       <c r="S331" t="n">
-        <v>393.0340437309852</v>
+        <v>46.14341858154842</v>
       </c>
     </row>
     <row r="332">
@@ -21347,7 +21347,7 @@
         <v>13.61111111111111</v>
       </c>
       <c r="H332" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I332" t="n">
         <v>102.05</v>
@@ -21380,7 +21380,7 @@
         <v>0.02032</v>
       </c>
       <c r="S332" t="n">
-        <v>412.5632740187386</v>
+        <v>48.65697775975623</v>
       </c>
     </row>
     <row r="333">
@@ -21410,7 +21410,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H333" t="n">
-        <v>35.9</v>
+        <v>2.166666666666666</v>
       </c>
       <c r="I333" t="n">
         <v>101.77</v>
@@ -21443,7 +21443,7 @@
         <v>0.02032</v>
       </c>
       <c r="S333" t="n">
-        <v>266.7228101372966</v>
+        <v>32.18947728918688</v>
       </c>
     </row>
     <row r="334">
@@ -21473,7 +21473,7 @@
         <v>19.33333333333333</v>
       </c>
       <c r="H334" t="n">
-        <v>38.3</v>
+        <v>3.499999999999999</v>
       </c>
       <c r="I334" t="n">
         <v>101.7</v>
@@ -21506,7 +21506,7 @@
         <v>0.02032</v>
       </c>
       <c r="S334" t="n">
-        <v>300.9596159645467</v>
+        <v>35.0156731390547</v>
       </c>
     </row>
     <row r="335">
@@ -21536,7 +21536,7 @@
         <v>18.66666666666666</v>
       </c>
       <c r="H335" t="n">
-        <v>51.8</v>
+        <v>11</v>
       </c>
       <c r="I335" t="n">
         <v>101.68</v>
@@ -21569,7 +21569,7 @@
         <v>0.02032</v>
       </c>
       <c r="S335" t="n">
-        <v>630.566936600647</v>
+        <v>60.99378876529588</v>
       </c>
     </row>
     <row r="336">
@@ -21599,7 +21599,7 @@
         <v>16.94444444444445</v>
       </c>
       <c r="H336" t="n">
-        <v>52.6</v>
+        <v>11.44444444444445</v>
       </c>
       <c r="I336" t="n">
         <v>101.66</v>
@@ -21632,7 +21632,7 @@
         <v>0.02032</v>
       </c>
       <c r="S336" t="n">
-        <v>731.0713876360826</v>
+        <v>70.0192568415911</v>
       </c>
     </row>
     <row r="337">
@@ -21662,7 +21662,7 @@
         <v>20.5</v>
       </c>
       <c r="H337" t="n">
-        <v>44.8</v>
+        <v>7.11111111111111</v>
       </c>
       <c r="I337" t="n">
         <v>101.51</v>
@@ -21695,7 +21695,7 @@
         <v>0.02032</v>
       </c>
       <c r="S337" t="n">
-        <v>394.9954970148439</v>
+        <v>41.86522927487619</v>
       </c>
     </row>
     <row r="338">
@@ -21725,7 +21725,7 @@
         <v>18.66666666666666</v>
       </c>
       <c r="H338" t="n">
-        <v>43.1</v>
+        <v>6.166666666666668</v>
       </c>
       <c r="I338" t="n">
         <v>102</v>
@@ -21758,7 +21758,7 @@
         <v>0.02032</v>
       </c>
       <c r="S338" t="n">
-        <v>405.1758425720435</v>
+        <v>43.96883768642497</v>
       </c>
     </row>
     <row r="339">
@@ -21788,7 +21788,7 @@
         <v>4.722222222222222</v>
       </c>
       <c r="H339" t="n">
-        <v>23.7</v>
+        <v>-4.611111111111112</v>
       </c>
       <c r="I339" t="n">
         <v>103.06</v>
@@ -21821,7 +21821,7 @@
         <v>0.02032</v>
       </c>
       <c r="S339" t="n">
-        <v>342.5096201566304</v>
+        <v>50.80226680255356</v>
       </c>
     </row>
     <row r="340">
@@ -21851,7 +21851,7 @@
         <v>10.72222222222222</v>
       </c>
       <c r="H340" t="n">
-        <v>24.9</v>
+        <v>-3.944444444444446</v>
       </c>
       <c r="I340" t="n">
         <v>101.75</v>
@@ -21884,7 +21884,7 @@
         <v>0.02032</v>
       </c>
       <c r="S340" t="n">
-        <v>244.494070609403</v>
+        <v>35.47973249348903</v>
       </c>
     </row>
     <row r="341">
@@ -21914,7 +21914,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H341" t="n">
-        <v>38.4</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="I341" t="n">
         <v>101.12</v>
@@ -21947,7 +21947,7 @@
         <v>0.02032</v>
       </c>
       <c r="S341" t="n">
-        <v>399.5707523949108</v>
+        <v>46.41911935207951</v>
       </c>
     </row>
     <row r="342">
@@ -21977,7 +21977,7 @@
         <v>4.333333333333332</v>
       </c>
       <c r="H342" t="n">
-        <v>36.1</v>
+        <v>2.277777777777779</v>
       </c>
       <c r="I342" t="n">
         <v>102.56</v>
@@ -22010,7 +22010,7 @@
         <v>0.02032</v>
       </c>
       <c r="S342" t="n">
-        <v>718.8405679795204</v>
+        <v>86.4850524329111</v>
       </c>
     </row>
     <row r="343">
@@ -22040,7 +22040,7 @@
         <v>9.722222222222223</v>
       </c>
       <c r="H343" t="n">
-        <v>35.7</v>
+        <v>2.055555555555557</v>
       </c>
       <c r="I343" t="n">
         <v>102.29</v>
@@ -22073,7 +22073,7 @@
         <v>0.02032</v>
       </c>
       <c r="S343" t="n">
-        <v>485.9608206621156</v>
+        <v>58.83070554964647</v>
       </c>
     </row>
     <row r="344">
@@ -22103,7 +22103,7 @@
         <v>10.55555555555556</v>
       </c>
       <c r="H344" t="n">
-        <v>37.9</v>
+        <v>3.277777777777777</v>
       </c>
       <c r="I344" t="n">
         <v>101.71</v>
@@ -22136,7 +22136,7 @@
         <v>0.02032</v>
       </c>
       <c r="S344" t="n">
-        <v>518.4660689353493</v>
+        <v>60.68590791417814</v>
       </c>
     </row>
     <row r="345">
@@ -22166,7 +22166,7 @@
         <v>12</v>
       </c>
       <c r="H345" t="n">
-        <v>45</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="I345" t="n">
         <v>101.12</v>
@@ -22199,7 +22199,7 @@
         <v>0.02032</v>
       </c>
       <c r="S345" t="n">
-        <v>686.3725432935499</v>
+        <v>72.54915023556023</v>
       </c>
     </row>
     <row r="346">
@@ -22229,7 +22229,7 @@
         <v>12.05555555555556</v>
       </c>
       <c r="H346" t="n">
-        <v>37.7</v>
+        <v>3.166666666666668</v>
       </c>
       <c r="I346" t="n">
         <v>101.84</v>
@@ -22262,7 +22262,7 @@
         <v>0.02032</v>
       </c>
       <c r="S346" t="n">
-        <v>464.3291282961333</v>
+        <v>54.51368314862558</v>
       </c>
     </row>
     <row r="347">
@@ -22292,7 +22292,7 @@
         <v>8.833333333333332</v>
       </c>
       <c r="H347" t="n">
-        <v>38.4</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="I347" t="n">
         <v>102.23</v>
@@ -22325,7 +22325,7 @@
         <v>0.02032</v>
       </c>
       <c r="S347" t="n">
-        <v>597.9963643768043</v>
+        <v>69.47071186702318</v>
       </c>
     </row>
     <row r="348">
@@ -22355,7 +22355,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H348" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I348" t="n">
         <v>102.17</v>
@@ -22388,7 +22388,7 @@
         <v>0.02032</v>
       </c>
       <c r="S348" t="n">
-        <v>540.3501710076752</v>
+        <v>62.39981744695213</v>
       </c>
     </row>
     <row r="349">
@@ -22418,7 +22418,7 @@
         <v>13.5</v>
       </c>
       <c r="H349" t="n">
-        <v>33.9</v>
+        <v>1.055555555555555</v>
       </c>
       <c r="I349" t="n">
         <v>102.11</v>
@@ -22451,7 +22451,7 @@
         <v>0.02032</v>
       </c>
       <c r="S349" t="n">
-        <v>342.531315676034</v>
+        <v>42.65937789802589</v>
       </c>
     </row>
     <row r="350">
@@ -22481,7 +22481,7 @@
         <v>12.11111111111111</v>
       </c>
       <c r="H350" t="n">
-        <v>44.4</v>
+        <v>6.888888888888888</v>
       </c>
       <c r="I350" t="n">
         <v>101.71</v>
@@ -22514,7 +22514,7 @@
         <v>0.02032</v>
       </c>
       <c r="S350" t="n">
-        <v>660.5144811829387</v>
+        <v>70.39331319867613</v>
       </c>
     </row>
     <row r="351">
@@ -22544,7 +22544,7 @@
         <v>11.22222222222222</v>
       </c>
       <c r="H351" t="n">
-        <v>46.4</v>
+        <v>8</v>
       </c>
       <c r="I351" t="n">
         <v>101.68</v>
@@ -22577,7 +22577,7 @@
         <v>0.02032</v>
       </c>
       <c r="S351" t="n">
-        <v>776.5518483992423</v>
+        <v>80.54014645850751</v>
       </c>
     </row>
     <row r="352">
@@ -22607,7 +22607,7 @@
         <v>20.16666666666666</v>
       </c>
       <c r="H352" t="n">
-        <v>53.4</v>
+        <v>11.88888888888889</v>
       </c>
       <c r="I352" t="n">
         <v>100.72</v>
@@ -22640,7 +22640,7 @@
         <v>0.02032</v>
       </c>
       <c r="S352" t="n">
-        <v>621.2741518155077</v>
+        <v>58.92395269271196</v>
       </c>
     </row>
     <row r="353">
@@ -22670,7 +22670,7 @@
         <v>17.27777777777778</v>
       </c>
       <c r="H353" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I353" t="n">
         <v>101.42</v>
@@ -22703,7 +22703,7 @@
         <v>0.02032</v>
       </c>
       <c r="S353" t="n">
-        <v>351.7975441306912</v>
+        <v>40.62569739009005</v>
       </c>
     </row>
     <row r="354">
@@ -22733,7 +22733,7 @@
         <v>18.94444444444444</v>
       </c>
       <c r="H354" t="n">
-        <v>49.2</v>
+        <v>9.555555555555557</v>
       </c>
       <c r="I354" t="n">
         <v>100.73</v>
@@ -22766,7 +22766,7 @@
         <v>0.02032</v>
       </c>
       <c r="S354" t="n">
-        <v>544.4751121090968</v>
+        <v>54.42916361726365</v>
       </c>
     </row>
     <row r="355">
@@ -22796,7 +22796,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H355" t="n">
-        <v>65.09999999999999</v>
+        <v>18.38888888888889</v>
       </c>
       <c r="I355" t="n">
         <v>100.75</v>
@@ -22829,7 +22829,7 @@
         <v>0.02032</v>
       </c>
       <c r="S355" t="n">
-        <v>791.7146259791075</v>
+        <v>65.85071977785904</v>
       </c>
     </row>
     <row r="356">
@@ -22859,7 +22859,7 @@
         <v>18.88888888888889</v>
       </c>
       <c r="H356" t="n">
-        <v>58.4</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="I356" t="n">
         <v>100.72</v>
@@ -22892,7 +22892,7 @@
         <v>0.02032</v>
       </c>
       <c r="S356" t="n">
-        <v>855.1284182945137</v>
+        <v>76.47679339773015</v>
       </c>
     </row>
     <row r="357">
@@ -22922,7 +22922,7 @@
         <v>11.33333333333333</v>
       </c>
       <c r="H357" t="n">
-        <v>46.5</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="I357" t="n">
         <v>102.24</v>
@@ -22955,7 +22955,7 @@
         <v>0.02032</v>
       </c>
       <c r="S357" t="n">
-        <v>774.8088320783862</v>
+        <v>80.2517906573194</v>
       </c>
     </row>
     <row r="358">
@@ -22985,7 +22985,7 @@
         <v>12.77777777777778</v>
       </c>
       <c r="H358" t="n">
-        <v>45.3</v>
+        <v>7.388888888888888</v>
       </c>
       <c r="I358" t="n">
         <v>102.3</v>
@@ -23018,7 +23018,7 @@
         <v>0.02032</v>
       </c>
       <c r="S358" t="n">
-        <v>662.3570322751614</v>
+        <v>69.72482097046873</v>
       </c>
     </row>
     <row r="359">
@@ -23048,7 +23048,7 @@
         <v>10.83333333333333</v>
       </c>
       <c r="H359" t="n">
-        <v>46.5</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="I359" t="n">
         <v>101.73</v>
@@ -23081,7 +23081,7 @@
         <v>0.02032</v>
       </c>
       <c r="S359" t="n">
-        <v>800.9586254049932</v>
+        <v>82.96028809939131</v>
       </c>
     </row>
     <row r="360">
@@ -23111,7 +23111,7 @@
         <v>16</v>
       </c>
       <c r="H360" t="n">
-        <v>48.7</v>
+        <v>9.27777777777778</v>
       </c>
       <c r="I360" t="n">
         <v>101.67</v>
@@ -23144,7 +23144,7 @@
         <v>0.02032</v>
       </c>
       <c r="S360" t="n">
-        <v>639.5024276636791</v>
+        <v>64.34361267264205</v>
       </c>
     </row>
     <row r="361">
@@ -23174,7 +23174,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H361" t="n">
-        <v>40.1</v>
+        <v>4.500000000000001</v>
       </c>
       <c r="I361" t="n">
         <v>101.36</v>
@@ -23207,7 +23207,7 @@
         <v>0.02032</v>
       </c>
       <c r="S361" t="n">
-        <v>289.060633582922</v>
+        <v>32.74624402350715</v>
       </c>
     </row>
     <row r="362">
@@ -23237,7 +23237,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H362" t="n">
-        <v>54.6</v>
+        <v>12.55555555555556</v>
       </c>
       <c r="I362" t="n">
         <v>101.11</v>
@@ -23270,7 +23270,7 @@
         <v>0.02032</v>
       </c>
       <c r="S362" t="n">
-        <v>512.6413627618715</v>
+        <v>47.92218935159664</v>
       </c>
     </row>
     <row r="363">
@@ -23300,7 +23300,7 @@
         <v>20.05555555555555</v>
       </c>
       <c r="H363" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I363" t="n">
         <v>100.8</v>
@@ -23333,7 +23333,7 @@
         <v>0.02032</v>
       </c>
       <c r="S363" t="n">
-        <v>1113.363600678499</v>
+        <v>92.03415621970311</v>
       </c>
     </row>
     <row r="364">
@@ -23363,7 +23363,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H364" t="n">
-        <v>68.7</v>
+        <v>20.38888888888889</v>
       </c>
       <c r="I364" t="n">
         <v>100.11</v>
@@ -23396,7 +23396,7 @@
         <v>0.02032</v>
       </c>
       <c r="S364" t="n">
-        <v>1168.266793212943</v>
+        <v>93.71056935230689</v>
       </c>
     </row>
     <row r="365">
@@ -23426,7 +23426,7 @@
         <v>18.11111111111111</v>
       </c>
       <c r="H365" t="n">
-        <v>48</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="I365" t="n">
         <v>101.94</v>
@@ -23459,7 +23459,7 @@
         <v>0.02032</v>
       </c>
       <c r="S365" t="n">
-        <v>539.9794873130976</v>
+        <v>54.8285701412917</v>
       </c>
     </row>
     <row r="366">
@@ -23489,7 +23489,7 @@
         <v>20</v>
       </c>
       <c r="H366" t="n">
-        <v>50.2</v>
+        <v>10.11111111111111</v>
       </c>
       <c r="I366" t="n">
         <v>101.66</v>
@@ -23522,7 +23522,7 @@
         <v>0.02032</v>
       </c>
       <c r="S366" t="n">
-        <v>536.0342217020686</v>
+        <v>52.90359325325071</v>
       </c>
     </row>
     <row r="367">
@@ -23552,7 +23552,7 @@
         <v>19.5</v>
       </c>
       <c r="H367" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I367" t="n">
         <v>101.37</v>
@@ -23585,7 +23585,7 @@
         <v>0.02032</v>
       </c>
       <c r="S367" t="n">
-        <v>669.9644197607395</v>
+        <v>63.00586453246684</v>
       </c>
     </row>
     <row r="368">
@@ -23615,7 +23615,7 @@
         <v>18.16666666666667</v>
       </c>
       <c r="H368" t="n">
-        <v>60.2</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="I368" t="n">
         <v>101.08</v>
@@ -23648,7 +23648,7 @@
         <v>0.02032</v>
       </c>
       <c r="S368" t="n">
-        <v>973.580955182027</v>
+        <v>85.33236654420386</v>
       </c>
     </row>
     <row r="369">
@@ -23678,7 +23678,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H369" t="n">
-        <v>59.9</v>
+        <v>15.5</v>
       </c>
       <c r="I369" t="n">
         <v>100.76</v>
@@ -23711,7 +23711,7 @@
         <v>0.02032</v>
       </c>
       <c r="S369" t="n">
-        <v>675.2487016642641</v>
+        <v>59.3812946123755</v>
       </c>
     </row>
     <row r="370">
@@ -23741,7 +23741,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H370" t="n">
-        <v>55.9</v>
+        <v>13.27777777777778</v>
       </c>
       <c r="I370" t="n">
         <v>100.97</v>
@@ -23774,7 +23774,7 @@
         <v>0.02032</v>
       </c>
       <c r="S370" t="n">
-        <v>635.0305873697781</v>
+        <v>58.45556021164789</v>
       </c>
     </row>
     <row r="371">
@@ -23804,7 +23804,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H371" t="n">
-        <v>72.2</v>
+        <v>22.33333333333334</v>
       </c>
       <c r="I371" t="n">
         <v>100.75</v>
@@ -23837,7 +23837,7 @@
         <v>0.02032</v>
       </c>
       <c r="S371" t="n">
-        <v>962.4438098072447</v>
+        <v>74.65528176811385</v>
       </c>
     </row>
     <row r="372">
@@ -23867,7 +23867,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H372" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I372" t="n">
         <v>100.8</v>
@@ -23900,7 +23900,7 @@
         <v>0.02032</v>
       </c>
       <c r="S372" t="n">
-        <v>1082.484040263696</v>
+        <v>81.04155609382474</v>
       </c>
     </row>
     <row r="373">
@@ -23930,7 +23930,7 @@
         <v>21.5</v>
       </c>
       <c r="H373" t="n">
-        <v>65.90000000000001</v>
+        <v>18.83333333333334</v>
       </c>
       <c r="I373" t="n">
         <v>100.98</v>
@@ -23963,7 +23963,7 @@
         <v>0.02032</v>
       </c>
       <c r="S373" t="n">
-        <v>1027.774197060284</v>
+        <v>84.78547365522522</v>
       </c>
     </row>
     <row r="374">
@@ -23993,7 +23993,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H374" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I374" t="n">
         <v>100.7</v>
@@ -24026,7 +24026,7 @@
         <v>0.02032</v>
       </c>
       <c r="S374" t="n">
-        <v>614.6828207487063</v>
+        <v>53.52079268496593</v>
       </c>
     </row>
     <row r="375">
@@ -24056,7 +24056,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H375" t="n">
-        <v>64.90000000000001</v>
+        <v>18.27777777777778</v>
       </c>
       <c r="I375" t="n">
         <v>100.44</v>
@@ -24089,7 +24089,7 @@
         <v>0.02032</v>
       </c>
       <c r="S375" t="n">
-        <v>787.1903572184744</v>
+        <v>65.60998392154961</v>
       </c>
     </row>
     <row r="376">
@@ -24119,7 +24119,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H376" t="n">
-        <v>58.8</v>
+        <v>14.88888888888889</v>
       </c>
       <c r="I376" t="n">
         <v>101.16</v>
@@ -24152,7 +24152,7 @@
         <v>0.02032</v>
       </c>
       <c r="S376" t="n">
-        <v>541.7243381944376</v>
+        <v>48.22938149007414</v>
       </c>
     </row>
     <row r="377">
@@ -24182,7 +24182,7 @@
         <v>17.5</v>
       </c>
       <c r="H377" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I377" t="n">
         <v>101.08</v>
@@ -24215,7 +24215,7 @@
         <v>0.02032</v>
       </c>
       <c r="S377" t="n">
-        <v>1044.105700768528</v>
+        <v>90.91089398587377</v>
       </c>
     </row>
     <row r="378">
@@ -24245,7 +24245,7 @@
         <v>30</v>
       </c>
       <c r="H378" t="n">
-        <v>65.2</v>
+        <v>18.44444444444445</v>
       </c>
       <c r="I378" t="n">
         <v>99.92999999999999</v>
@@ -24278,7 +24278,7 @@
         <v>0.02032</v>
       </c>
       <c r="S378" t="n">
-        <v>601.2508955993603</v>
+        <v>49.95734911879867</v>
       </c>
     </row>
     <row r="379">
@@ -24308,7 +24308,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H379" t="n">
-        <v>60.7</v>
+        <v>15.94444444444445</v>
       </c>
       <c r="I379" t="n">
         <v>100.42</v>
@@ -24341,7 +24341,7 @@
         <v>0.02032</v>
       </c>
       <c r="S379" t="n">
-        <v>538.7677085855921</v>
+        <v>46.96233966240563</v>
       </c>
     </row>
     <row r="380">
@@ -24371,7 +24371,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H380" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I380" t="n">
         <v>100.41</v>
@@ -24404,7 +24404,7 @@
         <v>0.02032</v>
       </c>
       <c r="S380" t="n">
-        <v>592.1949732995276</v>
+        <v>52.01978501322113</v>
       </c>
     </row>
     <row r="381">
@@ -24434,7 +24434,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H381" t="n">
-        <v>60.7</v>
+        <v>15.94444444444445</v>
       </c>
       <c r="I381" t="n">
         <v>100.42</v>
@@ -24467,7 +24467,7 @@
         <v>0.02032</v>
       </c>
       <c r="S381" t="n">
-        <v>540.5137345252697</v>
+        <v>47.11453412753752</v>
       </c>
     </row>
     <row r="382">
@@ -24497,7 +24497,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H382" t="n">
-        <v>65.40000000000001</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="I382" t="n">
         <v>100.72</v>
@@ -24530,7 +24530,7 @@
         <v>0.02032</v>
       </c>
       <c r="S382" t="n">
-        <v>674.6553869726965</v>
+        <v>55.94111370597835</v>
       </c>
     </row>
     <row r="383">
@@ -24560,7 +24560,7 @@
         <v>25</v>
       </c>
       <c r="H383" t="n">
-        <v>68.2</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="I383" t="n">
         <v>100.67</v>
@@ -24593,7 +24593,7 @@
         <v>0.02032</v>
       </c>
       <c r="S383" t="n">
-        <v>921.6053148487827</v>
+        <v>74.29010739815894</v>
       </c>
     </row>
     <row r="384">
@@ -24623,7 +24623,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H384" t="n">
-        <v>72.2</v>
+        <v>22.33333333333334</v>
       </c>
       <c r="I384" t="n">
         <v>100.49</v>
@@ -24656,7 +24656,7 @@
         <v>0.02032</v>
       </c>
       <c r="S384" t="n">
-        <v>1181.20880048675</v>
+        <v>91.62454465261217</v>
       </c>
     </row>
     <row r="385">
@@ -24686,7 +24686,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H385" t="n">
-        <v>70</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="I385" t="n">
         <v>100.55</v>
@@ -24719,7 +24719,7 @@
         <v>0.02032</v>
       </c>
       <c r="S385" t="n">
-        <v>965.1512834462965</v>
+        <v>76.44504169240159</v>
       </c>
     </row>
     <row r="386">
@@ -24749,7 +24749,7 @@
         <v>34.11111111111111</v>
       </c>
       <c r="H386" t="n">
-        <v>75</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="I386" t="n">
         <v>100.28</v>
@@ -24782,7 +24782,7 @@
         <v>0.02032</v>
       </c>
       <c r="S386" t="n">
-        <v>731.3572078437667</v>
+        <v>55.29339356179188</v>
       </c>
     </row>
     <row r="387">
@@ -24812,7 +24812,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H387" t="n">
-        <v>72.2</v>
+        <v>22.33333333333334</v>
       </c>
       <c r="I387" t="n">
         <v>100.09</v>
@@ -24845,7 +24845,7 @@
         <v>0.02032</v>
       </c>
       <c r="S387" t="n">
-        <v>1157.759651556323</v>
+        <v>89.80563034012457</v>
       </c>
     </row>
     <row r="388">
@@ -24875,7 +24875,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H388" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I388" t="n">
         <v>100.42</v>
@@ -24908,7 +24908,7 @@
         <v>0.02032</v>
       </c>
       <c r="S388" t="n">
-        <v>964.8375008080623</v>
+        <v>73.40775609937863</v>
       </c>
     </row>
     <row r="389">
@@ -24938,7 +24938,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H389" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I389" t="n">
         <v>100.38</v>
@@ -24971,7 +24971,7 @@
         <v>0.02032</v>
       </c>
       <c r="S389" t="n">
-        <v>1210.179799940179</v>
+        <v>88.8829427515501</v>
       </c>
     </row>
     <row r="390">
@@ -25001,7 +25001,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H390" t="n">
-        <v>70.2</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="I390" t="n">
         <v>99.96000000000001</v>
@@ -25034,7 +25034,7 @@
         <v>0.02032</v>
       </c>
       <c r="S390" t="n">
-        <v>856.8690639938899</v>
+        <v>67.73798496540697</v>
       </c>
     </row>
     <row r="391">
@@ -25064,7 +25064,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H391" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I391" t="n">
         <v>99.81</v>
@@ -25097,7 +25097,7 @@
         <v>0.02032</v>
       </c>
       <c r="S391" t="n">
-        <v>995.6257753238915</v>
+        <v>74.73721868804584</v>
       </c>
     </row>
     <row r="392">
@@ -25127,7 +25127,7 @@
         <v>32.83333333333333</v>
       </c>
       <c r="H392" t="n">
-        <v>79.40000000000001</v>
+        <v>26.33333333333334</v>
       </c>
       <c r="I392" t="n">
         <v>100.04</v>
@@ -25160,7 +25160,7 @@
         <v>0.02032</v>
       </c>
       <c r="S392" t="n">
-        <v>944.4955581417704</v>
+        <v>68.72366184557335</v>
       </c>
     </row>
     <row r="393">
@@ -25190,7 +25190,7 @@
         <v>30.88888888888889</v>
       </c>
       <c r="H393" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I393" t="n">
         <v>100.18</v>
@@ -25223,7 +25223,7 @@
         <v>0.02032</v>
       </c>
       <c r="S393" t="n">
-        <v>1033.106138765017</v>
+        <v>75.49007376127481</v>
       </c>
     </row>
     <row r="394">
@@ -25253,7 +25253,7 @@
         <v>32.77777777777778</v>
       </c>
       <c r="H394" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I394" t="n">
         <v>100.06</v>
@@ -25286,7 +25286,7 @@
         <v>0.02032</v>
       </c>
       <c r="S394" t="n">
-        <v>912.8195160471029</v>
+        <v>66.92835054476943</v>
       </c>
     </row>
     <row r="395">
@@ -25316,7 +25316,7 @@
         <v>31.72222222222222</v>
       </c>
       <c r="H395" t="n">
-        <v>79.7</v>
+        <v>26.5</v>
       </c>
       <c r="I395" t="n">
         <v>100.1</v>
@@ -25349,7 +25349,7 @@
         <v>0.02032</v>
       </c>
       <c r="S395" t="n">
-        <v>1018.289728643407</v>
+        <v>73.90620378516218</v>
       </c>
     </row>
     <row r="396">
@@ -25379,7 +25379,7 @@
         <v>30.77777777777778</v>
       </c>
       <c r="H396" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I396" t="n">
         <v>100.01</v>
@@ -25412,7 +25412,7 @@
         <v>0.02032</v>
       </c>
       <c r="S396" t="n">
-        <v>1014.13814631872</v>
+        <v>74.4844549593917</v>
       </c>
     </row>
     <row r="397">
@@ -25442,7 +25442,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H397" t="n">
-        <v>73.59999999999999</v>
+        <v>23.11111111111111</v>
       </c>
       <c r="I397" t="n">
         <v>100.22</v>
@@ -25475,7 +25475,7 @@
         <v>0.02032</v>
       </c>
       <c r="S397" t="n">
-        <v>979.8122486574651</v>
+        <v>75.02432089516452</v>
       </c>
     </row>
     <row r="398">
@@ -25505,7 +25505,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H398" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I398" t="n">
         <v>100.64</v>
@@ -25538,7 +25538,7 @@
         <v>0.02032</v>
       </c>
       <c r="S398" t="n">
-        <v>1076.754555985382</v>
+        <v>82.22138779258246</v>
       </c>
     </row>
     <row r="399">
@@ -25568,7 +25568,7 @@
         <v>25.5</v>
       </c>
       <c r="H399" t="n">
-        <v>74</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="I399" t="n">
         <v>100.82</v>
@@ -25601,7 +25601,7 @@
         <v>0.02032</v>
       </c>
       <c r="S399" t="n">
-        <v>1151.125243980717</v>
+        <v>87.82026535609856</v>
       </c>
     </row>
     <row r="400">
@@ -25631,7 +25631,7 @@
         <v>27.61111111111111</v>
       </c>
       <c r="H400" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I400" t="n">
         <v>100.92</v>
@@ -25664,7 +25664,7 @@
         <v>0.02032</v>
       </c>
       <c r="S400" t="n">
-        <v>1144.141719568185</v>
+        <v>85.13168855706238</v>
       </c>
     </row>
     <row r="401">
@@ -25694,7 +25694,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H401" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I401" t="n">
         <v>100.75</v>
@@ -25727,7 +25727,7 @@
         <v>0.02032</v>
       </c>
       <c r="S401" t="n">
-        <v>1270.868019499516</v>
+        <v>95.14516432503579</v>
       </c>
     </row>
     <row r="402">
@@ -25757,7 +25757,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H402" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I402" t="n">
         <v>100.64</v>
@@ -25790,7 +25790,7 @@
         <v>0.02032</v>
       </c>
       <c r="S402" t="n">
-        <v>1119.049546808594</v>
+        <v>82.97440931920451</v>
       </c>
     </row>
     <row r="403">
@@ -25820,7 +25820,7 @@
         <v>27</v>
       </c>
       <c r="H403" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I403" t="n">
         <v>100.57</v>
@@ -25853,7 +25853,7 @@
         <v>0.02032</v>
       </c>
       <c r="S403" t="n">
-        <v>1241.703765605369</v>
+        <v>91.51231326791212</v>
       </c>
     </row>
     <row r="404">
@@ -25883,7 +25883,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H404" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I404" t="n">
         <v>100.53</v>
@@ -25916,7 +25916,7 @@
         <v>0.02032</v>
       </c>
       <c r="S404" t="n">
-        <v>1090.760792589272</v>
+        <v>80.38796862560945</v>
       </c>
     </row>
     <row r="405">
@@ -25946,7 +25946,7 @@
         <v>31.5</v>
       </c>
       <c r="H405" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I405" t="n">
         <v>100.59</v>
@@ -25979,7 +25979,7 @@
         <v>0.02032</v>
       </c>
       <c r="S405" t="n">
-        <v>953.1657302106166</v>
+        <v>70.30796673113696</v>
       </c>
     </row>
     <row r="406">
@@ -26009,7 +26009,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H406" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I406" t="n">
         <v>100.73</v>
@@ -26042,7 +26042,7 @@
         <v>0.02032</v>
       </c>
       <c r="S406" t="n">
-        <v>1007.077686842794</v>
+        <v>75.26313159318475</v>
       </c>
     </row>
     <row r="407">
@@ -26072,7 +26072,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H407" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I407" t="n">
         <v>100.81</v>
@@ -26105,7 +26105,7 @@
         <v>0.02032</v>
       </c>
       <c r="S407" t="n">
-        <v>1140.427621588059</v>
+        <v>84.85533517608968</v>
       </c>
     </row>
     <row r="408">
@@ -26135,7 +26135,7 @@
         <v>28</v>
       </c>
       <c r="H408" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I408" t="n">
         <v>100.57</v>
@@ -26168,7 +26168,7 @@
         <v>0.02032</v>
       </c>
       <c r="S408" t="n">
-        <v>1072.349190023862</v>
+        <v>80.49650572645133</v>
       </c>
     </row>
     <row r="409">
@@ -26198,7 +26198,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H409" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I409" t="n">
         <v>100.39</v>
@@ -26231,7 +26231,7 @@
         <v>0.02032</v>
       </c>
       <c r="S409" t="n">
-        <v>1168.892368109603</v>
+        <v>86.821359943758</v>
       </c>
     </row>
     <row r="410">
@@ -26261,7 +26261,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H410" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I410" t="n">
         <v>100.36</v>
@@ -26294,7 +26294,7 @@
         <v>0.02032</v>
       </c>
       <c r="S410" t="n">
-        <v>1233.19597360233</v>
+        <v>91.20007032741596</v>
       </c>
     </row>
     <row r="411">
@@ -26324,7 +26324,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H411" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I411" t="n">
         <v>100.67</v>
@@ -26357,7 +26357,7 @@
         <v>0.02032</v>
       </c>
       <c r="S411" t="n">
-        <v>1162.917706721054</v>
+        <v>86.52874581256803</v>
       </c>
     </row>
     <row r="412">
@@ -26387,7 +26387,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H412" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I412" t="n">
         <v>100.49</v>
@@ -26420,7 +26420,7 @@
         <v>0.02032</v>
       </c>
       <c r="S412" t="n">
-        <v>1087.907822462824</v>
+        <v>79.90254729727482</v>
       </c>
     </row>
     <row r="413">
@@ -26450,7 +26450,7 @@
         <v>31.66666666666667</v>
       </c>
       <c r="H413" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I413" t="n">
         <v>100.24</v>
@@ -26483,7 +26483,7 @@
         <v>0.02032</v>
       </c>
       <c r="S413" t="n">
-        <v>940.2473282385097</v>
+        <v>69.41500262712533</v>
       </c>
     </row>
     <row r="414">
@@ -26513,7 +26513,7 @@
         <v>30.72222222222222</v>
       </c>
       <c r="H414" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I414" t="n">
         <v>100.13</v>
@@ -26546,7 +26546,7 @@
         <v>0.02032</v>
       </c>
       <c r="S414" t="n">
-        <v>1025.850417451506</v>
+        <v>75.21582869197726</v>
       </c>
     </row>
     <row r="415">
@@ -26576,7 +26576,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H415" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I415" t="n">
         <v>100.06</v>
@@ -26609,7 +26609,7 @@
         <v>0.02032</v>
       </c>
       <c r="S415" t="n">
-        <v>1228.491338358832</v>
+        <v>90.61669488236559</v>
       </c>
     </row>
     <row r="416">
@@ -26639,7 +26639,7 @@
         <v>26.38888888888889</v>
       </c>
       <c r="H416" t="n">
-        <v>73.2</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="I416" t="n">
         <v>100.2</v>
@@ -26672,7 +26672,7 @@
         <v>0.02032</v>
       </c>
       <c r="S416" t="n">
-        <v>1055.302896086653</v>
+        <v>81.10215522168012</v>
       </c>
     </row>
     <row r="417">
@@ -26702,7 +26702,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H417" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I417" t="n">
         <v>100.53</v>
@@ -26735,7 +26735,7 @@
         <v>0.02032</v>
       </c>
       <c r="S417" t="n">
-        <v>867.7742668164718</v>
+        <v>66.937139801223</v>
       </c>
     </row>
     <row r="418">
@@ -26765,7 +26765,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H418" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I418" t="n">
         <v>100.02</v>
@@ -26798,7 +26798,7 @@
         <v>0.02032</v>
       </c>
       <c r="S418" t="n">
-        <v>965.0600937760354</v>
+        <v>72.18664792126501</v>
       </c>
     </row>
     <row r="419">
@@ -26828,7 +26828,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H419" t="n">
-        <v>75</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="I419" t="n">
         <v>100.27</v>
@@ -26861,7 +26861,7 @@
         <v>0.02032</v>
       </c>
       <c r="S419" t="n">
-        <v>1013.42702866038</v>
+        <v>76.6189475414949</v>
       </c>
     </row>
     <row r="420">
@@ -26891,7 +26891,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H420" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I420" t="n">
         <v>100.51</v>
@@ -26924,7 +26924,7 @@
         <v>0.02032</v>
       </c>
       <c r="S420" t="n">
-        <v>1016.112149335358</v>
+        <v>77.30888648664154</v>
       </c>
     </row>
     <row r="421">
@@ -26954,7 +26954,7 @@
         <v>28</v>
       </c>
       <c r="H421" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I421" t="n">
         <v>100.52</v>
@@ -26987,7 +26987,7 @@
         <v>0.02032</v>
       </c>
       <c r="S421" t="n">
-        <v>1045.486789612197</v>
+        <v>78.90112910967211</v>
       </c>
     </row>
     <row r="422">
@@ -27017,7 +27017,7 @@
         <v>30.66666666666667</v>
       </c>
       <c r="H422" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I422" t="n">
         <v>100.43</v>
@@ -27050,7 +27050,7 @@
         <v>0.02032</v>
       </c>
       <c r="S422" t="n">
-        <v>946.6624184356178</v>
+        <v>70.62356975373122</v>
       </c>
     </row>
     <row r="423">
@@ -27080,7 +27080,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H423" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I423" t="n">
         <v>100.39</v>
@@ -27113,7 +27113,7 @@
         <v>0.02032</v>
       </c>
       <c r="S423" t="n">
-        <v>1002.440713903999</v>
+        <v>75.65251419567872</v>
       </c>
     </row>
     <row r="424">
@@ -27143,7 +27143,7 @@
         <v>28</v>
       </c>
       <c r="H424" t="n">
-        <v>72.7</v>
+        <v>22.61111111111111</v>
       </c>
       <c r="I424" t="n">
         <v>100.61</v>
@@ -27176,7 +27176,7 @@
         <v>0.02032</v>
       </c>
       <c r="S424" t="n">
-        <v>939.6399808662109</v>
+        <v>72.54785432025737</v>
       </c>
     </row>
     <row r="425">
@@ -27206,7 +27206,7 @@
         <v>28</v>
       </c>
       <c r="H425" t="n">
-        <v>75</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="I425" t="n">
         <v>100.8</v>
@@ -27239,7 +27239,7 @@
         <v>0.02032</v>
       </c>
       <c r="S425" t="n">
-        <v>1036.661012232836</v>
+        <v>78.37552529023635</v>
       </c>
     </row>
     <row r="426">
@@ -27269,7 +27269,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H426" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I426" t="n">
         <v>100.64</v>
@@ -27302,7 +27302,7 @@
         <v>0.02032</v>
       </c>
       <c r="S426" t="n">
-        <v>988.0768085803135</v>
+        <v>74.03912413973937</v>
       </c>
     </row>
     <row r="427">
@@ -27332,7 +27332,7 @@
         <v>27.5</v>
       </c>
       <c r="H427" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I427" t="n">
         <v>100.27</v>
@@ -27365,7 +27365,7 @@
         <v>0.02032</v>
       </c>
       <c r="S427" t="n">
-        <v>1090.262361272069</v>
+        <v>82.0599560048438</v>
       </c>
     </row>
     <row r="428">
@@ -27395,7 +27395,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H428" t="n">
-        <v>71.8</v>
+        <v>22.11111111111111</v>
       </c>
       <c r="I428" t="n">
         <v>100.36</v>
@@ -27428,7 +27428,7 @@
         <v>0.02032</v>
       </c>
       <c r="S428" t="n">
-        <v>844.5869770218947</v>
+        <v>65.75935052987269</v>
       </c>
     </row>
     <row r="429">
@@ -27458,7 +27458,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H429" t="n">
-        <v>72</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="I429" t="n">
         <v>100.67</v>
@@ -27491,7 +27491,7 @@
         <v>0.02032</v>
       </c>
       <c r="S429" t="n">
-        <v>951.0582498238294</v>
+        <v>73.91032495293045</v>
       </c>
     </row>
     <row r="430">
@@ -27521,7 +27521,7 @@
         <v>23.22222222222222</v>
       </c>
       <c r="H430" t="n">
-        <v>71.7</v>
+        <v>22.05555555555556</v>
       </c>
       <c r="I430" t="n">
         <v>100.16</v>
@@ -27554,7 +27554,7 @@
         <v>0.02032</v>
       </c>
       <c r="S430" t="n">
-        <v>1195.362442543046</v>
+        <v>93.15821874447123</v>
       </c>
     </row>
     <row r="431">
@@ -27584,7 +27584,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H431" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I431" t="n">
         <v>100.58</v>
@@ -27617,7 +27617,7 @@
         <v>0.02032</v>
       </c>
       <c r="S431" t="n">
-        <v>1109.761519472423</v>
+        <v>89.63460132837773</v>
       </c>
     </row>
     <row r="432">
@@ -27647,7 +27647,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="H432" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I432" t="n">
         <v>101.23</v>
@@ -27680,7 +27680,7 @@
         <v>0.02032</v>
       </c>
       <c r="S432" t="n">
-        <v>1080.122764597085</v>
+        <v>86.13350185615965</v>
       </c>
     </row>
     <row r="433">
@@ -27710,7 +27710,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H433" t="n">
-        <v>66.7</v>
+        <v>19.27777777777778</v>
       </c>
       <c r="I433" t="n">
         <v>101.22</v>
@@ -27743,7 +27743,7 @@
         <v>0.02032</v>
       </c>
       <c r="S433" t="n">
-        <v>894.1945480142666</v>
+        <v>73.16906491798009</v>
       </c>
     </row>
     <row r="434">
@@ -27773,7 +27773,7 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H434" t="n">
-        <v>66.09999999999999</v>
+        <v>18.94444444444444</v>
       </c>
       <c r="I434" t="n">
         <v>101.03</v>
@@ -27806,7 +27806,7 @@
         <v>0.02032</v>
       </c>
       <c r="S434" t="n">
-        <v>894.0247375616473</v>
+        <v>73.60164010074342</v>
       </c>
     </row>
     <row r="435">
@@ -27836,7 +27836,7 @@
         <v>25.72222222222222</v>
       </c>
       <c r="H435" t="n">
-        <v>70.59999999999999</v>
+        <v>21.44444444444444</v>
       </c>
       <c r="I435" t="n">
         <v>101.29</v>
@@ -27869,7 +27869,7 @@
         <v>0.02032</v>
       </c>
       <c r="S435" t="n">
-        <v>981.0288253903369</v>
+        <v>77.25638791267569</v>
       </c>
     </row>
     <row r="436">
@@ -27899,7 +27899,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H436" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I436" t="n">
         <v>101.24</v>
@@ -27932,7 +27932,7 @@
         <v>0.02032</v>
       </c>
       <c r="S436" t="n">
-        <v>867.8197087505708</v>
+        <v>69.2035692094337</v>
       </c>
     </row>
     <row r="437">
@@ -27962,7 +27962,7 @@
         <v>25.5</v>
       </c>
       <c r="H437" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I437" t="n">
         <v>100.74</v>
@@ -27995,7 +27995,7 @@
         <v>0.02032</v>
       </c>
       <c r="S437" t="n">
-        <v>922.6608210155803</v>
+        <v>73.86471792639844</v>
       </c>
     </row>
     <row r="438">
@@ -28025,7 +28025,7 @@
         <v>28</v>
       </c>
       <c r="H438" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I438" t="n">
         <v>100.77</v>
@@ -28058,7 +28058,7 @@
         <v>0.02032</v>
       </c>
       <c r="S438" t="n">
-        <v>765.2367151372213</v>
+        <v>61.80759260401319</v>
       </c>
     </row>
     <row r="439">
@@ -28088,7 +28088,7 @@
         <v>22.05555555555556</v>
       </c>
       <c r="H439" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I439" t="n">
         <v>101.13</v>
@@ -28121,7 +28121,7 @@
         <v>0.02032</v>
       </c>
       <c r="S439" t="n">
-        <v>1071.885745663747</v>
+        <v>86.92042294195065</v>
       </c>
     </row>
     <row r="440">
@@ -28151,7 +28151,7 @@
         <v>23.5</v>
       </c>
       <c r="H440" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I440" t="n">
         <v>101.24</v>
@@ -28184,7 +28184,7 @@
         <v>0.02032</v>
       </c>
       <c r="S440" t="n">
-        <v>922.4200279713652</v>
+        <v>75.86207549712508</v>
       </c>
     </row>
     <row r="441">
@@ -28214,7 +28214,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H441" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I441" t="n">
         <v>101.19</v>
@@ -28247,7 +28247,7 @@
         <v>0.02032</v>
       </c>
       <c r="S441" t="n">
-        <v>1003.466387665702</v>
+        <v>80.02060209965029</v>
       </c>
     </row>
     <row r="442">
@@ -28277,7 +28277,7 @@
         <v>23.72222222222222</v>
       </c>
       <c r="H442" t="n">
-        <v>70.2</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="I442" t="n">
         <v>101.03</v>
@@ -28310,7 +28310,7 @@
         <v>0.02032</v>
       </c>
       <c r="S442" t="n">
-        <v>1086.535051918053</v>
+        <v>85.89374748594913</v>
       </c>
     </row>
     <row r="443">
@@ -28340,7 +28340,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H443" t="n">
-        <v>70.3</v>
+        <v>21.27777777777778</v>
       </c>
       <c r="I443" t="n">
         <v>100.94</v>
@@ -28373,7 +28373,7 @@
         <v>0.02032</v>
       </c>
       <c r="S443" t="n">
-        <v>915.6526931686989</v>
+        <v>72.3155029061181</v>
       </c>
     </row>
     <row r="444">
@@ -28403,7 +28403,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H444" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I444" t="n">
         <v>101</v>
@@ -28436,7 +28436,7 @@
         <v>0.02032</v>
       </c>
       <c r="S444" t="n">
-        <v>946.6096095120303</v>
+        <v>72.61511276939471</v>
       </c>
     </row>
     <row r="445">
@@ -28466,7 +28466,7 @@
         <v>19.66666666666667</v>
       </c>
       <c r="H445" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I445" t="n">
         <v>101.59</v>
@@ -28499,7 +28499,7 @@
         <v>0.02032</v>
       </c>
       <c r="S445" t="n">
-        <v>911.5916527919028</v>
+        <v>79.37281833091406</v>
       </c>
     </row>
     <row r="446">
@@ -28529,7 +28529,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H446" t="n">
-        <v>58.8</v>
+        <v>14.88888888888889</v>
       </c>
       <c r="I446" t="n">
         <v>101.79</v>
@@ -28562,7 +28562,7 @@
         <v>0.02032</v>
       </c>
       <c r="S446" t="n">
-        <v>738.8782566042707</v>
+        <v>65.78187243951702</v>
       </c>
     </row>
     <row r="447">
@@ -28592,7 +28592,7 @@
         <v>15.66666666666667</v>
       </c>
       <c r="H447" t="n">
-        <v>55.6</v>
+        <v>13.11111111111111</v>
       </c>
       <c r="I447" t="n">
         <v>102.16</v>
@@ -28625,7 +28625,7 @@
         <v>0.02032</v>
       </c>
       <c r="S447" t="n">
-        <v>917.5526178125456</v>
+        <v>84.76092420250556</v>
       </c>
     </row>
     <row r="448">
@@ -28655,7 +28655,7 @@
         <v>15.77777777777778</v>
       </c>
       <c r="H448" t="n">
-        <v>56.4</v>
+        <v>13.55555555555556</v>
       </c>
       <c r="I448" t="n">
         <v>102.2</v>
@@ -28688,7 +28688,7 @@
         <v>0.02032</v>
       </c>
       <c r="S448" t="n">
-        <v>946.6874210150006</v>
+        <v>86.63554867365349</v>
       </c>
     </row>
     <row r="449">
@@ -28718,7 +28718,7 @@
         <v>18.38888888888889</v>
       </c>
       <c r="H449" t="n">
-        <v>57</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="I449" t="n">
         <v>102.34</v>
@@ -28751,7 +28751,7 @@
         <v>0.02032</v>
       </c>
       <c r="S449" t="n">
-        <v>825.6414663080544</v>
+        <v>75.03334923000146</v>
       </c>
     </row>
     <row r="450">
@@ -28781,7 +28781,7 @@
         <v>18.38888888888889</v>
       </c>
       <c r="H450" t="n">
-        <v>54.5</v>
+        <v>12.5</v>
       </c>
       <c r="I450" t="n">
         <v>101.78</v>
@@ -28814,7 +28814,7 @@
         <v>0.02032</v>
       </c>
       <c r="S450" t="n">
-        <v>732.1905311476783</v>
+        <v>68.52781885953986</v>
       </c>
     </row>
     <row r="451">
@@ -28844,7 +28844,7 @@
         <v>20.5</v>
       </c>
       <c r="H451" t="n">
-        <v>56.8</v>
+        <v>13.77777777777778</v>
       </c>
       <c r="I451" t="n">
         <v>101.37</v>
@@ -28877,7 +28877,7 @@
         <v>0.02032</v>
       </c>
       <c r="S451" t="n">
-        <v>717.1218249479994</v>
+        <v>65.32235876639575</v>
       </c>
     </row>
     <row r="452">
@@ -28907,7 +28907,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H452" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I452" t="n">
         <v>102.45</v>
@@ -28940,7 +28940,7 @@
         <v>0.02032</v>
       </c>
       <c r="S452" t="n">
-        <v>506.0344088031505</v>
+        <v>56.25565810684346</v>
       </c>
     </row>
     <row r="453">
@@ -28970,7 +28970,7 @@
         <v>16.11111111111111</v>
       </c>
       <c r="H453" t="n">
-        <v>41.7</v>
+        <v>5.388888888888891</v>
       </c>
       <c r="I453" t="n">
         <v>102.2</v>
@@ -29003,7 +29003,7 @@
         <v>0.02032</v>
       </c>
       <c r="S453" t="n">
-        <v>442.3852315964091</v>
+        <v>48.96869244592993</v>
       </c>
     </row>
     <row r="454">
@@ -29033,7 +29033,7 @@
         <v>15.55555555555556</v>
       </c>
       <c r="H454" t="n">
-        <v>46.4</v>
+        <v>8</v>
       </c>
       <c r="I454" t="n">
         <v>101.89</v>
@@ -29066,7 +29066,7 @@
         <v>0.02032</v>
       </c>
       <c r="S454" t="n">
-        <v>585.4095861542949</v>
+        <v>60.71580913015979</v>
       </c>
     </row>
     <row r="455">
@@ -29096,7 +29096,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H455" t="n">
-        <v>57.1</v>
+        <v>13.94444444444445</v>
       </c>
       <c r="I455" t="n">
         <v>101.7</v>
@@ -29129,7 +29129,7 @@
         <v>0.02032</v>
       </c>
       <c r="S455" t="n">
-        <v>681.7345199386866</v>
+        <v>61.88367995775105</v>
       </c>
     </row>
     <row r="456">
@@ -29159,7 +29159,7 @@
         <v>21.5</v>
       </c>
       <c r="H456" t="n">
-        <v>55.8</v>
+        <v>13.22222222222222</v>
       </c>
       <c r="I456" t="n">
         <v>101.79</v>
@@ -29192,7 +29192,7 @@
         <v>0.02032</v>
       </c>
       <c r="S456" t="n">
-        <v>642.8253873793346</v>
+        <v>59.24267558674816</v>
       </c>
     </row>
     <row r="457">
@@ -29222,7 +29222,7 @@
         <v>24.83333333333334</v>
       </c>
       <c r="H457" t="n">
-        <v>51</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="I457" t="n">
         <v>101.24</v>
@@ -29255,7 +29255,7 @@
         <v>0.02032</v>
       </c>
       <c r="S457" t="n">
-        <v>415.6618417732567</v>
+        <v>40.61059762815206</v>
       </c>
     </row>
     <row r="458">
@@ -29285,7 +29285,7 @@
         <v>21.05555555555556</v>
       </c>
       <c r="H458" t="n">
-        <v>60.2</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="I458" t="n">
         <v>101.49</v>
@@ -29318,7 +29318,7 @@
         <v>0.02032</v>
       </c>
       <c r="S458" t="n">
-        <v>813.5639279670974</v>
+        <v>71.3072035139089</v>
       </c>
     </row>
     <row r="459">
@@ -29348,7 +29348,7 @@
         <v>19.77777777777778</v>
       </c>
       <c r="H459" t="n">
-        <v>61.8</v>
+        <v>16.55555555555555</v>
       </c>
       <c r="I459" t="n">
         <v>101.55</v>
@@ -29381,7 +29381,7 @@
         <v>0.02032</v>
       </c>
       <c r="S459" t="n">
-        <v>948.2380413435076</v>
+        <v>81.6691952194589</v>
       </c>
     </row>
     <row r="460">
@@ -29411,7 +29411,7 @@
         <v>8.388888888888889</v>
       </c>
       <c r="H460" t="n">
-        <v>35.3</v>
+        <v>1.833333333333332</v>
       </c>
       <c r="I460" t="n">
         <v>102.26</v>
@@ -29444,7 +29444,7 @@
         <v>0.02032</v>
       </c>
       <c r="S460" t="n">
-        <v>520.0683577865857</v>
+        <v>63.35378499959714</v>
       </c>
     </row>
     <row r="461">
@@ -29474,7 +29474,7 @@
         <v>15.77777777777778</v>
       </c>
       <c r="H461" t="n">
-        <v>48.4</v>
+        <v>9.111111111111111</v>
       </c>
       <c r="I461" t="n">
         <v>101.63</v>
@@ -29507,7 +29507,7 @@
         <v>0.02032</v>
       </c>
       <c r="S461" t="n">
-        <v>638.9126002649555</v>
+        <v>64.53567611009393</v>
       </c>
     </row>
     <row r="462">
@@ -29537,7 +29537,7 @@
         <v>14.16666666666667</v>
       </c>
       <c r="H462" t="n">
-        <v>47.8</v>
+        <v>8.777777777777777</v>
       </c>
       <c r="I462" t="n">
         <v>102.24</v>
@@ -29570,7 +29570,7 @@
         <v>0.02032</v>
       </c>
       <c r="S462" t="n">
-        <v>687.5735015117241</v>
+        <v>69.99856811453003</v>
       </c>
     </row>
     <row r="463">
@@ -29600,7 +29600,7 @@
         <v>10.83333333333333</v>
       </c>
       <c r="H463" t="n">
-        <v>38.5</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="I463" t="n">
         <v>102.92</v>
@@ -29633,7 +29633,7 @@
         <v>0.02032</v>
       </c>
       <c r="S463" t="n">
-        <v>525.7941601478788</v>
+        <v>60.99143014443877</v>
       </c>
     </row>
     <row r="464">
@@ -29663,7 +29663,7 @@
         <v>6.111111111111112</v>
       </c>
       <c r="H464" t="n">
-        <v>38.9</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="I464" t="n">
         <v>103.29</v>
@@ -29696,7 +29696,7 @@
         <v>0.02032</v>
       </c>
       <c r="S464" t="n">
-        <v>739.9398262882177</v>
+        <v>85.32138236061402</v>
       </c>
     </row>
     <row r="465">
@@ -29726,7 +29726,7 @@
         <v>2.11111111111111</v>
       </c>
       <c r="H465" t="n">
-        <v>25.3</v>
+        <v>-3.722222222222222</v>
       </c>
       <c r="I465" t="n">
         <v>103.35</v>
@@ -29759,7 +29759,7 @@
         <v>0.02032</v>
       </c>
       <c r="S465" t="n">
-        <v>453.2422185952427</v>
+        <v>65.29973158334948</v>
       </c>
     </row>
     <row r="466">
@@ -29789,7 +29789,7 @@
         <v>4.055555555555554</v>
       </c>
       <c r="H466" t="n">
-        <v>27.9</v>
+        <v>-2.277777777777779</v>
       </c>
       <c r="I466" t="n">
         <v>102.74</v>
@@ -29822,7 +29822,7 @@
         <v>0.02032</v>
       </c>
       <c r="S466" t="n">
-        <v>460.4361926255199</v>
+        <v>63.36054792151435</v>
       </c>
     </row>
     <row r="467">
@@ -29852,7 +29852,7 @@
         <v>9.444444444444445</v>
       </c>
       <c r="H467" t="n">
-        <v>30.2</v>
+        <v>-1</v>
       </c>
       <c r="I467" t="n">
         <v>102.2</v>
@@ -29885,7 +29885,7 @@
         <v>0.02032</v>
       </c>
       <c r="S467" t="n">
-        <v>363.2573178577862</v>
+        <v>48.06438243247636</v>
       </c>
     </row>
     <row r="468">
@@ -29915,7 +29915,7 @@
         <v>12.5</v>
       </c>
       <c r="H468" t="n">
-        <v>39.2</v>
+        <v>4.000000000000002</v>
       </c>
       <c r="I468" t="n">
         <v>102.03</v>
@@ -29948,7 +29948,7 @@
         <v>0.02032</v>
       </c>
       <c r="S468" t="n">
-        <v>489.0919682172166</v>
+        <v>56.14586153980794</v>
       </c>
     </row>
     <row r="469">
@@ -29978,7 +29978,7 @@
         <v>16.22222222222222</v>
       </c>
       <c r="H469" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I469" t="n">
         <v>101.57</v>
@@ -30011,7 +30011,7 @@
         <v>0.02032</v>
       </c>
       <c r="S469" t="n">
-        <v>453.3945864714742</v>
+        <v>49.76006466033095</v>
       </c>
     </row>
     <row r="470">
@@ -30041,7 +30041,7 @@
         <v>5.666666666666669</v>
       </c>
       <c r="H470" t="n">
-        <v>17.4</v>
+        <v>-8.111111111111112</v>
       </c>
       <c r="I470" t="n">
         <v>103.28</v>
@@ -30074,7 +30074,7 @@
         <v>0.02032</v>
       </c>
       <c r="S470" t="n">
-        <v>217.4050423293836</v>
+        <v>36.39501193313917</v>
       </c>
     </row>
     <row r="471">
@@ -30104,7 +30104,7 @@
         <v>8.944444444444446</v>
       </c>
       <c r="H471" t="n">
-        <v>38.3</v>
+        <v>3.499999999999999</v>
       </c>
       <c r="I471" t="n">
         <v>102.76</v>
@@ -30137,7 +30137,7 @@
         <v>0.02032</v>
       </c>
       <c r="S471" t="n">
-        <v>590.3191853316661</v>
+        <v>68.68171855895</v>
       </c>
     </row>
     <row r="472">
@@ -30167,7 +30167,7 @@
         <v>0.6111111111111119</v>
       </c>
       <c r="H472" t="n">
-        <v>20.8</v>
+        <v>-6.222222222222222</v>
       </c>
       <c r="I472" t="n">
         <v>103.2</v>
@@ -30200,7 +30200,7 @@
         <v>0.02032</v>
       </c>
       <c r="S472" t="n">
-        <v>384.3434116840895</v>
+        <v>60.19371663880495</v>
       </c>
     </row>
     <row r="473">
@@ -30230,7 +30230,7 @@
         <v>6.111111111111112</v>
       </c>
       <c r="H473" t="n">
-        <v>20.4</v>
+        <v>-6.444444444444446</v>
       </c>
       <c r="I473" t="n">
         <v>102.78</v>
@@ -30263,7 +30263,7 @@
         <v>0.02032</v>
       </c>
       <c r="S473" t="n">
-        <v>254.2938267989565</v>
+        <v>40.13297490067041</v>
       </c>
     </row>
     <row r="474">
@@ -30293,7 +30293,7 @@
         <v>5.999999999999999</v>
       </c>
       <c r="H474" t="n">
-        <v>24.7</v>
+        <v>-4.055555555555556</v>
       </c>
       <c r="I474" t="n">
         <v>102.39</v>
@@ -30326,7 +30326,7 @@
         <v>0.02032</v>
       </c>
       <c r="S474" t="n">
-        <v>332.8083997269155</v>
+        <v>48.47059200487057</v>
       </c>
     </row>
     <row r="475">
@@ -30356,7 +30356,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H475" t="n">
-        <v>38.1</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="I475" t="n">
         <v>101.57</v>
@@ -30389,7 +30389,7 @@
         <v>0.02032</v>
       </c>
       <c r="S475" t="n">
-        <v>433.2523080430085</v>
+        <v>50.55917233144089</v>
       </c>
     </row>
     <row r="476">
@@ -30419,7 +30419,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H476" t="n">
-        <v>43.3</v>
+        <v>6.277777777777777</v>
       </c>
       <c r="I476" t="n">
         <v>102</v>
@@ -30452,7 +30452,7 @@
         <v>0.02032</v>
       </c>
       <c r="S476" t="n">
-        <v>750.4205799726362</v>
+        <v>81.20614102648372</v>
       </c>
     </row>
     <row r="477">
@@ -30482,7 +30482,7 @@
         <v>3.499999999999999</v>
       </c>
       <c r="H477" t="n">
-        <v>36.9</v>
+        <v>2.722222222222221</v>
       </c>
       <c r="I477" t="n">
         <v>102.04</v>
@@ -30515,7 +30515,7 @@
         <v>0.02032</v>
       </c>
       <c r="S477" t="n">
-        <v>796.412477661025</v>
+        <v>94.64606713387363</v>
       </c>
     </row>
     <row r="478">
@@ -30545,7 +30545,7 @@
         <v>-0.6666666666666663</v>
       </c>
       <c r="H478" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I478" t="n">
         <v>103.17</v>
@@ -30578,7 +30578,7 @@
         <v>0.02032</v>
       </c>
       <c r="S478" t="n">
-        <v>584.1936664126554</v>
+        <v>82.82409111565757</v>
       </c>
     </row>
     <row r="479">
@@ -30608,7 +30608,7 @@
         <v>-4.388888888888888</v>
       </c>
       <c r="H479" t="n">
-        <v>11.5</v>
+        <v>-11.38888888888889</v>
       </c>
       <c r="I479" t="n">
         <v>104.09</v>
@@ -30641,7 +30641,7 @@
         <v>0.02032</v>
       </c>
       <c r="S479" t="n">
-        <v>306.8581894855791</v>
+        <v>58.11928985636398</v>
       </c>
     </row>
     <row r="480">
@@ -30671,7 +30671,7 @@
         <v>-2.777777777777778</v>
       </c>
       <c r="H480" t="n">
-        <v>10.1</v>
+        <v>-12.16666666666667</v>
       </c>
       <c r="I480" t="n">
         <v>103.79</v>
@@ -30704,7 +30704,7 @@
         <v>0.02032</v>
       </c>
       <c r="S480" t="n">
-        <v>247.8452880876223</v>
+        <v>48.41165133576861</v>
       </c>
     </row>
     <row r="481">
@@ -30734,7 +30734,7 @@
         <v>-1.277777777777778</v>
       </c>
       <c r="H481" t="n">
-        <v>23.8</v>
+        <v>-4.555555555555555</v>
       </c>
       <c r="I481" t="n">
         <v>103.33</v>
@@ -30767,7 +30767,7 @@
         <v>0.02032</v>
       </c>
       <c r="S481" t="n">
-        <v>529.3735759716706</v>
+        <v>78.3745332241474</v>
       </c>
     </row>
     <row r="482">
@@ -30797,7 +30797,7 @@
         <v>-0.2222222222222214</v>
       </c>
       <c r="H482" t="n">
-        <v>23.8</v>
+        <v>-4.555555555555555</v>
       </c>
       <c r="I482" t="n">
         <v>103.6</v>
@@ -30830,7 +30830,7 @@
         <v>0.02032</v>
       </c>
       <c r="S482" t="n">
-        <v>490.1060243966921</v>
+        <v>72.56091470362502</v>
       </c>
     </row>
     <row r="483">
@@ -30860,7 +30860,7 @@
         <v>-4.222222222222223</v>
       </c>
       <c r="H483" t="n">
-        <v>10</v>
+        <v>-12.22222222222222</v>
       </c>
       <c r="I483" t="n">
         <v>104.26</v>
@@ -30893,7 +30893,7 @@
         <v>0.02032</v>
       </c>
       <c r="S483" t="n">
-        <v>274.2420203413578</v>
+        <v>53.68705120455891</v>
       </c>
     </row>
     <row r="484">
@@ -30923,7 +30923,7 @@
         <v>-1.277777777777778</v>
       </c>
       <c r="H484" t="n">
-        <v>16</v>
+        <v>-8.888888888888889</v>
       </c>
       <c r="I484" t="n">
         <v>103.83</v>
@@ -30956,7 +30956,7 @@
         <v>0.02032</v>
       </c>
       <c r="S484" t="n">
-        <v>326.3150277424982</v>
+        <v>56.19944117759847</v>
       </c>
     </row>
     <row r="485">
@@ -30986,7 +30986,7 @@
         <v>-1.666666666666667</v>
       </c>
       <c r="H485" t="n">
-        <v>18.1</v>
+        <v>-7.722222222222221</v>
       </c>
       <c r="I485" t="n">
         <v>103.52</v>
@@ -31019,7 +31019,7 @@
         <v>0.02032</v>
       </c>
       <c r="S485" t="n">
-        <v>383.5724593864077</v>
+        <v>63.32108045930136</v>
       </c>
     </row>
     <row r="486">
@@ -31049,7 +31049,7 @@
         <v>5.833333333333334</v>
       </c>
       <c r="H486" t="n">
-        <v>29.3</v>
+        <v>-1.5</v>
       </c>
       <c r="I486" t="n">
         <v>102.8</v>
@@ -31082,7 +31082,7 @@
         <v>0.02032</v>
       </c>
       <c r="S486" t="n">
-        <v>441.2487117347266</v>
+        <v>59.27828121286094</v>
       </c>
     </row>
     <row r="487">
@@ -31112,7 +31112,7 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="H487" t="n">
-        <v>28.6</v>
+        <v>-1.888888888888888</v>
       </c>
       <c r="I487" t="n">
         <v>103.05</v>
@@ -31145,7 +31145,7 @@
         <v>0.02032</v>
       </c>
       <c r="S487" t="n">
-        <v>627.8500973651412</v>
+        <v>85.36136745684438</v>
       </c>
     </row>
   </sheetData>
